--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TODO" sheetId="1" r:id="rId1"/>
+    <sheet name="History &amp; Critiques" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -50,12 +49,24 @@
   <si>
     <t>fine-tune following camera, resetting</t>
   </si>
+  <si>
+    <t>History &amp; Critiques</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Critiques</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +89,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -117,15 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -146,6 +167,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,7 +191,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -174,21 +224,7 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -196,21 +232,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="2" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="A2:B36"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="4"/>
-    <tableColumn id="8" name="Art" dataDxfId="3"/>
+    <tableColumn id="2" name="Programming" dataDxfId="5"/>
+    <tableColumn id="8" name="Art" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C36" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C36" totalsRowShown="0" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
   <autoFilter ref="C2:C36"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="1"/>
+    <tableColumn id="1" name="Combined" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -515,11 +551,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -528,193 +564,193 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -731,24 +767,672 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26.25">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="6"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="6"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="6"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="6"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="6"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="6"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -60,13 +60,53 @@
   </si>
   <si>
     <t>Critiques</t>
+  </si>
+  <si>
+    <t>v 0.1</t>
+  </si>
+  <si>
+    <t>v 0.2</t>
+  </si>
+  <si>
+    <t>Rough version of see-saw, player camera, trampoline effect, &amp; character control. 
+Weight &amp; wedge movement. 
+Finish condition &amp; scene change. 
+Restart &amp; reset.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New version of everything mostly.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need comments/suggestions on camera &amp; see-saw functionality.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Prefabs for see-saw, game object, sun, player, player camera, trampoline, wall spikes, ground spikes.
+Different (cleaner) scripting for everything.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +132,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,20 +214,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,11 +598,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -770,10 +817,14 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="44.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
       <c r="A1" s="11" t="s">
@@ -794,597 +845,606 @@
       <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="60" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="61.5" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1401,36 +1461,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,10 +192,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,17 +231,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -817,7 +832,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,624 +842,623 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="6"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="6"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="6"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="6"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1461,37 +1475,42 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -100,6 +100,9 @@
 Prefabs for see-saw, game object, sun, player, player camera, trampoline, wall spikes, ground spikes.
 Different (cleaner) scripting for everything.</t>
     </r>
+  </si>
+  <si>
+    <t>Need to know exactly how camera will operate</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +231,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,11 +619,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -644,7 +650,9 @@
         <v>4</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
@@ -675,7 +683,7 @@
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
     </row>
@@ -831,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -842,623 +850,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="6"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="6"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="6"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="6"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1475,36 +1484,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -104,12 +104,20 @@
   <si>
     <t>Need to know exactly how camera will operate</t>
   </si>
+  <si>
+    <t>Better camera following
+Sped up time a bit.
+Fixed some reset problems.</t>
+  </si>
+  <si>
+    <t>v 0.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +160,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,7 +216,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,7 +693,7 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5"/>
@@ -839,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,9 +943,13 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:14" ht="51.75" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1438,36 +1459,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1484,41 +1504,43 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -111,6 +111,13 @@
   </si>
   <si>
     <t>v 0.3</t>
+  </si>
+  <si>
+    <t>v 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera now interpolates between 2 positions for zoom in/out
+</t>
   </si>
 </sst>
 </file>
@@ -251,6 +258,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,9 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,11 +643,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -693,7 +700,7 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5"/>
@@ -857,7 +864,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -867,627 +874,632 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="6"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="6"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="6"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="6"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1504,43 +1516,43 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -118,6 +118,15 @@
   <si>
     <t xml:space="preserve">Camera now interpolates between 2 positions for zoom in/out
 </t>
+  </si>
+  <si>
+    <t>To have two main cameras that quickly zoom between each other; adding perspective to the 3D side scroll style. One camera display the entire level, the other centering on the character; adding some drag to the camera would feel more natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Camera movement is very smooth. Practice level has floor, backing, and a ceiling, its nice to know what your limits are in the beginning of a game, and to exceed them over time. The character motion was at good speed; I think the landing should be a harder drop, like the character "spacks" the ground, maybe a short skid. ( I actually, flung myelf into the ceiling and it was awesome, it just bounced off straight to the ground.) I also enjoy the movement on the pivot point and the weight, they seem to be smoother as well. and the see-saw to triangle ratio is more aesthetically pleasing.</t>
   </si>
 </sst>
 </file>
@@ -861,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H5" sqref="H5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,7 +952,9 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -969,7 +980,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="126.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -981,14 +992,16 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1468,38 +1481,42 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
+    <row r="39" spans="1:13">
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1516,35 +1533,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -120,13 +120,12 @@
 </t>
   </si>
   <si>
-    <t>To have two main cameras that quickly zoom between each other; adding perspective to the 3D side scroll style. One camera display the entire level, the other centering on the character; adding some drag to the camera would feel more natural.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Camera movement is very smooth. Practice level has floor, backing, and a ceiling, its nice to know what your limits are in the beginning of a game, and to exceed them over time. The character motion was at good speed; I think the landing should be a harder drop, like the character "spacks" the ground, maybe a short skid. ( I actually, flung myelf into the ceiling and it was awesome, it just bounced off straight to the ground.) I also enjoy the movement on the pivot point and the weight, they seem to be smoother as well. and the see-saw to triangle ratio is more aesthetically pleasing.</t>
+    <t>v 0.5</t>
+  </si>
+  <si>
+    <t>Added ceiling and back wall
+added rough main menu, transition with play button
+start level with camera zoomed out on entire level, wait a bit, then zoom in on see-saw</t>
   </si>
 </sst>
 </file>
@@ -870,10 +869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M5"/>
+      <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -952,9 +951,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -980,7 +977,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:14" ht="126.75" customHeight="1">
+    <row r="6" spans="1:14">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -992,18 +989,20 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:14" ht="45.75" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -1481,42 +1480,38 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13">
-      <c r="M39" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1533,44 +1528,44 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -126,6 +126,12 @@
     <t>Added ceiling and back wall
 added rough main menu, transition with play button
 start level with camera zoomed out on entire level, wait a bit, then zoom in on see-saw</t>
+  </si>
+  <si>
+    <t>Camera movement is very smooth. Practice level has floor, backing, and a ceiling, its nice to know what your limits are in the beginning of a game, and to exceed them over time. The character motion was at good speed; I think the landing should be a harder drop, like the character "spacks" the ground, maybe a short skid. ( I actually, flung myelf into the ceiling and it was awesome, it just bounced off straight to the ground.) I also enjoy the movement on the pivot point and the weight, they seem to be smoother as well. and the see-saw to triangle ratio is more aesthetically pleasing.</t>
+  </si>
+  <si>
+    <t>To have two main cameras that quickly zoom between each other; adding perspective to the 3D side scroll style. One camera display the entire level, the other centering on the character; adding some drag to the camera would feel more natural.</t>
   </si>
 </sst>
 </file>
@@ -872,7 +878,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+      <selection activeCell="H5" sqref="H5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -951,7 +957,9 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -996,7 +1004,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:14" ht="45.75" customHeight="1">
+    <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1016,9 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -1482,36 +1492,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1528,35 +1537,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>To have two main cameras that quickly zoom between each other; adding perspective to the 3D side scroll style. One camera display the entire level, the other centering on the character; adding some drag to the camera would feel more natural.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>NOT DONE</t>
+  </si>
+  <si>
+    <t>determine how to have glass break</t>
   </si>
 </sst>
 </file>
@@ -189,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +252,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,23 +273,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,6 +295,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,16 +672,17 @@
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -674,88 +693,96 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1">
+      <c r="E3" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -877,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5:M5"/>
     </sheetView>
   </sheetViews>
@@ -888,639 +915,640 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="6"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="6"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="6"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="6"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1537,36 +1565,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -141,6 +141,19 @@
   </si>
   <si>
     <t>determine how to have glass break</t>
+  </si>
+  <si>
+    <t>figure out if vertex anim/morphs are possible (script?)</t>
+  </si>
+  <si>
+    <t>fine-tune trampoline bounciness</t>
+  </si>
+  <si>
+    <t>v 0.6</t>
+  </si>
+  <si>
+    <t>Added rough trampoline prefab with scripting
+Basic bounciness for trampoline, needs work</t>
   </si>
 </sst>
 </file>
@@ -252,7 +265,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +297,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,15 +320,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,24 +679,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -701,7 +717,7 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -710,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -739,7 +755,7 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5"/>
@@ -753,9 +769,13 @@
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
+      <c r="A10" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5"/>
@@ -904,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -915,640 +935,643 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="6"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="6"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="6"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="6"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1565,35 +1588,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1601,8 +1625,9 @@
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -154,6 +154,12 @@
   <si>
     <t>Added rough trampoline prefab with scripting
 Basic bounciness for trampoline, needs work</t>
+  </si>
+  <si>
+    <t>v 0.7</t>
+  </si>
+  <si>
+    <t>Jump pad now uses player's velocity to determine force player is propelled away with</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1092,8 +1098,12 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="6"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1543,35 +1553,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1588,36 +1599,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1626,8 +1636,9 @@
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -160,6 +160,14 @@
   </si>
   <si>
     <t>Jump pad now uses player's velocity to determine force player is propelled away with</t>
+  </si>
+  <si>
+    <t>v 0.8</t>
+  </si>
+  <si>
+    <t>Jump pads more realistic, feel better
+brought zoomed in cam out a bit,
+Cam now follows the player's y movement</t>
   </si>
 </sst>
 </file>
@@ -931,7 +939,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1116,9 +1124,13 @@
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6"/>
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:14" ht="45" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -1553,36 +1565,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1599,35 +1610,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1637,8 +1649,9 @@
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -168,6 +168,16 @@
     <t>Jump pads more realistic, feel better
 brought zoomed in cam out a bit,
 Cam now follows the player's y movement</t>
+  </si>
+  <si>
+    <t>v 0.9</t>
+  </si>
+  <si>
+    <t>Added a second level to test transitioning
+Added defeat scene
+Added code to die when spikes are hit
+Added delay for reset after dying
+Added lives &amp; health (in code only)</t>
   </si>
 </sst>
 </file>
@@ -939,7 +949,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,9 +1153,13 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6"/>
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:14" ht="81" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -1565,35 +1579,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1610,36 +1625,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1650,8 +1664,9 @@
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -170,14 +170,14 @@
 Cam now follows the player's y movement</t>
   </si>
   <si>
-    <t>v 0.9</t>
-  </si>
-  <si>
     <t>Added a second level to test transitioning
 Added defeat scene
 Added code to die when spikes are hit
 Added delay for reset after dying
 Added lives &amp; health (in code only)</t>
+  </si>
+  <si>
+    <t>v 0.9.1</t>
   </si>
 </sst>
 </file>
@@ -949,7 +949,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="11" spans="1:14" ht="81" customHeight="1">
       <c r="A11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1579,36 +1579,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1625,35 +1624,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1664,7 +1664,7 @@
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId9" display="v 0.9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>v 0.9.1</t>
+  </si>
+  <si>
+    <t>The flow is getting to a really good point! And the new camera adjustment adds a lot more to it. I think the player should be able to bring the weight a little bit farther down closer to the see-saw; in order to create a short hop over objects. I like the limits side-to-side. The bouce amount from the jump pads can have more spring to them, propelling the character farther. The level change adds an extra encentive to completing the level, and allows more personal gain, nice touch.</t>
   </si>
 </sst>
 </file>
@@ -949,7 +952,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H12" sqref="H12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1115,7 +1118,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -1165,7 +1168,9 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -1579,35 +1584,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1624,36 +1630,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -181,6 +181,17 @@
   </si>
   <si>
     <t>The flow is getting to a really good point! And the new camera adjustment adds a lot more to it. I think the player should be able to bring the weight a little bit farther down closer to the see-saw; in order to create a short hop over objects. I like the limits side-to-side. The bouce amount from the jump pads can have more spring to them, propelling the character farther. The level change adds an extra encentive to completing the level, and allows more personal gain, nice touch.</t>
+  </si>
+  <si>
+    <t>v 0.10</t>
+  </si>
+  <si>
+    <t>Rearranged levels 1 &amp; 2 to be like concepts
+Tweaked bounce pads to be more responsive
+Added text for death
+Character stops movement when hitting spikes
+Bug fixes for lives counter, resetting correctly…
+Added prefabs for spiked walls, left facing, right facing, both sides</t>
   </si>
 </sst>
 </file>
@@ -951,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:M12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,7 +1167,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:14" ht="81" customHeight="1">
+    <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
@@ -1177,9 +1188,13 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:14" ht="93" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -1584,36 +1599,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1630,35 +1644,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1670,8 +1685,9 @@
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A10" r:id="rId8"/>
     <hyperlink ref="A11" r:id="rId9" display="v 0.9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -191,7 +191,8 @@
 Added text for death
 Character stops movement when hitting spikes
 Bug fixes for lives counter, resetting correctly…
-Added prefabs for spiked walls, left facing, right facing, both sides</t>
+Added prefabs for spiked walls, left facing, right facing, both sides
+increased range for weight movement</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1189,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:14" ht="93" customHeight="1">
+    <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
@@ -1599,35 +1600,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1644,36 +1646,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -193,6 +193,15 @@
 Bug fixes for lives counter, resetting correctly…
 Added prefabs for spiked walls, left facing, right facing, both sides
 increased range for weight movement</t>
+  </si>
+  <si>
+    <t>determine exactly how moving see-saw to new location will work</t>
+  </si>
+  <si>
+    <t>code for moving see-saw to new location</t>
+  </si>
+  <si>
+    <t>KEY</t>
   </si>
 </sst>
 </file>
@@ -304,7 +313,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,9 +328,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -333,33 +339,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -367,7 +377,19 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -377,23 +399,11 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -411,21 +421,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowDxfId="8" dataDxfId="2" headerRowBorderDxfId="7">
   <autoFilter ref="A2:B36"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="5"/>
-    <tableColumn id="8" name="Art" dataDxfId="4"/>
+    <tableColumn id="2" name="Programming" dataDxfId="4"/>
+    <tableColumn id="8" name="Art" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C36" totalsRowShown="0" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C36" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="C2:C36"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="0"/>
+    <tableColumn id="1" name="Combined" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -718,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,11 +741,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -747,204 +758,211 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="18" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="11"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -963,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:G13"/>
     </sheetView>
   </sheetViews>
@@ -974,662 +992,661 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="6"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="6"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="6"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="6"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="6"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="6"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="6"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1646,35 +1663,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>KEY</t>
+  </si>
+  <si>
+    <t>determine menu designs</t>
+  </si>
+  <si>
+    <t>button &amp; menu interaction</t>
   </si>
 </sst>
 </file>
@@ -313,7 +319,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,30 +330,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,16 +370,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,7 +389,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -390,20 +413,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -421,21 +430,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowDxfId="8" dataDxfId="2" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="A2:B36"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="4"/>
-    <tableColumn id="8" name="Art" dataDxfId="3"/>
+    <tableColumn id="2" name="Programming" dataDxfId="5"/>
+    <tableColumn id="8" name="Art" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C36" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C36" totalsRowShown="0" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
   <autoFilter ref="C2:C36"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="1"/>
+    <tableColumn id="1" name="Combined" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -729,7 +738,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -741,12 +750,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -758,19 +767,21 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -778,11 +789,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -791,42 +804,42 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -835,134 +848,134 @@
         <v>45</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="17"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="17"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="17"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -992,661 +1005,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="5"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="5"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="5"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="5"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="5"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="5"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="5"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="5"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="5"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="5"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="5"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1663,36 +1677,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>button &amp; menu interaction</t>
+  </si>
+  <si>
+    <t>Determine how we want resetting to work for sure…do we move see saw, subtract health, etc. Flow chart would be good: player comes to rest…what happens after this???</t>
+  </si>
+  <si>
+    <t>v 0.11</t>
+  </si>
+  <si>
+    <t>See-saw now moves to the last place your character stopped if you have enough health
+Keeping track of health and displaying
+Reset health when lives get decremented
+Increased zoomed out camera distance slightly</t>
   </si>
 </sst>
 </file>
@@ -358,6 +370,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,15 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -750,11 +762,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
@@ -772,13 +784,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -821,7 +833,7 @@
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="11"/>
@@ -852,10 +864,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="60">
       <c r="A12" s="11"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
@@ -994,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1005,662 +1019,665 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="4"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="58.5" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1677,35 +1694,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1718,8 +1736,9 @@
     <hyperlink ref="A10" r:id="rId8"/>
     <hyperlink ref="A11" r:id="rId9" display="v 0.9"/>
     <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -220,6 +220,9 @@
 Keeping track of health and displaying
 Reset health when lives get decremented
 Increased zoomed out camera distance slightly</t>
+  </si>
+  <si>
+    <t>setup rope prefab (character able to move up &amp; down and jump on/off)</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +393,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -749,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,7 +853,7 @@
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="11"/>
@@ -856,7 +862,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="11"/>
@@ -865,7 +871,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="11" t="s">
         <v>49</v>
@@ -1008,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1649,35 +1657,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1694,36 +1703,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -210,9 +210,6 @@
     <t>button &amp; menu interaction</t>
   </si>
   <si>
-    <t>Determine how we want resetting to work for sure…do we move see saw, subtract health, etc. Flow chart would be good: player comes to rest…what happens after this???</t>
-  </si>
-  <si>
     <t>v 0.11</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>setup rope prefab (character able to move up &amp; down and jump on/off)</t>
+  </si>
+  <si>
+    <t>Determine how we want resetting to work for sure…do we move see saw, subtract health, etc. Flow chart would be good: player comes to rest…what happens after this??? at what point does the character get reset, e.g. when he doesn't "die" but doesn't reach a checkpoint or goal....when he stops moving completely or when he's below a certain velocity? When he does get reset, is it a loss of life? health? or something else entirely?</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,6 +382,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -756,7 +759,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -768,11 +771,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
@@ -853,7 +856,7 @@
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="11"/>
@@ -862,7 +865,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="11"/>
@@ -870,19 +873,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="150">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11"/>
@@ -1027,666 +1030,665 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1703,35 +1705,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -72,6 +72,138 @@
 Weight &amp; wedge movement. 
 Finish condition &amp; scene change. 
 Restart &amp; reset.</t>
+  </si>
+  <si>
+    <t>Need to know exactly how camera will operate</t>
+  </si>
+  <si>
+    <t>Better camera following
+Sped up time a bit.
+Fixed some reset problems.</t>
+  </si>
+  <si>
+    <t>v 0.3</t>
+  </si>
+  <si>
+    <t>v 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera now interpolates between 2 positions for zoom in/out
+</t>
+  </si>
+  <si>
+    <t>v 0.5</t>
+  </si>
+  <si>
+    <t>Added ceiling and back wall
+added rough main menu, transition with play button
+start level with camera zoomed out on entire level, wait a bit, then zoom in on see-saw</t>
+  </si>
+  <si>
+    <t>Camera movement is very smooth. Practice level has floor, backing, and a ceiling, its nice to know what your limits are in the beginning of a game, and to exceed them over time. The character motion was at good speed; I think the landing should be a harder drop, like the character "spacks" the ground, maybe a short skid. ( I actually, flung myelf into the ceiling and it was awesome, it just bounced off straight to the ground.) I also enjoy the movement on the pivot point and the weight, they seem to be smoother as well. and the see-saw to triangle ratio is more aesthetically pleasing.</t>
+  </si>
+  <si>
+    <t>To have two main cameras that quickly zoom between each other; adding perspective to the 3D side scroll style. One camera display the entire level, the other centering on the character; adding some drag to the camera would feel more natural.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>NOT DONE</t>
+  </si>
+  <si>
+    <t>determine how to have glass break</t>
+  </si>
+  <si>
+    <t>figure out if vertex anim/morphs are possible (script?)</t>
+  </si>
+  <si>
+    <t>fine-tune trampoline bounciness</t>
+  </si>
+  <si>
+    <t>v 0.6</t>
+  </si>
+  <si>
+    <t>Added rough trampoline prefab with scripting
+Basic bounciness for trampoline, needs work</t>
+  </si>
+  <si>
+    <t>v 0.7</t>
+  </si>
+  <si>
+    <t>Jump pad now uses player's velocity to determine force player is propelled away with</t>
+  </si>
+  <si>
+    <t>v 0.8</t>
+  </si>
+  <si>
+    <t>Jump pads more realistic, feel better
+brought zoomed in cam out a bit,
+Cam now follows the player's y movement</t>
+  </si>
+  <si>
+    <t>Added a second level to test transitioning
+Added defeat scene
+Added code to die when spikes are hit
+Added delay for reset after dying
+Added lives &amp; health (in code only)</t>
+  </si>
+  <si>
+    <t>v 0.9.1</t>
+  </si>
+  <si>
+    <t>The flow is getting to a really good point! And the new camera adjustment adds a lot more to it. I think the player should be able to bring the weight a little bit farther down closer to the see-saw; in order to create a short hop over objects. I like the limits side-to-side. The bouce amount from the jump pads can have more spring to them, propelling the character farther. The level change adds an extra encentive to completing the level, and allows more personal gain, nice touch.</t>
+  </si>
+  <si>
+    <t>v 0.10</t>
+  </si>
+  <si>
+    <t>Rearranged levels 1 &amp; 2 to be like concepts
+Tweaked bounce pads to be more responsive
+Added text for death
+Character stops movement when hitting spikes
+Bug fixes for lives counter, resetting correctly…
+Added prefabs for spiked walls, left facing, right facing, both sides
+increased range for weight movement</t>
+  </si>
+  <si>
+    <t>determine exactly how moving see-saw to new location will work</t>
+  </si>
+  <si>
+    <t>code for moving see-saw to new location</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>determine menu designs</t>
+  </si>
+  <si>
+    <t>button &amp; menu interaction</t>
+  </si>
+  <si>
+    <t>v 0.11</t>
+  </si>
+  <si>
+    <t>See-saw now moves to the last place your character stopped if you have enough health
+Keeping track of health and displaying
+Reset health when lives get decremented
+Increased zoomed out camera distance slightly</t>
+  </si>
+  <si>
+    <t>Determine how we want resetting to work for sure…do we move see saw, subtract health, etc. Flow chart would be good: player comes to rest…what happens after this??? at what point does the character get reset, e.g. when he doesn't "die" but doesn't reach a checkpoint or goal....when he stops moving completely or when he's below a certain velocity? When he does get reset, is it a loss of life? health? or something else entirely?</t>
+  </si>
+  <si>
+    <t>setup rope prefab character able to grab on &amp; let go</t>
+  </si>
+  <si>
+    <t>v 0.12</t>
+  </si>
+  <si>
+    <t>Added rope prefab
+Added ability to grab/let go of rope (press J to grab, release to let go)
+Removed use of health
+Commented out code that resets character (for now)</t>
   </si>
   <si>
     <r>
@@ -81,12 +213,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Need comments/suggestions on camera &amp; see-saw functionality.</t>
+      <t xml:space="preserve">Need comments/suggestions on camera &amp; see-saw functionality. </t>
     </r>
     <r>
       <rPr>
@@ -96,140 +227,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 
+      <t xml:space="preserve">
 Prefabs for see-saw, game object, sun, player, player camera, trampoline, wall spikes, ground spikes.
 Different (cleaner) scripting for everything.</t>
     </r>
-  </si>
-  <si>
-    <t>Need to know exactly how camera will operate</t>
-  </si>
-  <si>
-    <t>Better camera following
-Sped up time a bit.
-Fixed some reset problems.</t>
-  </si>
-  <si>
-    <t>v 0.3</t>
-  </si>
-  <si>
-    <t>v 0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera now interpolates between 2 positions for zoom in/out
-</t>
-  </si>
-  <si>
-    <t>v 0.5</t>
-  </si>
-  <si>
-    <t>Added ceiling and back wall
-added rough main menu, transition with play button
-start level with camera zoomed out on entire level, wait a bit, then zoom in on see-saw</t>
-  </si>
-  <si>
-    <t>Camera movement is very smooth. Practice level has floor, backing, and a ceiling, its nice to know what your limits are in the beginning of a game, and to exceed them over time. The character motion was at good speed; I think the landing should be a harder drop, like the character "spacks" the ground, maybe a short skid. ( I actually, flung myelf into the ceiling and it was awesome, it just bounced off straight to the ground.) I also enjoy the movement on the pivot point and the weight, they seem to be smoother as well. and the see-saw to triangle ratio is more aesthetically pleasing.</t>
-  </si>
-  <si>
-    <t>To have two main cameras that quickly zoom between each other; adding perspective to the 3D side scroll style. One camera display the entire level, the other centering on the character; adding some drag to the camera would feel more natural.</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>NOT DONE</t>
-  </si>
-  <si>
-    <t>determine how to have glass break</t>
-  </si>
-  <si>
-    <t>figure out if vertex anim/morphs are possible (script?)</t>
-  </si>
-  <si>
-    <t>fine-tune trampoline bounciness</t>
-  </si>
-  <si>
-    <t>v 0.6</t>
-  </si>
-  <si>
-    <t>Added rough trampoline prefab with scripting
-Basic bounciness for trampoline, needs work</t>
-  </si>
-  <si>
-    <t>v 0.7</t>
-  </si>
-  <si>
-    <t>Jump pad now uses player's velocity to determine force player is propelled away with</t>
-  </si>
-  <si>
-    <t>v 0.8</t>
-  </si>
-  <si>
-    <t>Jump pads more realistic, feel better
-brought zoomed in cam out a bit,
-Cam now follows the player's y movement</t>
-  </si>
-  <si>
-    <t>Added a second level to test transitioning
-Added defeat scene
-Added code to die when spikes are hit
-Added delay for reset after dying
-Added lives &amp; health (in code only)</t>
-  </si>
-  <si>
-    <t>v 0.9.1</t>
-  </si>
-  <si>
-    <t>The flow is getting to a really good point! And the new camera adjustment adds a lot more to it. I think the player should be able to bring the weight a little bit farther down closer to the see-saw; in order to create a short hop over objects. I like the limits side-to-side. The bouce amount from the jump pads can have more spring to them, propelling the character farther. The level change adds an extra encentive to completing the level, and allows more personal gain, nice touch.</t>
-  </si>
-  <si>
-    <t>v 0.10</t>
-  </si>
-  <si>
-    <t>Rearranged levels 1 &amp; 2 to be like concepts
-Tweaked bounce pads to be more responsive
-Added text for death
-Character stops movement when hitting spikes
-Bug fixes for lives counter, resetting correctly…
-Added prefabs for spiked walls, left facing, right facing, both sides
-increased range for weight movement</t>
-  </si>
-  <si>
-    <t>determine exactly how moving see-saw to new location will work</t>
-  </si>
-  <si>
-    <t>code for moving see-saw to new location</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>determine menu designs</t>
-  </si>
-  <si>
-    <t>button &amp; menu interaction</t>
-  </si>
-  <si>
-    <t>v 0.11</t>
-  </si>
-  <si>
-    <t>See-saw now moves to the last place your character stopped if you have enough health
-Keeping track of health and displaying
-Reset health when lives get decremented
-Increased zoomed out camera distance slightly</t>
-  </si>
-  <si>
-    <t>setup rope prefab (character able to move up &amp; down and jump on/off)</t>
-  </si>
-  <si>
-    <t>Determine how we want resetting to work for sure…do we move see saw, subtract health, etc. Flow chart would be good: player comes to rest…what happens after this??? at what point does the character get reset, e.g. when he doesn't "die" but doesn't reach a checkpoint or goal....when he stops moving completely or when he's below a certain velocity? When he does get reset, is it a loss of life? health? or something else entirely?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,13 +263,6 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,7 +330,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -351,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -379,12 +380,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,9 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -758,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,11 +772,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
@@ -789,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -797,13 +798,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
@@ -811,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -850,31 +851,31 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="9"/>
@@ -883,8 +884,8 @@
     <row r="13" spans="1:5" ht="150">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="22" t="s">
-        <v>52</v>
+      <c r="C13" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1019,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,665 +1031,670 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="B5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" ht="61.5" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1705,36 +1711,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1748,8 +1753,9 @@
     <hyperlink ref="A11" r:id="rId9" display="v 0.9"/>
     <hyperlink ref="A12" r:id="rId10"/>
     <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -72,138 +72,6 @@
 Weight &amp; wedge movement. 
 Finish condition &amp; scene change. 
 Restart &amp; reset.</t>
-  </si>
-  <si>
-    <t>Need to know exactly how camera will operate</t>
-  </si>
-  <si>
-    <t>Better camera following
-Sped up time a bit.
-Fixed some reset problems.</t>
-  </si>
-  <si>
-    <t>v 0.3</t>
-  </si>
-  <si>
-    <t>v 0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera now interpolates between 2 positions for zoom in/out
-</t>
-  </si>
-  <si>
-    <t>v 0.5</t>
-  </si>
-  <si>
-    <t>Added ceiling and back wall
-added rough main menu, transition with play button
-start level with camera zoomed out on entire level, wait a bit, then zoom in on see-saw</t>
-  </si>
-  <si>
-    <t>Camera movement is very smooth. Practice level has floor, backing, and a ceiling, its nice to know what your limits are in the beginning of a game, and to exceed them over time. The character motion was at good speed; I think the landing should be a harder drop, like the character "spacks" the ground, maybe a short skid. ( I actually, flung myelf into the ceiling and it was awesome, it just bounced off straight to the ground.) I also enjoy the movement on the pivot point and the weight, they seem to be smoother as well. and the see-saw to triangle ratio is more aesthetically pleasing.</t>
-  </si>
-  <si>
-    <t>To have two main cameras that quickly zoom between each other; adding perspective to the 3D side scroll style. One camera display the entire level, the other centering on the character; adding some drag to the camera would feel more natural.</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>NOT DONE</t>
-  </si>
-  <si>
-    <t>determine how to have glass break</t>
-  </si>
-  <si>
-    <t>figure out if vertex anim/morphs are possible (script?)</t>
-  </si>
-  <si>
-    <t>fine-tune trampoline bounciness</t>
-  </si>
-  <si>
-    <t>v 0.6</t>
-  </si>
-  <si>
-    <t>Added rough trampoline prefab with scripting
-Basic bounciness for trampoline, needs work</t>
-  </si>
-  <si>
-    <t>v 0.7</t>
-  </si>
-  <si>
-    <t>Jump pad now uses player's velocity to determine force player is propelled away with</t>
-  </si>
-  <si>
-    <t>v 0.8</t>
-  </si>
-  <si>
-    <t>Jump pads more realistic, feel better
-brought zoomed in cam out a bit,
-Cam now follows the player's y movement</t>
-  </si>
-  <si>
-    <t>Added a second level to test transitioning
-Added defeat scene
-Added code to die when spikes are hit
-Added delay for reset after dying
-Added lives &amp; health (in code only)</t>
-  </si>
-  <si>
-    <t>v 0.9.1</t>
-  </si>
-  <si>
-    <t>The flow is getting to a really good point! And the new camera adjustment adds a lot more to it. I think the player should be able to bring the weight a little bit farther down closer to the see-saw; in order to create a short hop over objects. I like the limits side-to-side. The bouce amount from the jump pads can have more spring to them, propelling the character farther. The level change adds an extra encentive to completing the level, and allows more personal gain, nice touch.</t>
-  </si>
-  <si>
-    <t>v 0.10</t>
-  </si>
-  <si>
-    <t>Rearranged levels 1 &amp; 2 to be like concepts
-Tweaked bounce pads to be more responsive
-Added text for death
-Character stops movement when hitting spikes
-Bug fixes for lives counter, resetting correctly…
-Added prefabs for spiked walls, left facing, right facing, both sides
-increased range for weight movement</t>
-  </si>
-  <si>
-    <t>determine exactly how moving see-saw to new location will work</t>
-  </si>
-  <si>
-    <t>code for moving see-saw to new location</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>determine menu designs</t>
-  </si>
-  <si>
-    <t>button &amp; menu interaction</t>
-  </si>
-  <si>
-    <t>v 0.11</t>
-  </si>
-  <si>
-    <t>See-saw now moves to the last place your character stopped if you have enough health
-Keeping track of health and displaying
-Reset health when lives get decremented
-Increased zoomed out camera distance slightly</t>
-  </si>
-  <si>
-    <t>Determine how we want resetting to work for sure…do we move see saw, subtract health, etc. Flow chart would be good: player comes to rest…what happens after this??? at what point does the character get reset, e.g. when he doesn't "die" but doesn't reach a checkpoint or goal....when he stops moving completely or when he's below a certain velocity? When he does get reset, is it a loss of life? health? or something else entirely?</t>
-  </si>
-  <si>
-    <t>setup rope prefab character able to grab on &amp; let go</t>
-  </si>
-  <si>
-    <t>v 0.12</t>
-  </si>
-  <si>
-    <t>Added rope prefab
-Added ability to grab/let go of rope (press J to grab, release to let go)
-Removed use of health
-Commented out code that resets character (for now)</t>
   </si>
   <si>
     <r>
@@ -213,11 +81,12 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Need comments/suggestions on camera &amp; see-saw functionality. </t>
+      <t>Need comments/suggestions on camera &amp; see-saw functionality.</t>
     </r>
     <r>
       <rPr>
@@ -227,17 +96,152 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve"> 
 Prefabs for see-saw, game object, sun, player, player camera, trampoline, wall spikes, ground spikes.
 Different (cleaner) scripting for everything.</t>
     </r>
+  </si>
+  <si>
+    <t>Need to know exactly how camera will operate</t>
+  </si>
+  <si>
+    <t>Better camera following
+Sped up time a bit.
+Fixed some reset problems.</t>
+  </si>
+  <si>
+    <t>v 0.3</t>
+  </si>
+  <si>
+    <t>v 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera now interpolates between 2 positions for zoom in/out
+</t>
+  </si>
+  <si>
+    <t>v 0.5</t>
+  </si>
+  <si>
+    <t>Added ceiling and back wall
+added rough main menu, transition with play button
+start level with camera zoomed out on entire level, wait a bit, then zoom in on see-saw</t>
+  </si>
+  <si>
+    <t>Camera movement is very smooth. Practice level has floor, backing, and a ceiling, its nice to know what your limits are in the beginning of a game, and to exceed them over time. The character motion was at good speed; I think the landing should be a harder drop, like the character "spacks" the ground, maybe a short skid. ( I actually, flung myelf into the ceiling and it was awesome, it just bounced off straight to the ground.) I also enjoy the movement on the pivot point and the weight, they seem to be smoother as well. and the see-saw to triangle ratio is more aesthetically pleasing.</t>
+  </si>
+  <si>
+    <t>To have two main cameras that quickly zoom between each other; adding perspective to the 3D side scroll style. One camera display the entire level, the other centering on the character; adding some drag to the camera would feel more natural.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>NOT DONE</t>
+  </si>
+  <si>
+    <t>determine how to have glass break</t>
+  </si>
+  <si>
+    <t>figure out if vertex anim/morphs are possible (script?)</t>
+  </si>
+  <si>
+    <t>fine-tune trampoline bounciness</t>
+  </si>
+  <si>
+    <t>v 0.6</t>
+  </si>
+  <si>
+    <t>Added rough trampoline prefab with scripting
+Basic bounciness for trampoline, needs work</t>
+  </si>
+  <si>
+    <t>v 0.7</t>
+  </si>
+  <si>
+    <t>Jump pad now uses player's velocity to determine force player is propelled away with</t>
+  </si>
+  <si>
+    <t>v 0.8</t>
+  </si>
+  <si>
+    <t>Jump pads more realistic, feel better
+brought zoomed in cam out a bit,
+Cam now follows the player's y movement</t>
+  </si>
+  <si>
+    <t>Added a second level to test transitioning
+Added defeat scene
+Added code to die when spikes are hit
+Added delay for reset after dying
+Added lives &amp; health (in code only)</t>
+  </si>
+  <si>
+    <t>v 0.9.1</t>
+  </si>
+  <si>
+    <t>The flow is getting to a really good point! And the new camera adjustment adds a lot more to it. I think the player should be able to bring the weight a little bit farther down closer to the see-saw; in order to create a short hop over objects. I like the limits side-to-side. The bouce amount from the jump pads can have more spring to them, propelling the character farther. The level change adds an extra encentive to completing the level, and allows more personal gain, nice touch.</t>
+  </si>
+  <si>
+    <t>v 0.10</t>
+  </si>
+  <si>
+    <t>Rearranged levels 1 &amp; 2 to be like concepts
+Tweaked bounce pads to be more responsive
+Added text for death
+Character stops movement when hitting spikes
+Bug fixes for lives counter, resetting correctly…
+Added prefabs for spiked walls, left facing, right facing, both sides
+increased range for weight movement</t>
+  </si>
+  <si>
+    <t>determine exactly how moving see-saw to new location will work</t>
+  </si>
+  <si>
+    <t>code for moving see-saw to new location</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>determine menu designs</t>
+  </si>
+  <si>
+    <t>button &amp; menu interaction</t>
+  </si>
+  <si>
+    <t>v 0.11</t>
+  </si>
+  <si>
+    <t>See-saw now moves to the last place your character stopped if you have enough health
+Keeping track of health and displaying
+Reset health when lives get decremented
+Increased zoomed out camera distance slightly</t>
+  </si>
+  <si>
+    <t>Determine how we want resetting to work for sure…do we move see saw, subtract health, etc. Flow chart would be good: player comes to rest…what happens after this??? at what point does the character get reset, e.g. when he doesn't "die" but doesn't reach a checkpoint or goal....when he stops moving completely or when he's below a certain velocity? When he does get reset, is it a loss of life? health? or something else entirely?</t>
+  </si>
+  <si>
+    <t>Develop wall jump</t>
+  </si>
+  <si>
+    <t>Raise ceiling a bit</t>
+  </si>
+  <si>
+    <t>Create rough versions of the rest of world 1 levels</t>
+  </si>
+  <si>
+    <t>determine how to do upgrades &amp; currency-related features</t>
+  </si>
+  <si>
+    <t>setup rope prefab (character able to jump on/off)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +267,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,13 +335,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -352,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -362,44 +375,44 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,12 +785,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -789,219 +802,227 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="17" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="17" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="150">
+      <c r="A13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="150">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="18" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1020,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1031,637 +1052,633 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="B6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="B9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="B10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="B12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="75">
@@ -1753,9 +1770,8 @@
     <hyperlink ref="A11" r:id="rId9" display="v 0.9"/>
     <hyperlink ref="A12" r:id="rId10"/>
     <hyperlink ref="A13" r:id="rId11"/>
-    <hyperlink ref="A14" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -235,6 +235,25 @@
   </si>
   <si>
     <t>setup rope prefab (character able to jump on/off)</t>
+  </si>
+  <si>
+    <t>Allow changing the current level to any level for testing purposes</t>
+  </si>
+  <si>
+    <t>v 0.12</t>
+  </si>
+  <si>
+    <t>Chain rope now can be grabbed correctly no matter what position/orientation it has
+Area to grab onto rope decreased, making where the player is in relation to the rope more realistic looking.</t>
+  </si>
+  <si>
+    <t>v 0.13</t>
+  </si>
+  <si>
+    <t>Added chain rope prefab, player can grab onto it and let go by pressing/releasing 'J'</t>
+  </si>
+  <si>
+    <t>Add dynamic creation of chain rope, being able to add various amount of links through an editor property</t>
   </si>
 </sst>
 </file>
@@ -348,7 +367,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +400,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,26 +433,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -773,7 +795,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -785,11 +807,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
@@ -807,13 +829,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -821,13 +843,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -835,99 +857,103 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="150">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9"/>
@@ -1042,7 +1068,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G17"/>
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1052,666 +1078,673 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="4"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="A15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1728,35 +1761,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1770,8 +1804,10 @@
     <hyperlink ref="A11" r:id="rId9" display="v 0.9"/>
     <hyperlink ref="A12" r:id="rId10"/>
     <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A15" r:id="rId12" display="v 0.12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -254,6 +254,17 @@
   </si>
   <si>
     <t>Add dynamic creation of chain rope, being able to add various amount of links through an editor property</t>
+  </si>
+  <si>
+    <t>Moving up/down rope - do they automatically stop moving when they get to the bottom, or does that cause them to let go??</t>
+  </si>
+  <si>
+    <t>v0.14</t>
+  </si>
+  <si>
+    <t>Added rough up/down movement for rope
+Added rope reset
+Raised the roof!</t>
   </si>
 </sst>
 </file>
@@ -794,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -872,12 +883,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
@@ -928,7 +941,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="12"/>
@@ -1067,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1369,9 +1382,13 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="4"/>
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:14" ht="45.75" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1806,8 +1823,9 @@
     <hyperlink ref="A13" r:id="rId11"/>
     <hyperlink ref="A15" r:id="rId12" display="v 0.12"/>
     <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -265,6 +265,12 @@
     <t>Added rough up/down movement for rope
 Added rope reset
 Raised the roof!</t>
+  </si>
+  <si>
+    <t>v0.15</t>
+  </si>
+  <si>
+    <t>Rope climbing up/down working, needs tweaks</t>
   </si>
 </sst>
 </file>
@@ -438,14 +444,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,7 +1087,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1091,43 +1097,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1348,14 +1354,14 @@
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -1402,8 +1408,12 @@
       <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="4"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -1733,35 +1743,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1778,36 +1789,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1824,8 +1834,9 @@
     <hyperlink ref="A15" r:id="rId12" display="v 0.12"/>
     <hyperlink ref="A14" r:id="rId13"/>
     <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +390,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,14 +450,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,7 +890,7 @@
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="12"/>
@@ -894,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -926,7 +935,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1086,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1097,43 +1106,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1354,14 +1363,14 @@
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -1743,36 +1752,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1789,35 +1797,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Rope climbing up/down working, needs tweaks</t>
+  </si>
+  <si>
+    <t>determine scale of everything so, figure out a standard for block sizes</t>
   </si>
 </sst>
 </file>
@@ -444,23 +447,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -833,11 +836,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
@@ -890,7 +893,7 @@
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="12"/>
@@ -983,8 +986,10 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
     </row>
@@ -1106,681 +1111,682 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1797,36 +1803,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>determine scale of everything so, figure out a standard for block sizes</t>
+  </si>
+  <si>
+    <t>SCALE IS 6.5</t>
+  </si>
+  <si>
+    <t>v0.16</t>
+  </si>
+  <si>
+    <t>Previous level one is now "practice" level
+Levels 1-4 are done similar to concept images
+Addition of checkpoint prefab
+Addition of water prefab
+Brought zoomed-in cam back a bit
+Added boost force when "J" is pressed
+Many minor changes to code structure &amp; cleanup</t>
   </si>
 </sst>
 </file>
@@ -393,7 +408,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,6 +463,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,11 +854,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
@@ -889,7 +907,9 @@
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -987,7 +1007,7 @@
       <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="9"/>
@@ -1100,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1111,649 +1131,653 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" ht="105" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="75">
@@ -1849,8 +1873,9 @@
     <hyperlink ref="A14" r:id="rId13"/>
     <hyperlink ref="A16" r:id="rId14"/>
     <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -288,7 +288,17 @@
 Addition of water prefab
 Brought zoomed-in cam back a bit
 Added boost force when "J" is pressed
-Many minor changes to code structure &amp; cleanup</t>
+Many minor changes to code structure &amp; cleanup
+Added current world/level to HUD</t>
+  </si>
+  <si>
+    <t>NOT NEEDED</t>
+  </si>
+  <si>
+    <t>table is sorted by color, no color</t>
+  </si>
+  <si>
+    <t>todos are placed at the top</t>
   </si>
 </sst>
 </file>
@@ -372,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -400,6 +410,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -408,7 +427,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,41 +451,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,23 +466,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -500,23 +617,11 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -534,21 +639,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
-  <autoFilter ref="A2:B36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="4" headerRowBorderDxfId="17">
+  <autoFilter ref="A2:B20"/>
+  <sortState ref="A3:B20">
+    <sortCondition sortBy="cellColor" ref="A2:A20" dxfId="1"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="5"/>
-    <tableColumn id="8" name="Art" dataDxfId="4"/>
+    <tableColumn id="2" name="Programming" dataDxfId="6"/>
+    <tableColumn id="8" name="Art" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C36" totalsRowShown="0" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
-  <autoFilter ref="C2:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="2" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="C2:C20"/>
+  <sortState ref="C3:C36">
+    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="10"/>
+  </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="0"/>
+    <tableColumn id="1" name="Combined" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -841,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -850,16 +961,16 @@
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -871,18 +982,18 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -890,218 +1001,218 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="C4" s="22"/>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="150">
+      <c r="A20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="150">
-      <c r="A13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="18" t="s">
+      <c r="C20" s="27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" ht="45">
-      <c r="A17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-    </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1120,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,686 +1242,685 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" ht="105" customHeight="1">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1827,35 +1937,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -299,6 +299,30 @@
   </si>
   <si>
     <t>todos are placed at the top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have camera look ahead of the player a bit (especially when falling) </t>
+  </si>
+  <si>
+    <t>make boost only available when in range of pad</t>
+  </si>
+  <si>
+    <t>make side-side movement correct (short limited movement)</t>
+  </si>
+  <si>
+    <t>add going through bottom of one-way jump pad</t>
+  </si>
+  <si>
+    <t>speed up movement (increase delta time)</t>
+  </si>
+  <si>
+    <t>v0.17</t>
+  </si>
+  <si>
+    <t>Levels 5-8 rough placement is done according to concepts (minus some of the different jump pads)
+Created script for moving objects
+Sped up time a bit, gameplay is a bit more fast-paced now and less "floaty"
+Gravity has also been increased slightly</t>
   </si>
 </sst>
 </file>
@@ -427,7 +451,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,67 +484,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -531,13 +556,21 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -554,74 +587,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -639,10 +605,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="4" headerRowBorderDxfId="17">
-  <autoFilter ref="A2:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A2:B25"/>
   <sortState ref="A3:B20">
-    <sortCondition sortBy="cellColor" ref="A2:A20" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A20" dxfId="7"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="2" name="Programming" dataDxfId="6"/>
@@ -653,13 +619,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="2" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="C2:C20"/>
   <sortState ref="C3:C36">
-    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="10"/>
+    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="1"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="3"/>
+    <tableColumn id="1" name="Combined" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -950,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -965,11 +931,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
@@ -987,13 +953,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1001,171 +967,181 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="16"/>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="E6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="E7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="24" t="s">
+      <c r="A12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="21" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="24" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="150">
+      <c r="A20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="24" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:3" ht="45">
-      <c r="A17" s="24" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="24" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="24" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="150">
-      <c r="A20" s="26" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
@@ -1179,40 +1155,58 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
+      <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
+      <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3">
+      <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="11"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="8"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="1:3">
+      <c r="B36" s="8"/>
       <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1231,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1242,685 +1236,690 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" ht="59.25" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1937,36 +1936,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1985,8 +1983,9 @@
     <hyperlink ref="A16" r:id="rId14"/>
     <hyperlink ref="A17" r:id="rId15"/>
     <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A19" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -323,6 +323,14 @@
 Created script for moving objects
 Sped up time a bit, gameplay is a bit more fast-paced now and less "floaty"
 Gravity has also been increased slightly</t>
+  </si>
+  <si>
+    <t>v0.18</t>
+  </si>
+  <si>
+    <t>Boost now only works if within range of a jump pad
+Rough Wall jump working
+modified level 7 a bit to force player to use wall jump in the beginning</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1234,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G20"/>
+      <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1603,9 +1611,13 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4"/>
-      <c r="B20" s="25"/>
+    <row r="20" spans="1:13" ht="45" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -1984,8 +1996,9 @@
     <hyperlink ref="A17" r:id="rId15"/>
     <hyperlink ref="A18" r:id="rId16"/>
     <hyperlink ref="A19" r:id="rId17"/>
+    <hyperlink ref="A20" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -330,7 +330,8 @@
   <si>
     <t>Boost now only works if within range of a jump pad
 Rough Wall jump working
-modified level 7 a bit to force player to use wall jump in the beginning</t>
+modified level 7 a bit to force player to use wall jump in the beginning
+Level 8 wall jumping</t>
   </si>
 </sst>
 </file>
@@ -534,17 +535,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1244,43 +1245,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1501,14 +1502,14 @@
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -1577,14 +1578,14 @@
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -1611,7 +1612,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:13" ht="45" customHeight="1">
+    <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>82</v>
       </c>
@@ -1902,36 +1903,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1948,35 +1948,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -332,6 +332,15 @@
 Rough Wall jump working
 modified level 7 a bit to force player to use wall jump in the beginning
 Level 8 wall jumping</t>
+  </si>
+  <si>
+    <t>v0.19</t>
+  </si>
+  <si>
+    <t>Changed wall jump to stop immediately when action button 1 is pressed
+Increased vertical velocity of wall jump, decreased horiztonal
+Cap for max/min jump pad velocities, still a small bug that sometimes stalls the character on the pad
+Rearranged levels slightly to accomodate for lower jumping height</t>
   </si>
 </sst>
 </file>
@@ -535,17 +544,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,7 +1244,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:G21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1245,43 +1254,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1502,14 +1511,14 @@
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -1578,14 +1587,14 @@
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -1631,9 +1640,13 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:13" ht="72.75" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>85</v>
+      </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -1903,35 +1916,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1948,36 +1962,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1998,8 +2011,9 @@
     <hyperlink ref="A18" r:id="rId16"/>
     <hyperlink ref="A19" r:id="rId17"/>
     <hyperlink ref="A20" r:id="rId18"/>
+    <hyperlink ref="A21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -298,9 +298,6 @@
     <t>table is sorted by color, no color</t>
   </si>
   <si>
-    <t>todos are placed at the top</t>
-  </si>
-  <si>
     <t xml:space="preserve">have camera look ahead of the player a bit (especially when falling) </t>
   </si>
   <si>
@@ -341,6 +338,19 @@
 Increased vertical velocity of wall jump, decreased horiztonal
 Cap for max/min jump pad velocities, still a small bug that sometimes stalls the character on the pad
 Rearranged levels slightly to accomodate for lower jumping height</t>
+  </si>
+  <si>
+    <t>v0.20</t>
+  </si>
+  <si>
+    <t>add max/min velocities for jump pad</t>
+  </si>
+  <si>
+    <t>(todos) are placed at the top</t>
+  </si>
+  <si>
+    <t>Hopefully fixed stall on jump pads
+Added level 9, rough version</t>
   </si>
 </sst>
 </file>
@@ -544,17 +554,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,8 +635,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <autoFilter ref="A2:B25"/>
-  <sortState ref="A3:B20">
-    <sortCondition sortBy="cellColor" ref="A2:A20" dxfId="7"/>
+  <sortState ref="A3:B25">
+    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="2" name="Programming" dataDxfId="6"/>
@@ -936,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1020,78 +1030,80 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:5" ht="45">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="22" t="s">
-        <v>77</v>
-      </c>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22" t="s">
-        <v>78</v>
+      <c r="A14" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
@@ -1244,7 +1256,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1254,43 +1266,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1511,14 +1523,14 @@
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -1587,14 +1599,14 @@
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -1604,10 +1616,10 @@
     </row>
     <row r="19" spans="1:13" ht="59.25" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -1623,10 +1635,10 @@
     </row>
     <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -1642,10 +1654,10 @@
     </row>
     <row r="21" spans="1:13" ht="72.75" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -1659,9 +1671,13 @@
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4"/>
-      <c r="B22" s="25"/>
+    <row r="22" spans="1:13" ht="29.25" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>88</v>
+      </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -1916,36 +1932,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1962,35 +1977,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -2012,8 +2028,9 @@
     <hyperlink ref="A19" r:id="rId17"/>
     <hyperlink ref="A20" r:id="rId18"/>
     <hyperlink ref="A21" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -351,6 +351,12 @@
   <si>
     <t>Hopefully fixed stall on jump pads
 Added level 9, rough version</t>
+  </si>
+  <si>
+    <t>v0.21</t>
+  </si>
+  <si>
+    <t>Added 10th level, rough version</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,9 +548,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -554,24 +557,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -633,27 +652,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <autoFilter ref="A2:B25"/>
   <sortState ref="A3:B25">
-    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
+    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="6"/>
-    <tableColumn id="8" name="Art" dataDxfId="5"/>
+    <tableColumn id="2" name="Programming" dataDxfId="8"/>
+    <tableColumn id="8" name="Art" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="C2:C20"/>
   <sortState ref="C3:C36">
-    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="3"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="0"/>
+    <tableColumn id="1" name="Combined" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -946,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,11 +978,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
@@ -1028,9 +1047,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1038,71 +1057,71 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5">
       <c r="A11" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16" t="s">
-        <v>77</v>
-      </c>
+      <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22"/>
+      <c r="A13" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="45">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="17"/>
@@ -1255,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1266,701 +1285,706 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="59.25" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:13" ht="72.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:13" ht="29.25" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="A23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1977,36 +2001,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -2029,8 +2052,9 @@
     <hyperlink ref="A20" r:id="rId18"/>
     <hyperlink ref="A21" r:id="rId19"/>
     <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Added 10th level, rough version</t>
+  </si>
+  <si>
+    <t>v0.22</t>
+  </si>
+  <si>
+    <t>Added 1st version of trajectory prediction (close, but not finished)</t>
   </si>
 </sst>
 </file>
@@ -557,40 +563,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -652,27 +642,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <autoFilter ref="A2:B25"/>
   <sortState ref="A3:B25">
-    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="8"/>
-    <tableColumn id="8" name="Art" dataDxfId="7"/>
+    <tableColumn id="2" name="Programming" dataDxfId="6"/>
+    <tableColumn id="8" name="Art" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="C2:C20"/>
   <sortState ref="C3:C36">
-    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="1"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="2"/>
+    <tableColumn id="1" name="Combined" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -965,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1274,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1285,43 +1275,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1542,14 +1532,14 @@
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -1618,14 +1608,14 @@
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -1729,8 +1719,12 @@
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="4"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -1955,36 +1949,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2001,35 +1994,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -2053,8 +2047,9 @@
     <hyperlink ref="A21" r:id="rId19"/>
     <hyperlink ref="A22" r:id="rId20"/>
     <hyperlink ref="A23" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Added 1st version of trajectory prediction (close, but not finished)</t>
+  </si>
+  <si>
+    <t>v0.23</t>
+  </si>
+  <si>
+    <t>Level selection (without level numbers) working</t>
   </si>
 </sst>
 </file>
@@ -563,17 +569,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1265,7 +1271,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1275,43 +1281,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1532,14 +1538,14 @@
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -1608,14 +1614,14 @@
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -1738,8 +1744,12 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="4"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -1949,35 +1959,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -1994,36 +2005,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -2048,8 +2058,9 @@
     <hyperlink ref="A22" r:id="rId20"/>
     <hyperlink ref="A23" r:id="rId21"/>
     <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -237,9 +237,6 @@
     <t>setup rope prefab (character able to jump on/off)</t>
   </si>
   <si>
-    <t>Allow changing the current level to any level for testing purposes</t>
-  </si>
-  <si>
     <t>v 0.12</t>
   </si>
   <si>
@@ -369,6 +366,18 @@
   </si>
   <si>
     <t>Level selection (without level numbers) working</t>
+  </si>
+  <si>
+    <t>v0.24</t>
+  </si>
+  <si>
+    <t>Main Menu with working buttons &amp; animation
+Level Select with working buttons &amp; animation
+Background added
+directional lights added</t>
+  </si>
+  <si>
+    <t>Allow level selection</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,24 +578,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -648,27 +676,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <autoFilter ref="A2:B25"/>
   <sortState ref="A3:B25">
-    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
+    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="6"/>
-    <tableColumn id="8" name="Art" dataDxfId="5"/>
+    <tableColumn id="2" name="Programming" dataDxfId="8"/>
+    <tableColumn id="8" name="Art" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="C2:C20"/>
   <sortState ref="C3:C36">
-    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="3"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="0"/>
+    <tableColumn id="1" name="Combined" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -961,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,7 +1058,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1040,22 +1068,22 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="E6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="E7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
@@ -1064,12 +1092,12 @@
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5">
       <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
@@ -1077,14 +1105,14 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16"/>
+      <c r="A12" s="29" t="s">
+        <v>96</v>
+      </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
     </row>
@@ -1097,7 +1125,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -1111,18 +1139,18 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1175,7 +1203,7 @@
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="8"/>
@@ -1185,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="8"/>
     </row>
@@ -1270,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,43 +1309,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1536,16 +1564,16 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -1555,10 +1583,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -1574,10 +1602,10 @@
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -1593,10 +1621,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -1612,16 +1640,16 @@
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -1631,10 +1659,10 @@
     </row>
     <row r="19" spans="1:13" ht="59.25" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -1650,10 +1678,10 @@
     </row>
     <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>82</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1669,10 +1697,10 @@
     </row>
     <row r="21" spans="1:13" ht="72.75" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -1688,10 +1716,10 @@
     </row>
     <row r="22" spans="1:13" ht="29.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -1707,10 +1735,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -1726,10 +1754,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -1745,10 +1773,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -1762,9 +1790,13 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4"/>
-      <c r="B26" s="24"/>
+    <row r="26" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -1959,36 +1991,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2005,35 +2036,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -2059,8 +2091,9 @@
     <hyperlink ref="A23" r:id="rId21"/>
     <hyperlink ref="A24" r:id="rId22"/>
     <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A26" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -32,9 +32,6 @@
     <t>determine what causes differences in launch trajectories (something with collision bodies?)</t>
   </si>
   <si>
-    <t>write out various effects that character control has on gameplay</t>
-  </si>
-  <si>
     <t>Combined</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
   </si>
   <si>
     <t>determine how to blend from ragdoll to an animation</t>
-  </si>
-  <si>
-    <t>weight ragdoll's feet to get it to tend toward falling feet first</t>
   </si>
   <si>
     <t>fine-tune following camera, resetting</t>
@@ -301,9 +295,6 @@
     <t>make boost only available when in range of pad</t>
   </si>
   <si>
-    <t>make side-side movement correct (short limited movement)</t>
-  </si>
-  <si>
     <t>add going through bottom of one-way jump pad</t>
   </si>
   <si>
@@ -378,6 +369,12 @@
   </si>
   <si>
     <t>Allow level selection</t>
+  </si>
+  <si>
+    <t>add bouncing on both sides of jump pad</t>
+  </si>
+  <si>
+    <t>make side-side movement able to be controlled more</t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,25 +569,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -598,23 +601,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -676,27 +663,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <autoFilter ref="A2:B25"/>
   <sortState ref="A3:B25">
-    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="8"/>
-    <tableColumn id="8" name="Art" dataDxfId="7"/>
+    <tableColumn id="2" name="Programming" dataDxfId="6"/>
+    <tableColumn id="8" name="Art" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="C2:C20"/>
   <sortState ref="C3:C36">
-    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="1"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="2"/>
+    <tableColumn id="1" name="Combined" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -990,7 +977,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,11 +989,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
@@ -1017,24 +1004,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="17"/>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
@@ -1042,178 +1027,178 @@
         <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="16"/>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="17" t="s">
-        <v>9</v>
+      <c r="A5" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="E6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="17" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="16" t="s">
-        <v>73</v>
+      <c r="A8" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="17" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="16" t="s">
-        <v>76</v>
+      <c r="A10" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="29" t="s">
-        <v>96</v>
+      <c r="A12" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="150">
       <c r="A20" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="30">
       <c r="A25" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="8"/>
     </row>
@@ -1309,717 +1294,718 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="A1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+        <v>67</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="59.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13" ht="72.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:13" ht="29.25" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:13" ht="45.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2036,36 +2022,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -569,31 +569,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,7 +601,39 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -663,27 +695,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13">
   <autoFilter ref="A2:B25"/>
   <sortState ref="A3:B25">
-    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
+    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="3"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="6"/>
-    <tableColumn id="8" name="Art" dataDxfId="5"/>
+    <tableColumn id="2" name="Programming" dataDxfId="10"/>
+    <tableColumn id="8" name="Art" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="C2:C20"/>
-  <sortState ref="C3:C36">
-    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="1"/>
+  <sortState ref="C3:C20">
+    <sortCondition sortBy="cellColor" ref="C2:C20" dxfId="1"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="0"/>
+    <tableColumn id="1" name="Combined" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,7 +1009,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1014,7 +1046,7 @@
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="17"/>
@@ -1026,7 +1058,7 @@
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="16"/>
@@ -1066,36 +1098,34 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="16" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17" t="s">
-        <v>94</v>
-      </c>
+      <c r="A10" s="17"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="16"/>
@@ -1122,12 +1152,14 @@
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="31" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
@@ -1294,43 +1326,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1551,14 +1583,14 @@
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -1627,14 +1659,14 @@
       <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
@@ -1976,36 +2008,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2022,35 +2053,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>load/use new character mesh</t>
-  </si>
-  <si>
-    <t>determine what causes differences in launch trajectories (something with collision bodies?)</t>
   </si>
   <si>
     <t>Combined</t>
@@ -375,6 +372,18 @@
   </si>
   <si>
     <t>make side-side movement able to be controlled more</t>
+  </si>
+  <si>
+    <t>find a good angle where player can see ahead better</t>
+  </si>
+  <si>
+    <t>fix reset after wedge is moved</t>
+  </si>
+  <si>
+    <t>fix movement on rope</t>
+  </si>
+  <si>
+    <t>add zoom in/out gesture for mobile</t>
   </si>
 </sst>
 </file>
@@ -572,6 +581,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -591,9 +603,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,39 +610,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -695,27 +672,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13">
-  <autoFilter ref="A2:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A2:B27"/>
   <sortState ref="A3:B25">
-    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="10"/>
-    <tableColumn id="8" name="Art" dataDxfId="9"/>
+    <tableColumn id="2" name="Programming" dataDxfId="6"/>
+    <tableColumn id="8" name="Art" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="C2:C20"/>
-  <sortState ref="C3:C20">
-    <sortCondition sortBy="cellColor" ref="C2:C20" dxfId="1"/>
+  <sortState ref="C3:C36">
+    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="1"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="4"/>
+    <tableColumn id="1" name="Combined" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1006,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1021,11 +998,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
@@ -1036,212 +1013,218 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>45</v>
+      <c r="B3" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="17"/>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="16"/>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="E7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="17" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
+      <c r="A10" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="18" t="s">
-        <v>95</v>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="16"/>
+      <c r="A12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
-        <v>52</v>
+      <c r="A13" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="17"/>
+      <c r="A14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5">
       <c r="A16" s="22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="31" t="s">
-        <v>29</v>
-      </c>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18" t="s">
-        <v>6</v>
+      <c r="A18" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="A19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="150">
       <c r="A20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="18" t="s">
-        <v>43</v>
+      <c r="A21" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3">
       <c r="A24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="30">
-      <c r="A25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
@@ -1270,16 +1253,18 @@
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3">
+      <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="B35" s="8"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3">
@@ -1287,16 +1272,22 @@
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="11"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="B39" s="8"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1326,685 +1317,685 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="B15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="59.25" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="72.75" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="29.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" ht="45.75" customHeight="1">
       <c r="A26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="75">

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>load/use new character mesh</t>
+  </si>
+  <si>
+    <t>determine what causes differences in launch trajectories (something with collision bodies?)</t>
   </si>
   <si>
     <t>Combined</t>
@@ -374,16 +377,7 @@
     <t>make side-side movement able to be controlled more</t>
   </si>
   <si>
-    <t>find a good angle where player can see ahead better</t>
-  </si>
-  <si>
-    <t>fix reset after wedge is moved</t>
-  </si>
-  <si>
-    <t>fix movement on rope</t>
-  </si>
-  <si>
-    <t>add zoom in/out gesture for mobile</t>
+    <t>remove trajectory shortly after launch</t>
   </si>
 </sst>
 </file>
@@ -581,29 +575,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,8 +666,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
-  <autoFilter ref="A2:B27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A2:B25"/>
   <sortState ref="A3:B25">
     <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
   </sortState>
@@ -688,8 +682,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="C2:C20"/>
-  <sortState ref="C3:C36">
-    <sortCondition sortBy="cellColor" ref="C2:C36" dxfId="1"/>
+  <sortState ref="C3:C20">
+    <sortCondition sortBy="cellColor" ref="C2:C20" dxfId="1"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" name="Combined" dataDxfId="0"/>
@@ -983,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1013,218 +1007,214 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>44</v>
+      <c r="B3" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="17"/>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="16"/>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="E7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="16" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16" t="s">
-        <v>96</v>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="17"/>
+      <c r="A12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24" t="s">
-        <v>98</v>
+      <c r="A13" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="17"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="22" t="s">
-        <v>71</v>
+      <c r="A18" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="17"/>
+      <c r="A19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="150">
       <c r="A20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="15" t="s">
-        <v>7</v>
+      <c r="A21" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="B23" s="19"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="19"/>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="19"/>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>65</v>
-      </c>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
@@ -1253,18 +1243,16 @@
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3">
@@ -1272,22 +1260,16 @@
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="8"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="B39" s="11"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1317,50 +1299,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -1376,10 +1358,10 @@
     </row>
     <row r="4" spans="1:14" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1387,7 +1369,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
@@ -1397,10 +1379,10 @@
     </row>
     <row r="5" spans="1:14" ht="51.75" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1416,10 +1398,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1435,10 +1417,10 @@
     </row>
     <row r="7" spans="1:14" ht="127.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1446,7 +1428,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -1456,10 +1438,10 @@
     </row>
     <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -1475,10 +1457,10 @@
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -1494,10 +1476,10 @@
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -1513,10 +1495,10 @@
     </row>
     <row r="11" spans="1:14" ht="112.5" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -1524,7 +1506,7 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
@@ -1534,10 +1516,10 @@
     </row>
     <row r="12" spans="1:14" ht="105.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -1553,10 +1535,10 @@
     </row>
     <row r="13" spans="1:14" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -1572,16 +1554,16 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -1591,10 +1573,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -1610,10 +1592,10 @@
     </row>
     <row r="16" spans="1:14" ht="45.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -1629,10 +1611,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -1648,16 +1630,16 @@
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -1667,10 +1649,10 @@
     </row>
     <row r="19" spans="1:13" ht="59.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -1686,10 +1668,10 @@
     </row>
     <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -1705,10 +1687,10 @@
     </row>
     <row r="21" spans="1:13" ht="72.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -1724,10 +1706,10 @@
     </row>
     <row r="22" spans="1:13" ht="29.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -1743,10 +1725,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -1762,10 +1744,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -1781,10 +1763,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -1800,10 +1782,10 @@
     </row>
     <row r="26" spans="1:13" ht="45.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -1999,35 +1981,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2044,36 +2027,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>remove trajectory shortly after launch</t>
+  </si>
+  <si>
+    <t>store distance that player zooms in/out and use that for zoomed pos in after level intro</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,17 +590,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,8 +672,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
-  <autoFilter ref="A2:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A2:B26"/>
   <sortState ref="A3:B25">
     <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
   </sortState>
@@ -977,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1091,43 +1097,43 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="18" t="s">
-        <v>95</v>
+      <c r="A11" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="22" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="22" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="25" t="s">
@@ -1136,7 +1142,7 @@
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
@@ -1144,8 +1150,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18" t="s">
-        <v>6</v>
+      <c r="A18" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
@@ -1153,17 +1159,17 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="A19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="150">
-      <c r="A20" s="18" t="s">
-        <v>30</v>
+      <c r="A20" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="21" t="s">
@@ -1172,44 +1178,46 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="30">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
@@ -1243,12 +1251,13 @@
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" s="8"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
@@ -1260,16 +1269,19 @@
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="11"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="B38" s="8"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1299,43 +1311,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1556,14 +1568,14 @@
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -1632,14 +1644,14 @@
       <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -1981,36 +1993,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2027,35 +2038,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -509,7 +509,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,27 +590,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -672,27 +685,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <autoFilter ref="A2:B26"/>
-  <sortState ref="A3:B25">
-    <sortCondition sortBy="cellColor" ref="A2:A25" dxfId="7"/>
+  <sortState ref="A3:B26">
+    <sortCondition sortBy="cellColor" ref="A2:A26" dxfId="1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="6"/>
-    <tableColumn id="8" name="Art" dataDxfId="5"/>
+    <tableColumn id="2" name="Programming" dataDxfId="8"/>
+    <tableColumn id="8" name="Art" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="C2:C20"/>
   <sortState ref="C3:C20">
-    <sortCondition sortBy="cellColor" ref="C2:C20" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="C2:C20" dxfId="3"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="0"/>
+    <tableColumn id="1" name="Combined" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -985,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1065,9 +1078,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1077,27 +1090,27 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="16" t="s">
-        <v>94</v>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="17"/>
@@ -1311,43 +1324,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1568,14 +1581,14 @@
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -1644,14 +1657,14 @@
       <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -1993,35 +2006,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2038,36 +2052,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -267,9 +267,6 @@
     <t>determine scale of everything so, figure out a standard for block sizes</t>
   </si>
   <si>
-    <t>SCALE IS 6.5</t>
-  </si>
-  <si>
     <t>v0.16</t>
   </si>
   <si>
@@ -381,6 +378,12 @@
   </si>
   <si>
     <t>store distance that player zooms in/out and use that for zoomed pos in after level intro</t>
+  </si>
+  <si>
+    <t>sleep character when reaching checkpoint</t>
+  </si>
+  <si>
+    <t>SCALE IS 6.5 (max)</t>
   </si>
 </sst>
 </file>
@@ -590,40 +593,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -685,27 +672,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
-  <autoFilter ref="A2:B26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A2:B27"/>
   <sortState ref="A3:B26">
-    <sortCondition sortBy="cellColor" ref="A2:A26" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A26" dxfId="7"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Programming" dataDxfId="8"/>
-    <tableColumn id="8" name="Art" dataDxfId="7"/>
+    <tableColumn id="2" name="Programming" dataDxfId="6"/>
+    <tableColumn id="8" name="Art" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C2:C20" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="C2:C20"/>
   <sortState ref="C3:C20">
-    <sortCondition sortBy="cellColor" ref="C2:C20" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="C2:C20" dxfId="1"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Combined" dataDxfId="2"/>
+    <tableColumn id="1" name="Combined" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -996,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1065,7 +1052,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -1075,78 +1062,78 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="23" t="s">
-        <v>71</v>
+    <row r="9" spans="1:5">
+      <c r="A9" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="17"/>
+      <c r="A14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="22" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="25" t="s">
@@ -1155,7 +1142,7 @@
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
@@ -1164,7 +1151,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
@@ -1172,8 +1159,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="18" t="s">
-        <v>6</v>
+      <c r="A19" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="18" t="s">
@@ -1181,61 +1168,63 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="150">
-      <c r="A20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="16"/>
+      <c r="A20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="18" t="s">
-        <v>30</v>
+      <c r="A21" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="30">
-      <c r="A25" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
@@ -1269,12 +1258,13 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="B35" s="8"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3">
@@ -1285,16 +1275,19 @@
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="B38" s="11"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="B39" s="8"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1324,43 +1317,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1581,14 +1574,14 @@
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -1655,16 +1648,16 @@
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -1674,10 +1667,10 @@
     </row>
     <row r="19" spans="1:13" ht="59.25" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -1693,10 +1686,10 @@
     </row>
     <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>78</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -1712,10 +1705,10 @@
     </row>
     <row r="21" spans="1:13" ht="72.75" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>80</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -1731,10 +1724,10 @@
     </row>
     <row r="22" spans="1:13" ht="29.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -1750,10 +1743,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -1769,10 +1762,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -1788,10 +1781,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>90</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -1807,10 +1800,10 @@
     </row>
     <row r="26" spans="1:13" ht="45.75" customHeight="1">
       <c r="A26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2006,36 +1999,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2052,35 +2044,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>SCALE IS 6.5 (max)</t>
+  </si>
+  <si>
+    <t>increase window where accelerometer gives 0 velocity</t>
   </si>
 </sst>
 </file>
@@ -593,17 +596,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,8 +675,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
-  <autoFilter ref="A2:B27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A2:B28"/>
   <sortState ref="A3:B26">
     <sortCondition sortBy="cellColor" ref="A2:A26" dxfId="7"/>
   </sortState>
@@ -983,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1090,50 +1093,50 @@
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="23" t="s">
-        <v>70</v>
+      <c r="A10" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="22" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="22" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="25" t="s">
@@ -1142,7 +1145,7 @@
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
@@ -1151,7 +1154,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="22" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
@@ -1160,7 +1163,7 @@
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="18" t="s">
@@ -1168,8 +1171,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="150">
-      <c r="A20" s="18" t="s">
-        <v>6</v>
+      <c r="A20" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="s">
@@ -1177,59 +1180,61 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B28" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
@@ -1263,12 +1268,13 @@
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="B36" s="8"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
@@ -1278,16 +1284,19 @@
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="B39" s="11"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="B40" s="8"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1317,43 +1326,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1574,14 +1583,14 @@
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -1650,14 +1659,14 @@
       <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -1999,35 +2008,36 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2044,36 +2054,35 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>TODO LIST</t>
   </si>
@@ -267,6 +267,9 @@
     <t>determine scale of everything so, figure out a standard for block sizes</t>
   </si>
   <si>
+    <t>SCALE IS 6.5</t>
+  </si>
+  <si>
     <t>v0.16</t>
   </si>
   <si>
@@ -378,15 +381,6 @@
   </si>
   <si>
     <t>store distance that player zooms in/out and use that for zoomed pos in after level intro</t>
-  </si>
-  <si>
-    <t>sleep character when reaching checkpoint</t>
-  </si>
-  <si>
-    <t>SCALE IS 6.5 (max)</t>
-  </si>
-  <si>
-    <t>increase window where accelerometer gives 0 velocity</t>
   </si>
 </sst>
 </file>
@@ -596,17 +590,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,8 +669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
-  <autoFilter ref="A2:B28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A2:B26"/>
   <sortState ref="A3:B26">
     <sortCondition sortBy="cellColor" ref="A2:A26" dxfId="7"/>
   </sortState>
@@ -986,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,7 +1049,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -1065,78 +1059,78 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16" t="s">
-        <v>72</v>
+      <c r="A7" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17" t="s">
-        <v>93</v>
+      <c r="A8" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17" t="s">
-        <v>97</v>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="17"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="23" t="s">
-        <v>70</v>
+      <c r="A11" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="17"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="18" t="s">
-        <v>94</v>
+    <row r="14" spans="1:5">
+      <c r="A14" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="17"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="25" t="s">
@@ -1145,7 +1139,7 @@
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
@@ -1154,7 +1148,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="22" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
@@ -1162,8 +1156,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="22" t="s">
-        <v>71</v>
+      <c r="A19" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="18" t="s">
@@ -1171,70 +1165,66 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="150">
-      <c r="A20" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="17"/>
+      <c r="A20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="15" t="s">
-        <v>8</v>
+      <c r="A22" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="19"/>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="19"/>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" ht="30">
-      <c r="A28" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>98</v>
-      </c>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
@@ -1263,40 +1253,32 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="B38" s="8"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="B40" s="11"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1326,43 +1308,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1583,14 +1565,14 @@
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -1657,16 +1639,16 @@
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -1676,10 +1658,10 @@
     </row>
     <row r="19" spans="1:13" ht="59.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -1695,10 +1677,10 @@
     </row>
     <row r="20" spans="1:13" ht="58.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -1714,10 +1696,10 @@
     </row>
     <row r="21" spans="1:13" ht="72.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -1733,10 +1715,10 @@
     </row>
     <row r="22" spans="1:13" ht="29.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -1752,10 +1734,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -1771,10 +1753,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -1790,10 +1772,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -1809,10 +1791,10 @@
     </row>
     <row r="26" spans="1:13" ht="45.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2008,36 +1990,35 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
@@ -2054,35 +2035,36 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -18,9 +18,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="173">
-  <si>
-    <t>load/use new character mesh</t>
-  </si>
   <si>
     <t>handle hitting spikes</t>
   </si>
@@ -616,6 +613,9 @@
   </si>
   <si>
     <t>Develop pulley system scipting</t>
+  </si>
+  <si>
+    <t>test out new character model with rigging, scale</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1928,7 +1928,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -1948,48 +1948,48 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="D3" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>80</v>
-      </c>
       <c r="F3" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="48">
         <v>1</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="49">
         <v>1</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
@@ -1997,91 +1997,91 @@
         <v>2</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="49">
         <v>1</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="48">
         <v>3</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="48">
         <v>4</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="49">
         <v>2</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="48">
         <v>5</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="49">
         <v>2</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2089,68 +2089,68 @@
         <v>6</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="49">
         <v>2</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="48">
         <v>7</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="49">
         <v>2</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="48">
         <v>8</v>
       </c>
       <c r="B11" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>171</v>
-      </c>
       <c r="D11" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="49">
         <v>2</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2158,68 +2158,68 @@
         <v>9</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="49">
         <v>2</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="48">
         <v>10</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="49">
         <v>2</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="48">
         <v>11</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="49">
         <v>2</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2227,25 +2227,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="49">
         <v>2</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="48">
         <v>13</v>
       </c>
@@ -2256,39 +2256,39 @@
         <v>75</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="48">
         <v>14</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="49">
         <v>3</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
@@ -2296,22 +2296,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="49">
         <v>3</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
@@ -2319,22 +2319,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="50" t="s">
         <v>155</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="49">
         <v>3</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
@@ -2342,45 +2342,45 @@
         <v>17</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="56" t="s">
         <v>156</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="49">
         <v>3</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45">
       <c r="A21" s="48">
         <v>18</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>157</v>
+        <v>137</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>159</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="49">
         <v>3</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45">
@@ -2388,160 +2388,160 @@
         <v>19</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="49">
         <v>3</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="48">
         <v>20</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>42</v>
+        <v>139</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E23" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="48">
         <v>21</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="49">
         <v>1</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="48">
         <v>22</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>1</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="49">
         <v>1</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="48">
         <v>23</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>2</v>
+        <v>138</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="49">
         <v>1</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="48">
         <v>24</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="49">
         <v>1</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="48">
         <v>25</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>70</v>
+        <v>136</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>134</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="49">
         <v>1</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2549,22 +2549,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="49">
         <v>1</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
@@ -2572,22 +2572,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="49">
         <v>1</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -2595,22 +2595,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="49">
         <v>2</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30">
@@ -2618,22 +2618,22 @@
         <v>29</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="49">
         <v>2</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2641,22 +2641,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="49">
         <v>2</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2664,22 +2664,22 @@
         <v>31</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="49">
         <v>2</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
@@ -2687,22 +2687,22 @@
         <v>32</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="49">
         <v>2</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2710,22 +2710,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="49">
         <v>2</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
@@ -2733,22 +2733,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="49">
         <v>2</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2756,22 +2756,22 @@
         <v>35</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" s="49">
         <v>2</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2779,22 +2779,22 @@
         <v>36</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="49">
         <v>2</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2802,22 +2802,22 @@
         <v>37</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40" s="49">
         <v>2</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30">
@@ -2825,22 +2825,22 @@
         <v>38</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="49">
         <v>3</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2848,22 +2848,22 @@
         <v>39</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="49">
         <v>3</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2876,7 +2876,7 @@
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2889,7 +2889,7 @@
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2902,7 +2902,7 @@
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2915,7 +2915,7 @@
       <c r="E46" s="49"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2928,7 +2928,7 @@
       <c r="E47" s="49"/>
       <c r="F47" s="49"/>
       <c r="G47" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2941,7 +2941,7 @@
       <c r="E48" s="49"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2954,7 +2954,7 @@
       <c r="E49" s="49"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2967,7 +2967,7 @@
       <c r="E50" s="49"/>
       <c r="F50" s="49"/>
       <c r="G50" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2980,7 +2980,7 @@
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2993,7 +2993,7 @@
       <c r="E52" s="49"/>
       <c r="F52" s="49"/>
       <c r="G52" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3006,7 +3006,7 @@
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3019,7 +3019,7 @@
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
       <c r="G54" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3032,7 +3032,7 @@
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
       <c r="G55" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3045,7 +3045,7 @@
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="G56" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3058,7 +3058,7 @@
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3071,7 +3071,7 @@
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
       <c r="G58" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3084,7 +3084,7 @@
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
       <c r="G59" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3097,7 +3097,7 @@
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
       <c r="G60" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3110,7 +3110,7 @@
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
       <c r="G61" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3123,7 +3123,7 @@
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
       <c r="G62" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3136,7 +3136,7 @@
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
       <c r="G63" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3149,7 +3149,7 @@
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
       <c r="G64" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3162,7 +3162,7 @@
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3175,7 +3175,7 @@
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3188,7 +3188,7 @@
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3201,7 +3201,7 @@
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
       <c r="G68" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3214,7 +3214,7 @@
       <c r="E69" s="49"/>
       <c r="F69" s="49"/>
       <c r="G69" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3227,7 +3227,7 @@
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
       <c r="G70" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3240,7 +3240,7 @@
       <c r="E71" s="49"/>
       <c r="F71" s="49"/>
       <c r="G71" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3253,7 +3253,7 @@
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
       <c r="G72" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3266,7 +3266,7 @@
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
       <c r="G73" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3279,7 +3279,7 @@
       <c r="E74" s="49"/>
       <c r="F74" s="49"/>
       <c r="G74" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3292,7 +3292,7 @@
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
       <c r="G75" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3305,7 +3305,7 @@
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
       <c r="G76" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3318,7 +3318,7 @@
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
       <c r="G77" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3331,7 +3331,7 @@
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
       <c r="G78" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3344,7 +3344,7 @@
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
       <c r="G79" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3357,7 +3357,7 @@
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
       <c r="G80" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3370,7 +3370,7 @@
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
       <c r="G81" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3383,7 +3383,7 @@
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
       <c r="G82" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3396,7 +3396,7 @@
       <c r="E83" s="49"/>
       <c r="F83" s="49"/>
       <c r="G83" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3409,7 +3409,7 @@
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
       <c r="G84" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3422,7 +3422,7 @@
       <c r="E85" s="49"/>
       <c r="F85" s="49"/>
       <c r="G85" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3435,7 +3435,7 @@
       <c r="E86" s="49"/>
       <c r="F86" s="49"/>
       <c r="G86" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3448,7 +3448,7 @@
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>
       <c r="G87" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3461,7 +3461,7 @@
       <c r="E88" s="49"/>
       <c r="F88" s="49"/>
       <c r="G88" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3474,7 +3474,7 @@
       <c r="E89" s="49"/>
       <c r="F89" s="49"/>
       <c r="G89" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3487,7 +3487,7 @@
       <c r="E90" s="49"/>
       <c r="F90" s="49"/>
       <c r="G90" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3500,7 +3500,7 @@
       <c r="E91" s="49"/>
       <c r="F91" s="49"/>
       <c r="G91" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3513,7 +3513,7 @@
       <c r="E92" s="49"/>
       <c r="F92" s="49"/>
       <c r="G92" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3526,7 +3526,7 @@
       <c r="E93" s="49"/>
       <c r="F93" s="49"/>
       <c r="G93" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3539,7 +3539,7 @@
       <c r="E94" s="49"/>
       <c r="F94" s="49"/>
       <c r="G94" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3552,7 +3552,7 @@
       <c r="E95" s="49"/>
       <c r="F95" s="49"/>
       <c r="G95" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3565,7 +3565,7 @@
       <c r="E96" s="49"/>
       <c r="F96" s="49"/>
       <c r="G96" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3578,7 +3578,7 @@
       <c r="E97" s="49"/>
       <c r="F97" s="49"/>
       <c r="G97" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3591,7 +3591,7 @@
       <c r="E98" s="49"/>
       <c r="F98" s="49"/>
       <c r="G98" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3604,7 +3604,7 @@
       <c r="E99" s="49"/>
       <c r="F99" s="49"/>
       <c r="G99" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3617,7 +3617,7 @@
       <c r="E100" s="49"/>
       <c r="F100" s="49"/>
       <c r="G100" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3630,7 +3630,7 @@
       <c r="E101" s="49"/>
       <c r="F101" s="49"/>
       <c r="G101" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3643,7 +3643,7 @@
       <c r="E102" s="49"/>
       <c r="F102" s="49"/>
       <c r="G102" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3656,7 +3656,7 @@
       <c r="E103" s="49"/>
       <c r="F103" s="49"/>
       <c r="G103" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3669,7 +3669,7 @@
       <c r="E104" s="49"/>
       <c r="F104" s="49"/>
       <c r="G104" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3682,7 +3682,7 @@
       <c r="E105" s="49"/>
       <c r="F105" s="49"/>
       <c r="G105" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3695,7 +3695,7 @@
       <c r="E106" s="49"/>
       <c r="F106" s="49"/>
       <c r="G106" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3708,7 +3708,7 @@
       <c r="E107" s="49"/>
       <c r="F107" s="49"/>
       <c r="G107" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3721,7 +3721,7 @@
       <c r="E108" s="49"/>
       <c r="F108" s="49"/>
       <c r="G108" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3734,7 +3734,7 @@
       <c r="E109" s="49"/>
       <c r="F109" s="49"/>
       <c r="G109" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3747,7 +3747,7 @@
       <c r="E110" s="49"/>
       <c r="F110" s="49"/>
       <c r="G110" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3760,7 +3760,7 @@
       <c r="E111" s="49"/>
       <c r="F111" s="49"/>
       <c r="G111" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3773,7 +3773,7 @@
       <c r="E112" s="49"/>
       <c r="F112" s="49"/>
       <c r="G112" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3786,7 +3786,7 @@
       <c r="E113" s="49"/>
       <c r="F113" s="49"/>
       <c r="G113" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3799,7 +3799,7 @@
       <c r="E114" s="49"/>
       <c r="F114" s="49"/>
       <c r="G114" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3812,7 +3812,7 @@
       <c r="E115" s="49"/>
       <c r="F115" s="49"/>
       <c r="G115" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3825,7 +3825,7 @@
       <c r="E116" s="49"/>
       <c r="F116" s="49"/>
       <c r="G116" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3838,7 +3838,7 @@
       <c r="E117" s="49"/>
       <c r="F117" s="49"/>
       <c r="G117" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3851,7 +3851,7 @@
       <c r="E118" s="49"/>
       <c r="F118" s="49"/>
       <c r="G118" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3864,7 +3864,7 @@
       <c r="E119" s="49"/>
       <c r="F119" s="49"/>
       <c r="G119" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3877,7 +3877,7 @@
       <c r="E120" s="49"/>
       <c r="F120" s="49"/>
       <c r="G120" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3890,7 +3890,7 @@
       <c r="E121" s="49"/>
       <c r="F121" s="49"/>
       <c r="G121" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3903,7 +3903,7 @@
       <c r="E122" s="49"/>
       <c r="F122" s="49"/>
       <c r="G122" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3916,7 +3916,7 @@
       <c r="E123" s="49"/>
       <c r="F123" s="49"/>
       <c r="G123" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3929,7 +3929,7 @@
       <c r="E124" s="49"/>
       <c r="F124" s="49"/>
       <c r="G124" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3942,7 +3942,7 @@
       <c r="E125" s="49"/>
       <c r="F125" s="49"/>
       <c r="G125" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3955,7 +3955,7 @@
       <c r="E126" s="49"/>
       <c r="F126" s="49"/>
       <c r="G126" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3968,7 +3968,7 @@
       <c r="E127" s="49"/>
       <c r="F127" s="49"/>
       <c r="G127" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3981,7 +3981,7 @@
       <c r="E128" s="49"/>
       <c r="F128" s="49"/>
       <c r="G128" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3994,7 +3994,7 @@
       <c r="E129" s="49"/>
       <c r="F129" s="49"/>
       <c r="G129" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4007,7 +4007,7 @@
       <c r="E130" s="49"/>
       <c r="F130" s="49"/>
       <c r="G130" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4020,7 +4020,7 @@
       <c r="E131" s="49"/>
       <c r="F131" s="49"/>
       <c r="G131" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4033,7 +4033,7 @@
       <c r="E132" s="49"/>
       <c r="F132" s="49"/>
       <c r="G132" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4046,7 +4046,7 @@
       <c r="E133" s="49"/>
       <c r="F133" s="49"/>
       <c r="G133" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4059,7 +4059,7 @@
       <c r="E134" s="49"/>
       <c r="F134" s="49"/>
       <c r="G134" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4072,7 +4072,7 @@
       <c r="E135" s="49"/>
       <c r="F135" s="49"/>
       <c r="G135" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4085,7 +4085,7 @@
       <c r="E136" s="49"/>
       <c r="F136" s="49"/>
       <c r="G136" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4098,7 +4098,7 @@
       <c r="E137" s="49"/>
       <c r="F137" s="49"/>
       <c r="G137" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4111,7 +4111,7 @@
       <c r="E138" s="49"/>
       <c r="F138" s="49"/>
       <c r="G138" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4124,7 +4124,7 @@
       <c r="E139" s="49"/>
       <c r="F139" s="49"/>
       <c r="G139" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4137,7 +4137,7 @@
       <c r="E140" s="49"/>
       <c r="F140" s="49"/>
       <c r="G140" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4150,7 +4150,7 @@
       <c r="E141" s="49"/>
       <c r="F141" s="49"/>
       <c r="G141" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4163,7 +4163,7 @@
       <c r="E142" s="49"/>
       <c r="F142" s="49"/>
       <c r="G142" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4176,7 +4176,7 @@
       <c r="E143" s="49"/>
       <c r="F143" s="49"/>
       <c r="G143" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4189,7 +4189,7 @@
       <c r="E144" s="49"/>
       <c r="F144" s="49"/>
       <c r="G144" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4202,7 +4202,7 @@
       <c r="E145" s="49"/>
       <c r="F145" s="49"/>
       <c r="G145" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4215,7 +4215,7 @@
       <c r="E146" s="49"/>
       <c r="F146" s="49"/>
       <c r="G146" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4228,7 +4228,7 @@
       <c r="E147" s="49"/>
       <c r="F147" s="49"/>
       <c r="G147" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4241,7 +4241,7 @@
       <c r="E148" s="49"/>
       <c r="F148" s="49"/>
       <c r="G148" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4254,7 +4254,7 @@
       <c r="E149" s="49"/>
       <c r="F149" s="49"/>
       <c r="G149" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4267,7 +4267,7 @@
       <c r="E150" s="49"/>
       <c r="F150" s="49"/>
       <c r="G150" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4280,7 +4280,7 @@
       <c r="E151" s="49"/>
       <c r="F151" s="49"/>
       <c r="G151" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4293,7 +4293,7 @@
       <c r="E152" s="49"/>
       <c r="F152" s="49"/>
       <c r="G152" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4306,7 +4306,7 @@
       <c r="E153" s="49"/>
       <c r="F153" s="49"/>
       <c r="G153" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4319,7 +4319,7 @@
       <c r="E154" s="49"/>
       <c r="F154" s="49"/>
       <c r="G154" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4332,7 +4332,7 @@
       <c r="E155" s="49"/>
       <c r="F155" s="49"/>
       <c r="G155" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4345,7 +4345,7 @@
       <c r="E156" s="49"/>
       <c r="F156" s="49"/>
       <c r="G156" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4358,7 +4358,7 @@
       <c r="E157" s="49"/>
       <c r="F157" s="49"/>
       <c r="G157" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4371,7 +4371,7 @@
       <c r="E158" s="49"/>
       <c r="F158" s="49"/>
       <c r="G158" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4384,7 +4384,7 @@
       <c r="E159" s="49"/>
       <c r="F159" s="49"/>
       <c r="G159" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4397,7 +4397,7 @@
       <c r="E160" s="49"/>
       <c r="F160" s="49"/>
       <c r="G160" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4410,7 +4410,7 @@
       <c r="E161" s="49"/>
       <c r="F161" s="49"/>
       <c r="G161" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4423,7 +4423,7 @@
       <c r="E162" s="49"/>
       <c r="F162" s="49"/>
       <c r="G162" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4436,7 +4436,7 @@
       <c r="E163" s="49"/>
       <c r="F163" s="49"/>
       <c r="G163" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4449,7 +4449,7 @@
       <c r="E164" s="49"/>
       <c r="F164" s="49"/>
       <c r="G164" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4462,7 +4462,7 @@
       <c r="E165" s="49"/>
       <c r="F165" s="49"/>
       <c r="G165" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4475,7 +4475,7 @@
       <c r="E166" s="49"/>
       <c r="F166" s="49"/>
       <c r="G166" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4488,7 +4488,7 @@
       <c r="E167" s="49"/>
       <c r="F167" s="49"/>
       <c r="G167" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4501,7 +4501,7 @@
       <c r="E168" s="49"/>
       <c r="F168" s="49"/>
       <c r="G168" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4514,7 +4514,7 @@
       <c r="E169" s="49"/>
       <c r="F169" s="49"/>
       <c r="G169" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4527,7 +4527,7 @@
       <c r="E170" s="49"/>
       <c r="F170" s="49"/>
       <c r="G170" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4540,7 +4540,7 @@
       <c r="E171" s="49"/>
       <c r="F171" s="49"/>
       <c r="G171" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4553,7 +4553,7 @@
       <c r="E172" s="49"/>
       <c r="F172" s="49"/>
       <c r="G172" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4566,7 +4566,7 @@
       <c r="E173" s="49"/>
       <c r="F173" s="49"/>
       <c r="G173" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4579,7 +4579,7 @@
       <c r="E174" s="49"/>
       <c r="F174" s="49"/>
       <c r="G174" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4592,7 +4592,7 @@
       <c r="E175" s="49"/>
       <c r="F175" s="49"/>
       <c r="G175" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4605,7 +4605,7 @@
       <c r="E176" s="49"/>
       <c r="F176" s="49"/>
       <c r="G176" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4618,7 +4618,7 @@
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
       <c r="G177" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4631,7 +4631,7 @@
       <c r="E178" s="49"/>
       <c r="F178" s="49"/>
       <c r="G178" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4644,7 +4644,7 @@
       <c r="E179" s="49"/>
       <c r="F179" s="49"/>
       <c r="G179" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4657,7 +4657,7 @@
       <c r="E180" s="49"/>
       <c r="F180" s="49"/>
       <c r="G180" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4670,7 +4670,7 @@
       <c r="E181" s="49"/>
       <c r="F181" s="49"/>
       <c r="G181" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4683,7 +4683,7 @@
       <c r="E182" s="49"/>
       <c r="F182" s="49"/>
       <c r="G182" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4696,7 +4696,7 @@
       <c r="E183" s="49"/>
       <c r="F183" s="49"/>
       <c r="G183" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4709,7 +4709,7 @@
       <c r="E184" s="49"/>
       <c r="F184" s="49"/>
       <c r="G184" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4722,7 +4722,7 @@
       <c r="E185" s="49"/>
       <c r="F185" s="49"/>
       <c r="G185" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4735,7 +4735,7 @@
       <c r="E186" s="49"/>
       <c r="F186" s="49"/>
       <c r="G186" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4748,7 +4748,7 @@
       <c r="E187" s="49"/>
       <c r="F187" s="49"/>
       <c r="G187" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4761,7 +4761,7 @@
       <c r="E188" s="49"/>
       <c r="F188" s="49"/>
       <c r="G188" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4774,7 +4774,7 @@
       <c r="E189" s="49"/>
       <c r="F189" s="49"/>
       <c r="G189" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4787,7 +4787,7 @@
       <c r="E190" s="49"/>
       <c r="F190" s="49"/>
       <c r="G190" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4800,7 +4800,7 @@
       <c r="E191" s="49"/>
       <c r="F191" s="49"/>
       <c r="G191" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4813,7 +4813,7 @@
       <c r="E192" s="49"/>
       <c r="F192" s="49"/>
       <c r="G192" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4826,7 +4826,7 @@
       <c r="E193" s="49"/>
       <c r="F193" s="49"/>
       <c r="G193" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4839,7 +4839,7 @@
       <c r="E194" s="49"/>
       <c r="F194" s="49"/>
       <c r="G194" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4852,7 +4852,7 @@
       <c r="E195" s="49"/>
       <c r="F195" s="49"/>
       <c r="G195" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4865,7 +4865,7 @@
       <c r="E196" s="49"/>
       <c r="F196" s="49"/>
       <c r="G196" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4878,7 +4878,7 @@
       <c r="E197" s="49"/>
       <c r="F197" s="49"/>
       <c r="G197" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4891,7 +4891,7 @@
       <c r="E198" s="49"/>
       <c r="F198" s="49"/>
       <c r="G198" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4904,7 +4904,7 @@
       <c r="E199" s="49"/>
       <c r="F199" s="49"/>
       <c r="G199" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4917,7 +4917,7 @@
       <c r="E200" s="49"/>
       <c r="F200" s="49"/>
       <c r="G200" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4930,7 +4930,7 @@
       <c r="E201" s="49"/>
       <c r="F201" s="49"/>
       <c r="G201" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -4943,7 +4943,7 @@
       <c r="E202" s="49"/>
       <c r="F202" s="49"/>
       <c r="G202" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4956,7 +4956,7 @@
       <c r="E203" s="49"/>
       <c r="F203" s="49"/>
       <c r="G203" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4969,7 +4969,7 @@
       <c r="E204" s="49"/>
       <c r="F204" s="49"/>
       <c r="G204" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4982,7 +4982,7 @@
       <c r="E205" s="49"/>
       <c r="F205" s="49"/>
       <c r="G205" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -4995,7 +4995,7 @@
       <c r="E206" s="49"/>
       <c r="F206" s="49"/>
       <c r="G206" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5008,7 +5008,7 @@
       <c r="E207" s="49"/>
       <c r="F207" s="49"/>
       <c r="G207" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5021,7 +5021,7 @@
       <c r="E208" s="49"/>
       <c r="F208" s="49"/>
       <c r="G208" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5034,7 +5034,7 @@
       <c r="E209" s="49"/>
       <c r="F209" s="49"/>
       <c r="G209" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5047,7 +5047,7 @@
       <c r="E210" s="49"/>
       <c r="F210" s="49"/>
       <c r="G210" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5060,7 +5060,7 @@
       <c r="E211" s="49"/>
       <c r="F211" s="49"/>
       <c r="G211" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5073,7 +5073,7 @@
       <c r="E212" s="49"/>
       <c r="F212" s="49"/>
       <c r="G212" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5086,7 +5086,7 @@
       <c r="E213" s="49"/>
       <c r="F213" s="49"/>
       <c r="G213" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5099,7 +5099,7 @@
       <c r="E214" s="49"/>
       <c r="F214" s="49"/>
       <c r="G214" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5112,7 +5112,7 @@
       <c r="E215" s="49"/>
       <c r="F215" s="49"/>
       <c r="G215" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5125,7 +5125,7 @@
       <c r="E216" s="49"/>
       <c r="F216" s="49"/>
       <c r="G216" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5138,7 +5138,7 @@
       <c r="E217" s="49"/>
       <c r="F217" s="49"/>
       <c r="G217" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5151,7 +5151,7 @@
       <c r="E218" s="49"/>
       <c r="F218" s="49"/>
       <c r="G218" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5164,7 +5164,7 @@
       <c r="E219" s="49"/>
       <c r="F219" s="49"/>
       <c r="G219" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5177,7 +5177,7 @@
       <c r="E220" s="49"/>
       <c r="F220" s="49"/>
       <c r="G220" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5190,7 +5190,7 @@
       <c r="E221" s="49"/>
       <c r="F221" s="49"/>
       <c r="G221" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5203,7 +5203,7 @@
       <c r="E222" s="49"/>
       <c r="F222" s="49"/>
       <c r="G222" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5216,7 +5216,7 @@
       <c r="E223" s="49"/>
       <c r="F223" s="49"/>
       <c r="G223" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5229,7 +5229,7 @@
       <c r="E224" s="49"/>
       <c r="F224" s="49"/>
       <c r="G224" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5242,7 +5242,7 @@
       <c r="E225" s="49"/>
       <c r="F225" s="49"/>
       <c r="G225" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5255,7 +5255,7 @@
       <c r="E226" s="49"/>
       <c r="F226" s="49"/>
       <c r="G226" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5268,7 +5268,7 @@
       <c r="E227" s="49"/>
       <c r="F227" s="49"/>
       <c r="G227" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5281,7 +5281,7 @@
       <c r="E228" s="49"/>
       <c r="F228" s="49"/>
       <c r="G228" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5294,7 +5294,7 @@
       <c r="E229" s="49"/>
       <c r="F229" s="49"/>
       <c r="G229" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5307,7 +5307,7 @@
       <c r="E230" s="49"/>
       <c r="F230" s="49"/>
       <c r="G230" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5320,7 +5320,7 @@
       <c r="E231" s="49"/>
       <c r="F231" s="49"/>
       <c r="G231" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5333,7 +5333,7 @@
       <c r="E232" s="49"/>
       <c r="F232" s="49"/>
       <c r="G232" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5346,7 +5346,7 @@
       <c r="E233" s="49"/>
       <c r="F233" s="49"/>
       <c r="G233" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5359,7 +5359,7 @@
       <c r="E234" s="49"/>
       <c r="F234" s="49"/>
       <c r="G234" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5372,7 +5372,7 @@
       <c r="E235" s="49"/>
       <c r="F235" s="49"/>
       <c r="G235" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5385,7 +5385,7 @@
       <c r="E236" s="49"/>
       <c r="F236" s="49"/>
       <c r="G236" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5398,7 +5398,7 @@
       <c r="E237" s="49"/>
       <c r="F237" s="49"/>
       <c r="G237" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5411,7 +5411,7 @@
       <c r="E238" s="49"/>
       <c r="F238" s="49"/>
       <c r="G238" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5424,7 +5424,7 @@
       <c r="E239" s="49"/>
       <c r="F239" s="49"/>
       <c r="G239" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5437,7 +5437,7 @@
       <c r="E240" s="49"/>
       <c r="F240" s="49"/>
       <c r="G240" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5450,7 +5450,7 @@
       <c r="E241" s="49"/>
       <c r="F241" s="49"/>
       <c r="G241" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5463,7 +5463,7 @@
       <c r="E242" s="49"/>
       <c r="F242" s="49"/>
       <c r="G242" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5476,7 +5476,7 @@
       <c r="E243" s="49"/>
       <c r="F243" s="49"/>
       <c r="G243" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5489,7 +5489,7 @@
       <c r="E244" s="49"/>
       <c r="F244" s="49"/>
       <c r="G244" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5502,7 +5502,7 @@
       <c r="E245" s="49"/>
       <c r="F245" s="49"/>
       <c r="G245" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -5515,7 +5515,7 @@
       <c r="E246" s="49"/>
       <c r="F246" s="49"/>
       <c r="G246" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5528,7 +5528,7 @@
       <c r="E247" s="49"/>
       <c r="F247" s="49"/>
       <c r="G247" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5541,7 +5541,7 @@
       <c r="E248" s="49"/>
       <c r="F248" s="49"/>
       <c r="G248" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5554,7 +5554,7 @@
       <c r="E249" s="49"/>
       <c r="F249" s="49"/>
       <c r="G249" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5567,7 +5567,7 @@
       <c r="E250" s="49"/>
       <c r="F250" s="49"/>
       <c r="G250" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5580,7 +5580,7 @@
       <c r="E251" s="49"/>
       <c r="F251" s="49"/>
       <c r="G251" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5593,7 +5593,7 @@
       <c r="E252" s="49"/>
       <c r="F252" s="49"/>
       <c r="G252" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5606,7 +5606,7 @@
       <c r="E253" s="49"/>
       <c r="F253" s="49"/>
       <c r="G253" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5619,7 +5619,7 @@
       <c r="E254" s="49"/>
       <c r="F254" s="49"/>
       <c r="G254" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5632,7 +5632,7 @@
       <c r="E255" s="49"/>
       <c r="F255" s="49"/>
       <c r="G255" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5645,7 +5645,7 @@
       <c r="E256" s="49"/>
       <c r="F256" s="49"/>
       <c r="G256" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5658,7 +5658,7 @@
       <c r="E257" s="49"/>
       <c r="F257" s="49"/>
       <c r="G257" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -5671,7 +5671,7 @@
       <c r="E258" s="49"/>
       <c r="F258" s="49"/>
       <c r="G258" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -5684,7 +5684,7 @@
       <c r="E259" s="49"/>
       <c r="F259" s="49"/>
       <c r="G259" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -5697,7 +5697,7 @@
       <c r="E260" s="49"/>
       <c r="F260" s="49"/>
       <c r="G260" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -5710,7 +5710,7 @@
       <c r="E261" s="49"/>
       <c r="F261" s="49"/>
       <c r="G261" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -5723,7 +5723,7 @@
       <c r="E262" s="49"/>
       <c r="F262" s="49"/>
       <c r="G262" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -5736,7 +5736,7 @@
       <c r="E263" s="49"/>
       <c r="F263" s="49"/>
       <c r="G263" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -5749,7 +5749,7 @@
       <c r="E264" s="49"/>
       <c r="F264" s="49"/>
       <c r="G264" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -5762,7 +5762,7 @@
       <c r="E265" s="49"/>
       <c r="F265" s="49"/>
       <c r="G265" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -5775,7 +5775,7 @@
       <c r="E266" s="49"/>
       <c r="F266" s="49"/>
       <c r="G266" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -5788,7 +5788,7 @@
       <c r="E267" s="49"/>
       <c r="F267" s="49"/>
       <c r="G267" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -5801,7 +5801,7 @@
       <c r="E268" s="49"/>
       <c r="F268" s="49"/>
       <c r="G268" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -5814,7 +5814,7 @@
       <c r="E269" s="49"/>
       <c r="F269" s="49"/>
       <c r="G269" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -5827,7 +5827,7 @@
       <c r="E270" s="49"/>
       <c r="F270" s="49"/>
       <c r="G270" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -5840,7 +5840,7 @@
       <c r="E271" s="49"/>
       <c r="F271" s="49"/>
       <c r="G271" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -5853,7 +5853,7 @@
       <c r="E272" s="49"/>
       <c r="F272" s="49"/>
       <c r="G272" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -5866,7 +5866,7 @@
       <c r="E273" s="49"/>
       <c r="F273" s="49"/>
       <c r="G273" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -5879,7 +5879,7 @@
       <c r="E274" s="49"/>
       <c r="F274" s="49"/>
       <c r="G274" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -5892,7 +5892,7 @@
       <c r="E275" s="49"/>
       <c r="F275" s="49"/>
       <c r="G275" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -5905,7 +5905,7 @@
       <c r="E276" s="49"/>
       <c r="F276" s="49"/>
       <c r="G276" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -5918,7 +5918,7 @@
       <c r="E277" s="49"/>
       <c r="F277" s="49"/>
       <c r="G277" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -5931,7 +5931,7 @@
       <c r="E278" s="49"/>
       <c r="F278" s="49"/>
       <c r="G278" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -5944,7 +5944,7 @@
       <c r="E279" s="49"/>
       <c r="F279" s="49"/>
       <c r="G279" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -5957,7 +5957,7 @@
       <c r="E280" s="49"/>
       <c r="F280" s="49"/>
       <c r="G280" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -5970,7 +5970,7 @@
       <c r="E281" s="49"/>
       <c r="F281" s="49"/>
       <c r="G281" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -5983,7 +5983,7 @@
       <c r="E282" s="49"/>
       <c r="F282" s="49"/>
       <c r="G282" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -5996,7 +5996,7 @@
       <c r="E283" s="49"/>
       <c r="F283" s="49"/>
       <c r="G283" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6009,7 +6009,7 @@
       <c r="E284" s="49"/>
       <c r="F284" s="49"/>
       <c r="G284" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6022,7 +6022,7 @@
       <c r="E285" s="49"/>
       <c r="F285" s="49"/>
       <c r="G285" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6035,7 +6035,7 @@
       <c r="E286" s="49"/>
       <c r="F286" s="49"/>
       <c r="G286" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6048,7 +6048,7 @@
       <c r="E287" s="49"/>
       <c r="F287" s="49"/>
       <c r="G287" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -6061,7 +6061,7 @@
       <c r="E288" s="49"/>
       <c r="F288" s="49"/>
       <c r="G288" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -6074,7 +6074,7 @@
       <c r="E289" s="49"/>
       <c r="F289" s="49"/>
       <c r="G289" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -6087,7 +6087,7 @@
       <c r="E290" s="49"/>
       <c r="F290" s="49"/>
       <c r="G290" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -6100,7 +6100,7 @@
       <c r="E291" s="49"/>
       <c r="F291" s="49"/>
       <c r="G291" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -6113,7 +6113,7 @@
       <c r="E292" s="49"/>
       <c r="F292" s="49"/>
       <c r="G292" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -6126,7 +6126,7 @@
       <c r="E293" s="49"/>
       <c r="F293" s="49"/>
       <c r="G293" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -6139,7 +6139,7 @@
       <c r="E294" s="49"/>
       <c r="F294" s="49"/>
       <c r="G294" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -6152,7 +6152,7 @@
       <c r="E295" s="49"/>
       <c r="F295" s="49"/>
       <c r="G295" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -6165,7 +6165,7 @@
       <c r="E296" s="49"/>
       <c r="F296" s="49"/>
       <c r="G296" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -6178,7 +6178,7 @@
       <c r="E297" s="49"/>
       <c r="F297" s="49"/>
       <c r="G297" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -6191,7 +6191,7 @@
       <c r="E298" s="49"/>
       <c r="F298" s="49"/>
       <c r="G298" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -6204,7 +6204,7 @@
       <c r="E299" s="49"/>
       <c r="F299" s="49"/>
       <c r="G299" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -6217,7 +6217,7 @@
       <c r="E300" s="49"/>
       <c r="F300" s="49"/>
       <c r="G300" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -6230,7 +6230,7 @@
       <c r="E301" s="49"/>
       <c r="F301" s="49"/>
       <c r="G301" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -6243,7 +6243,7 @@
       <c r="E302" s="49"/>
       <c r="F302" s="49"/>
       <c r="G302" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -6256,7 +6256,7 @@
       <c r="E303" s="49"/>
       <c r="F303" s="49"/>
       <c r="G303" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -6269,7 +6269,7 @@
       <c r="E304" s="49"/>
       <c r="F304" s="49"/>
       <c r="G304" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -6282,7 +6282,7 @@
       <c r="E305" s="49"/>
       <c r="F305" s="49"/>
       <c r="G305" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -6295,7 +6295,7 @@
       <c r="E306" s="49"/>
       <c r="F306" s="49"/>
       <c r="G306" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -6308,7 +6308,7 @@
       <c r="E307" s="49"/>
       <c r="F307" s="49"/>
       <c r="G307" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6321,7 +6321,7 @@
       <c r="E308" s="49"/>
       <c r="F308" s="49"/>
       <c r="G308" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -6334,7 +6334,7 @@
       <c r="E309" s="49"/>
       <c r="F309" s="49"/>
       <c r="G309" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -6347,7 +6347,7 @@
       <c r="E310" s="49"/>
       <c r="F310" s="49"/>
       <c r="G310" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -6360,7 +6360,7 @@
       <c r="E311" s="49"/>
       <c r="F311" s="49"/>
       <c r="G311" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -6373,7 +6373,7 @@
       <c r="E312" s="49"/>
       <c r="F312" s="49"/>
       <c r="G312" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -6386,7 +6386,7 @@
       <c r="E313" s="49"/>
       <c r="F313" s="49"/>
       <c r="G313" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -6399,7 +6399,7 @@
       <c r="E314" s="49"/>
       <c r="F314" s="49"/>
       <c r="G314" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -6412,7 +6412,7 @@
       <c r="E315" s="49"/>
       <c r="F315" s="49"/>
       <c r="G315" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -6425,7 +6425,7 @@
       <c r="E316" s="49"/>
       <c r="F316" s="49"/>
       <c r="G316" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -6438,7 +6438,7 @@
       <c r="E317" s="49"/>
       <c r="F317" s="49"/>
       <c r="G317" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -6451,7 +6451,7 @@
       <c r="E318" s="49"/>
       <c r="F318" s="49"/>
       <c r="G318" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -6464,7 +6464,7 @@
       <c r="E319" s="49"/>
       <c r="F319" s="49"/>
       <c r="G319" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -6477,7 +6477,7 @@
       <c r="E320" s="49"/>
       <c r="F320" s="49"/>
       <c r="G320" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -6490,7 +6490,7 @@
       <c r="E321" s="49"/>
       <c r="F321" s="49"/>
       <c r="G321" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -6503,7 +6503,7 @@
       <c r="E322" s="49"/>
       <c r="F322" s="49"/>
       <c r="G322" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -6516,7 +6516,7 @@
       <c r="E323" s="49"/>
       <c r="F323" s="49"/>
       <c r="G323" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -6529,7 +6529,7 @@
       <c r="E324" s="49"/>
       <c r="F324" s="49"/>
       <c r="G324" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -6542,7 +6542,7 @@
       <c r="E325" s="49"/>
       <c r="F325" s="49"/>
       <c r="G325" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -6555,7 +6555,7 @@
       <c r="E326" s="49"/>
       <c r="F326" s="49"/>
       <c r="G326" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -6568,7 +6568,7 @@
       <c r="E327" s="49"/>
       <c r="F327" s="49"/>
       <c r="G327" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -6581,7 +6581,7 @@
       <c r="E328" s="49"/>
       <c r="F328" s="49"/>
       <c r="G328" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -6594,7 +6594,7 @@
       <c r="E329" s="49"/>
       <c r="F329" s="49"/>
       <c r="G329" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -6607,7 +6607,7 @@
       <c r="E330" s="49"/>
       <c r="F330" s="49"/>
       <c r="G330" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -6620,7 +6620,7 @@
       <c r="E331" s="49"/>
       <c r="F331" s="49"/>
       <c r="G331" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -6633,7 +6633,7 @@
       <c r="E332" s="49"/>
       <c r="F332" s="49"/>
       <c r="G332" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -6646,7 +6646,7 @@
       <c r="E333" s="49"/>
       <c r="F333" s="49"/>
       <c r="G333" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -6659,7 +6659,7 @@
       <c r="E334" s="49"/>
       <c r="F334" s="49"/>
       <c r="G334" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -6672,7 +6672,7 @@
       <c r="E335" s="49"/>
       <c r="F335" s="49"/>
       <c r="G335" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -6685,7 +6685,7 @@
       <c r="E336" s="49"/>
       <c r="F336" s="49"/>
       <c r="G336" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -6698,7 +6698,7 @@
       <c r="E337" s="49"/>
       <c r="F337" s="49"/>
       <c r="G337" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -6711,7 +6711,7 @@
       <c r="E338" s="49"/>
       <c r="F338" s="49"/>
       <c r="G338" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -6724,7 +6724,7 @@
       <c r="E339" s="49"/>
       <c r="F339" s="49"/>
       <c r="G339" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -6737,7 +6737,7 @@
       <c r="E340" s="49"/>
       <c r="F340" s="49"/>
       <c r="G340" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -6750,7 +6750,7 @@
       <c r="E341" s="49"/>
       <c r="F341" s="49"/>
       <c r="G341" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -6763,7 +6763,7 @@
       <c r="E342" s="49"/>
       <c r="F342" s="49"/>
       <c r="G342" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -6776,7 +6776,7 @@
       <c r="E343" s="49"/>
       <c r="F343" s="49"/>
       <c r="G343" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -6789,7 +6789,7 @@
       <c r="E344" s="49"/>
       <c r="F344" s="49"/>
       <c r="G344" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -6802,7 +6802,7 @@
       <c r="E345" s="49"/>
       <c r="F345" s="49"/>
       <c r="G345" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -6815,7 +6815,7 @@
       <c r="E346" s="49"/>
       <c r="F346" s="49"/>
       <c r="G346" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -6828,7 +6828,7 @@
       <c r="E347" s="49"/>
       <c r="F347" s="49"/>
       <c r="G347" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -6841,7 +6841,7 @@
       <c r="E348" s="49"/>
       <c r="F348" s="49"/>
       <c r="G348" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -6854,7 +6854,7 @@
       <c r="E349" s="49"/>
       <c r="F349" s="49"/>
       <c r="G349" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -6867,7 +6867,7 @@
       <c r="E350" s="49"/>
       <c r="F350" s="49"/>
       <c r="G350" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -6880,7 +6880,7 @@
       <c r="E351" s="49"/>
       <c r="F351" s="49"/>
       <c r="G351" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -6893,7 +6893,7 @@
       <c r="E352" s="49"/>
       <c r="F352" s="49"/>
       <c r="G352" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -6906,7 +6906,7 @@
       <c r="E353" s="49"/>
       <c r="F353" s="49"/>
       <c r="G353" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -6919,7 +6919,7 @@
       <c r="E354" s="49"/>
       <c r="F354" s="49"/>
       <c r="G354" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -6932,7 +6932,7 @@
       <c r="E355" s="49"/>
       <c r="F355" s="49"/>
       <c r="G355" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -6945,7 +6945,7 @@
       <c r="E356" s="49"/>
       <c r="F356" s="49"/>
       <c r="G356" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -6958,7 +6958,7 @@
       <c r="E357" s="49"/>
       <c r="F357" s="49"/>
       <c r="G357" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -6971,7 +6971,7 @@
       <c r="E358" s="49"/>
       <c r="F358" s="49"/>
       <c r="G358" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -6984,7 +6984,7 @@
       <c r="E359" s="49"/>
       <c r="F359" s="49"/>
       <c r="G359" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -6997,7 +6997,7 @@
       <c r="E360" s="49"/>
       <c r="F360" s="49"/>
       <c r="G360" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -7010,7 +7010,7 @@
       <c r="E361" s="49"/>
       <c r="F361" s="49"/>
       <c r="G361" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -7023,7 +7023,7 @@
       <c r="E362" s="49"/>
       <c r="F362" s="49"/>
       <c r="G362" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -7036,7 +7036,7 @@
       <c r="E363" s="49"/>
       <c r="F363" s="49"/>
       <c r="G363" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -7049,7 +7049,7 @@
       <c r="E364" s="49"/>
       <c r="F364" s="49"/>
       <c r="G364" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -7062,7 +7062,7 @@
       <c r="E365" s="49"/>
       <c r="F365" s="49"/>
       <c r="G365" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -7075,7 +7075,7 @@
       <c r="E366" s="49"/>
       <c r="F366" s="49"/>
       <c r="G366" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -7088,7 +7088,7 @@
       <c r="E367" s="49"/>
       <c r="F367" s="49"/>
       <c r="G367" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -7101,7 +7101,7 @@
       <c r="E368" s="49"/>
       <c r="F368" s="49"/>
       <c r="G368" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -7114,7 +7114,7 @@
       <c r="E369" s="49"/>
       <c r="F369" s="49"/>
       <c r="G369" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -7127,7 +7127,7 @@
       <c r="E370" s="49"/>
       <c r="F370" s="49"/>
       <c r="G370" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -7140,7 +7140,7 @@
       <c r="E371" s="49"/>
       <c r="F371" s="49"/>
       <c r="G371" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -7153,7 +7153,7 @@
       <c r="E372" s="49"/>
       <c r="F372" s="49"/>
       <c r="G372" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -7166,7 +7166,7 @@
       <c r="E373" s="49"/>
       <c r="F373" s="49"/>
       <c r="G373" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -7179,7 +7179,7 @@
       <c r="E374" s="49"/>
       <c r="F374" s="49"/>
       <c r="G374" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -7192,7 +7192,7 @@
       <c r="E375" s="49"/>
       <c r="F375" s="49"/>
       <c r="G375" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -7205,7 +7205,7 @@
       <c r="E376" s="49"/>
       <c r="F376" s="49"/>
       <c r="G376" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -7218,7 +7218,7 @@
       <c r="E377" s="49"/>
       <c r="F377" s="49"/>
       <c r="G377" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -7231,7 +7231,7 @@
       <c r="E378" s="49"/>
       <c r="F378" s="49"/>
       <c r="G378" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -7244,7 +7244,7 @@
       <c r="E379" s="49"/>
       <c r="F379" s="49"/>
       <c r="G379" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -7257,7 +7257,7 @@
       <c r="E380" s="49"/>
       <c r="F380" s="49"/>
       <c r="G380" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -7270,7 +7270,7 @@
       <c r="E381" s="49"/>
       <c r="F381" s="49"/>
       <c r="G381" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -7283,7 +7283,7 @@
       <c r="E382" s="49"/>
       <c r="F382" s="49"/>
       <c r="G382" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -7296,7 +7296,7 @@
       <c r="E383" s="49"/>
       <c r="F383" s="49"/>
       <c r="G383" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -7309,7 +7309,7 @@
       <c r="E384" s="49"/>
       <c r="F384" s="49"/>
       <c r="G384" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -7322,7 +7322,7 @@
       <c r="E385" s="49"/>
       <c r="F385" s="49"/>
       <c r="G385" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -7335,7 +7335,7 @@
       <c r="E386" s="49"/>
       <c r="F386" s="49"/>
       <c r="G386" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -7348,7 +7348,7 @@
       <c r="E387" s="49"/>
       <c r="F387" s="49"/>
       <c r="G387" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -7361,7 +7361,7 @@
       <c r="E388" s="49"/>
       <c r="F388" s="49"/>
       <c r="G388" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -7374,7 +7374,7 @@
       <c r="E389" s="49"/>
       <c r="F389" s="49"/>
       <c r="G389" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -7387,7 +7387,7 @@
       <c r="E390" s="49"/>
       <c r="F390" s="49"/>
       <c r="G390" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -7400,7 +7400,7 @@
       <c r="E391" s="49"/>
       <c r="F391" s="49"/>
       <c r="G391" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -7413,7 +7413,7 @@
       <c r="E392" s="49"/>
       <c r="F392" s="49"/>
       <c r="G392" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -7426,7 +7426,7 @@
       <c r="E393" s="49"/>
       <c r="F393" s="49"/>
       <c r="G393" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -7439,7 +7439,7 @@
       <c r="E394" s="49"/>
       <c r="F394" s="49"/>
       <c r="G394" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -7452,7 +7452,7 @@
       <c r="E395" s="49"/>
       <c r="F395" s="49"/>
       <c r="G395" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -7465,7 +7465,7 @@
       <c r="E396" s="49"/>
       <c r="F396" s="49"/>
       <c r="G396" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -7478,7 +7478,7 @@
       <c r="E397" s="49"/>
       <c r="F397" s="49"/>
       <c r="G397" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -7491,7 +7491,7 @@
       <c r="E398" s="49"/>
       <c r="F398" s="49"/>
       <c r="G398" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -7504,7 +7504,7 @@
       <c r="E399" s="49"/>
       <c r="F399" s="49"/>
       <c r="G399" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -7517,7 +7517,7 @@
       <c r="E400" s="49"/>
       <c r="F400" s="49"/>
       <c r="G400" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -7530,7 +7530,7 @@
       <c r="E401" s="49"/>
       <c r="F401" s="49"/>
       <c r="G401" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -7543,7 +7543,7 @@
       <c r="E402" s="49"/>
       <c r="F402" s="49"/>
       <c r="G402" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -7556,7 +7556,7 @@
       <c r="E403" s="49"/>
       <c r="F403" s="49"/>
       <c r="G403" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -7569,7 +7569,7 @@
       <c r="E404" s="49"/>
       <c r="F404" s="49"/>
       <c r="G404" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -7582,7 +7582,7 @@
       <c r="E405" s="49"/>
       <c r="F405" s="49"/>
       <c r="G405" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -7595,7 +7595,7 @@
       <c r="E406" s="49"/>
       <c r="F406" s="49"/>
       <c r="G406" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -7608,7 +7608,7 @@
       <c r="E407" s="49"/>
       <c r="F407" s="49"/>
       <c r="G407" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -7621,7 +7621,7 @@
       <c r="E408" s="49"/>
       <c r="F408" s="49"/>
       <c r="G408" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -7634,7 +7634,7 @@
       <c r="E409" s="49"/>
       <c r="F409" s="49"/>
       <c r="G409" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -7647,7 +7647,7 @@
       <c r="E410" s="49"/>
       <c r="F410" s="49"/>
       <c r="G410" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -7660,7 +7660,7 @@
       <c r="E411" s="49"/>
       <c r="F411" s="49"/>
       <c r="G411" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -7673,7 +7673,7 @@
       <c r="E412" s="49"/>
       <c r="F412" s="49"/>
       <c r="G412" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -7686,7 +7686,7 @@
       <c r="E413" s="49"/>
       <c r="F413" s="49"/>
       <c r="G413" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -7699,7 +7699,7 @@
       <c r="E414" s="49"/>
       <c r="F414" s="49"/>
       <c r="G414" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -7712,7 +7712,7 @@
       <c r="E415" s="49"/>
       <c r="F415" s="49"/>
       <c r="G415" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -7725,7 +7725,7 @@
       <c r="E416" s="49"/>
       <c r="F416" s="49"/>
       <c r="G416" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -7738,7 +7738,7 @@
       <c r="E417" s="49"/>
       <c r="F417" s="49"/>
       <c r="G417" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -7751,7 +7751,7 @@
       <c r="E418" s="49"/>
       <c r="F418" s="49"/>
       <c r="G418" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -7764,7 +7764,7 @@
       <c r="E419" s="49"/>
       <c r="F419" s="49"/>
       <c r="G419" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -7777,7 +7777,7 @@
       <c r="E420" s="49"/>
       <c r="F420" s="49"/>
       <c r="G420" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -7790,7 +7790,7 @@
       <c r="E421" s="49"/>
       <c r="F421" s="49"/>
       <c r="G421" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -7803,7 +7803,7 @@
       <c r="E422" s="49"/>
       <c r="F422" s="49"/>
       <c r="G422" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -7816,7 +7816,7 @@
       <c r="E423" s="49"/>
       <c r="F423" s="49"/>
       <c r="G423" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -7829,7 +7829,7 @@
       <c r="E424" s="49"/>
       <c r="F424" s="49"/>
       <c r="G424" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -7842,7 +7842,7 @@
       <c r="E425" s="49"/>
       <c r="F425" s="49"/>
       <c r="G425" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -7855,7 +7855,7 @@
       <c r="E426" s="49"/>
       <c r="F426" s="49"/>
       <c r="G426" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -7868,7 +7868,7 @@
       <c r="E427" s="49"/>
       <c r="F427" s="49"/>
       <c r="G427" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -7881,7 +7881,7 @@
       <c r="E428" s="49"/>
       <c r="F428" s="49"/>
       <c r="G428" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -7894,7 +7894,7 @@
       <c r="E429" s="49"/>
       <c r="F429" s="49"/>
       <c r="G429" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -7907,7 +7907,7 @@
       <c r="E430" s="49"/>
       <c r="F430" s="49"/>
       <c r="G430" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -7920,7 +7920,7 @@
       <c r="E431" s="49"/>
       <c r="F431" s="49"/>
       <c r="G431" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -7933,7 +7933,7 @@
       <c r="E432" s="49"/>
       <c r="F432" s="49"/>
       <c r="G432" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -7946,7 +7946,7 @@
       <c r="E433" s="49"/>
       <c r="F433" s="49"/>
       <c r="G433" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -7959,7 +7959,7 @@
       <c r="E434" s="49"/>
       <c r="F434" s="49"/>
       <c r="G434" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -7972,7 +7972,7 @@
       <c r="E435" s="49"/>
       <c r="F435" s="49"/>
       <c r="G435" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -7985,7 +7985,7 @@
       <c r="E436" s="49"/>
       <c r="F436" s="49"/>
       <c r="G436" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -7998,7 +7998,7 @@
       <c r="E437" s="49"/>
       <c r="F437" s="49"/>
       <c r="G437" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -8011,7 +8011,7 @@
       <c r="E438" s="49"/>
       <c r="F438" s="49"/>
       <c r="G438" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -8024,7 +8024,7 @@
       <c r="E439" s="49"/>
       <c r="F439" s="49"/>
       <c r="G439" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -8037,7 +8037,7 @@
       <c r="E440" s="49"/>
       <c r="F440" s="49"/>
       <c r="G440" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -8050,7 +8050,7 @@
       <c r="E441" s="49"/>
       <c r="F441" s="49"/>
       <c r="G441" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -8063,7 +8063,7 @@
       <c r="E442" s="49"/>
       <c r="F442" s="49"/>
       <c r="G442" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -8076,7 +8076,7 @@
       <c r="E443" s="49"/>
       <c r="F443" s="49"/>
       <c r="G443" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -8089,7 +8089,7 @@
       <c r="E444" s="49"/>
       <c r="F444" s="49"/>
       <c r="G444" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -8102,7 +8102,7 @@
       <c r="E445" s="49"/>
       <c r="F445" s="49"/>
       <c r="G445" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -8115,7 +8115,7 @@
       <c r="E446" s="49"/>
       <c r="F446" s="49"/>
       <c r="G446" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -8128,7 +8128,7 @@
       <c r="E447" s="49"/>
       <c r="F447" s="49"/>
       <c r="G447" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -8141,7 +8141,7 @@
       <c r="E448" s="49"/>
       <c r="F448" s="49"/>
       <c r="G448" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -8154,7 +8154,7 @@
       <c r="E449" s="49"/>
       <c r="F449" s="49"/>
       <c r="G449" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -8167,7 +8167,7 @@
       <c r="E450" s="49"/>
       <c r="F450" s="49"/>
       <c r="G450" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -8180,7 +8180,7 @@
       <c r="E451" s="49"/>
       <c r="F451" s="49"/>
       <c r="G451" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -8193,7 +8193,7 @@
       <c r="E452" s="49"/>
       <c r="F452" s="49"/>
       <c r="G452" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -8206,7 +8206,7 @@
       <c r="E453" s="49"/>
       <c r="F453" s="49"/>
       <c r="G453" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -8219,7 +8219,7 @@
       <c r="E454" s="49"/>
       <c r="F454" s="49"/>
       <c r="G454" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -8232,7 +8232,7 @@
       <c r="E455" s="49"/>
       <c r="F455" s="49"/>
       <c r="G455" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -8245,7 +8245,7 @@
       <c r="E456" s="49"/>
       <c r="F456" s="49"/>
       <c r="G456" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -8258,7 +8258,7 @@
       <c r="E457" s="49"/>
       <c r="F457" s="49"/>
       <c r="G457" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -8271,7 +8271,7 @@
       <c r="E458" s="49"/>
       <c r="F458" s="49"/>
       <c r="G458" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -8284,7 +8284,7 @@
       <c r="E459" s="49"/>
       <c r="F459" s="49"/>
       <c r="G459" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -8297,7 +8297,7 @@
       <c r="E460" s="49"/>
       <c r="F460" s="49"/>
       <c r="G460" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -8310,7 +8310,7 @@
       <c r="E461" s="49"/>
       <c r="F461" s="49"/>
       <c r="G461" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -8323,7 +8323,7 @@
       <c r="E462" s="49"/>
       <c r="F462" s="49"/>
       <c r="G462" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -8336,7 +8336,7 @@
       <c r="E463" s="49"/>
       <c r="F463" s="49"/>
       <c r="G463" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -8349,7 +8349,7 @@
       <c r="E464" s="49"/>
       <c r="F464" s="49"/>
       <c r="G464" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -8362,7 +8362,7 @@
       <c r="E465" s="49"/>
       <c r="F465" s="49"/>
       <c r="G465" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -8375,7 +8375,7 @@
       <c r="E466" s="49"/>
       <c r="F466" s="49"/>
       <c r="G466" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -8388,7 +8388,7 @@
       <c r="E467" s="49"/>
       <c r="F467" s="49"/>
       <c r="G467" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -8401,7 +8401,7 @@
       <c r="E468" s="49"/>
       <c r="F468" s="49"/>
       <c r="G468" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -8414,7 +8414,7 @@
       <c r="E469" s="49"/>
       <c r="F469" s="49"/>
       <c r="G469" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -8427,7 +8427,7 @@
       <c r="E470" s="49"/>
       <c r="F470" s="49"/>
       <c r="G470" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -8440,7 +8440,7 @@
       <c r="E471" s="49"/>
       <c r="F471" s="49"/>
       <c r="G471" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -8453,7 +8453,7 @@
       <c r="E472" s="49"/>
       <c r="F472" s="49"/>
       <c r="G472" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -8466,7 +8466,7 @@
       <c r="E473" s="49"/>
       <c r="F473" s="49"/>
       <c r="G473" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -8479,7 +8479,7 @@
       <c r="E474" s="49"/>
       <c r="F474" s="49"/>
       <c r="G474" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -8492,7 +8492,7 @@
       <c r="E475" s="49"/>
       <c r="F475" s="49"/>
       <c r="G475" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -8505,7 +8505,7 @@
       <c r="E476" s="49"/>
       <c r="F476" s="49"/>
       <c r="G476" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -8518,7 +8518,7 @@
       <c r="E477" s="49"/>
       <c r="F477" s="49"/>
       <c r="G477" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -8531,7 +8531,7 @@
       <c r="E478" s="49"/>
       <c r="F478" s="49"/>
       <c r="G478" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -8544,7 +8544,7 @@
       <c r="E479" s="49"/>
       <c r="F479" s="49"/>
       <c r="G479" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -8557,7 +8557,7 @@
       <c r="E480" s="49"/>
       <c r="F480" s="49"/>
       <c r="G480" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -8570,7 +8570,7 @@
       <c r="E481" s="49"/>
       <c r="F481" s="49"/>
       <c r="G481" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -8583,7 +8583,7 @@
       <c r="E482" s="49"/>
       <c r="F482" s="49"/>
       <c r="G482" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -8596,7 +8596,7 @@
       <c r="E483" s="49"/>
       <c r="F483" s="49"/>
       <c r="G483" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -8609,7 +8609,7 @@
       <c r="E484" s="49"/>
       <c r="F484" s="49"/>
       <c r="G484" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -8622,7 +8622,7 @@
       <c r="E485" s="49"/>
       <c r="F485" s="49"/>
       <c r="G485" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -8635,7 +8635,7 @@
       <c r="E486" s="49"/>
       <c r="F486" s="49"/>
       <c r="G486" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -8648,7 +8648,7 @@
       <c r="E487" s="49"/>
       <c r="F487" s="49"/>
       <c r="G487" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -8661,7 +8661,7 @@
       <c r="E488" s="49"/>
       <c r="F488" s="49"/>
       <c r="G488" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -8674,7 +8674,7 @@
       <c r="E489" s="49"/>
       <c r="F489" s="49"/>
       <c r="G489" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -8687,7 +8687,7 @@
       <c r="E490" s="49"/>
       <c r="F490" s="49"/>
       <c r="G490" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -8700,7 +8700,7 @@
       <c r="E491" s="49"/>
       <c r="F491" s="49"/>
       <c r="G491" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -8713,7 +8713,7 @@
       <c r="E492" s="49"/>
       <c r="F492" s="49"/>
       <c r="G492" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -8726,7 +8726,7 @@
       <c r="E493" s="49"/>
       <c r="F493" s="49"/>
       <c r="G493" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -8739,7 +8739,7 @@
       <c r="E494" s="49"/>
       <c r="F494" s="49"/>
       <c r="G494" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -8752,7 +8752,7 @@
       <c r="E495" s="49"/>
       <c r="F495" s="49"/>
       <c r="G495" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -8765,7 +8765,7 @@
       <c r="E496" s="49"/>
       <c r="F496" s="49"/>
       <c r="G496" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -8778,7 +8778,7 @@
       <c r="E497" s="49"/>
       <c r="F497" s="49"/>
       <c r="G497" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -8791,7 +8791,7 @@
       <c r="E498" s="49"/>
       <c r="F498" s="49"/>
       <c r="G498" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -8804,7 +8804,7 @@
       <c r="E499" s="49"/>
       <c r="F499" s="49"/>
       <c r="G499" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -8817,7 +8817,7 @@
       <c r="E500" s="49"/>
       <c r="F500" s="49"/>
       <c r="G500" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -8830,7 +8830,7 @@
       <c r="E501" s="49"/>
       <c r="F501" s="49"/>
       <c r="G501" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -8843,7 +8843,7 @@
       <c r="E502" s="49"/>
       <c r="F502" s="49"/>
       <c r="G502" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -8856,7 +8856,7 @@
       <c r="E503" s="49"/>
       <c r="F503" s="49"/>
       <c r="G503" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -8869,7 +8869,7 @@
       <c r="E504" s="49"/>
       <c r="F504" s="49"/>
       <c r="G504" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -8882,7 +8882,7 @@
       <c r="E505" s="49"/>
       <c r="F505" s="49"/>
       <c r="G505" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -8895,7 +8895,7 @@
       <c r="E506" s="49"/>
       <c r="F506" s="49"/>
       <c r="G506" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -8908,7 +8908,7 @@
       <c r="E507" s="49"/>
       <c r="F507" s="49"/>
       <c r="G507" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -8921,7 +8921,7 @@
       <c r="E508" s="49"/>
       <c r="F508" s="49"/>
       <c r="G508" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -8934,7 +8934,7 @@
       <c r="E509" s="49"/>
       <c r="F509" s="49"/>
       <c r="G509" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -8947,7 +8947,7 @@
       <c r="E510" s="49"/>
       <c r="F510" s="49"/>
       <c r="G510" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -8960,7 +8960,7 @@
       <c r="E511" s="49"/>
       <c r="F511" s="49"/>
       <c r="G511" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -8973,7 +8973,7 @@
       <c r="E512" s="49"/>
       <c r="F512" s="49"/>
       <c r="G512" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -8986,7 +8986,7 @@
       <c r="E513" s="49"/>
       <c r="F513" s="49"/>
       <c r="G513" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -8999,7 +8999,7 @@
       <c r="E514" s="49"/>
       <c r="F514" s="49"/>
       <c r="G514" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -9012,7 +9012,7 @@
       <c r="E515" s="49"/>
       <c r="F515" s="49"/>
       <c r="G515" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -9025,7 +9025,7 @@
       <c r="E516" s="49"/>
       <c r="F516" s="49"/>
       <c r="G516" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -9038,7 +9038,7 @@
       <c r="E517" s="49"/>
       <c r="F517" s="49"/>
       <c r="G517" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -9051,7 +9051,7 @@
       <c r="E518" s="49"/>
       <c r="F518" s="49"/>
       <c r="G518" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -9064,7 +9064,7 @@
       <c r="E519" s="49"/>
       <c r="F519" s="49"/>
       <c r="G519" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -9077,7 +9077,7 @@
       <c r="E520" s="49"/>
       <c r="F520" s="49"/>
       <c r="G520" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -9090,7 +9090,7 @@
       <c r="E521" s="49"/>
       <c r="F521" s="49"/>
       <c r="G521" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -9103,7 +9103,7 @@
       <c r="E522" s="49"/>
       <c r="F522" s="49"/>
       <c r="G522" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -9116,7 +9116,7 @@
       <c r="E523" s="49"/>
       <c r="F523" s="49"/>
       <c r="G523" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -9129,7 +9129,7 @@
       <c r="E524" s="49"/>
       <c r="F524" s="49"/>
       <c r="G524" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -9142,7 +9142,7 @@
       <c r="E525" s="49"/>
       <c r="F525" s="49"/>
       <c r="G525" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -9155,7 +9155,7 @@
       <c r="E526" s="49"/>
       <c r="F526" s="49"/>
       <c r="G526" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -9168,7 +9168,7 @@
       <c r="E527" s="49"/>
       <c r="F527" s="49"/>
       <c r="G527" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -9181,7 +9181,7 @@
       <c r="E528" s="49"/>
       <c r="F528" s="49"/>
       <c r="G528" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -9194,7 +9194,7 @@
       <c r="E529" s="49"/>
       <c r="F529" s="49"/>
       <c r="G529" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -9207,7 +9207,7 @@
       <c r="E530" s="49"/>
       <c r="F530" s="49"/>
       <c r="G530" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -9220,7 +9220,7 @@
       <c r="E531" s="49"/>
       <c r="F531" s="49"/>
       <c r="G531" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -9233,7 +9233,7 @@
       <c r="E532" s="49"/>
       <c r="F532" s="49"/>
       <c r="G532" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -9246,7 +9246,7 @@
       <c r="E533" s="49"/>
       <c r="F533" s="49"/>
       <c r="G533" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -9259,7 +9259,7 @@
       <c r="E534" s="49"/>
       <c r="F534" s="49"/>
       <c r="G534" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -9272,7 +9272,7 @@
       <c r="E535" s="49"/>
       <c r="F535" s="49"/>
       <c r="G535" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -9285,7 +9285,7 @@
       <c r="E536" s="49"/>
       <c r="F536" s="49"/>
       <c r="G536" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -9298,7 +9298,7 @@
       <c r="E537" s="49"/>
       <c r="F537" s="49"/>
       <c r="G537" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -9311,7 +9311,7 @@
       <c r="E538" s="49"/>
       <c r="F538" s="49"/>
       <c r="G538" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -9324,7 +9324,7 @@
       <c r="E539" s="49"/>
       <c r="F539" s="49"/>
       <c r="G539" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -9337,7 +9337,7 @@
       <c r="E540" s="49"/>
       <c r="F540" s="49"/>
       <c r="G540" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -9350,7 +9350,7 @@
       <c r="E541" s="49"/>
       <c r="F541" s="49"/>
       <c r="G541" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -9363,7 +9363,7 @@
       <c r="E542" s="49"/>
       <c r="F542" s="49"/>
       <c r="G542" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -9376,7 +9376,7 @@
       <c r="E543" s="49"/>
       <c r="F543" s="49"/>
       <c r="G543" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -9389,7 +9389,7 @@
       <c r="E544" s="49"/>
       <c r="F544" s="49"/>
       <c r="G544" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -9402,7 +9402,7 @@
       <c r="E545" s="49"/>
       <c r="F545" s="49"/>
       <c r="G545" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -9415,7 +9415,7 @@
       <c r="E546" s="49"/>
       <c r="F546" s="49"/>
       <c r="G546" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -9428,7 +9428,7 @@
       <c r="E547" s="49"/>
       <c r="F547" s="49"/>
       <c r="G547" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -9441,7 +9441,7 @@
       <c r="E548" s="49"/>
       <c r="F548" s="49"/>
       <c r="G548" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -9454,7 +9454,7 @@
       <c r="E549" s="49"/>
       <c r="F549" s="49"/>
       <c r="G549" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -9467,7 +9467,7 @@
       <c r="E550" s="49"/>
       <c r="F550" s="49"/>
       <c r="G550" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -9480,7 +9480,7 @@
       <c r="E551" s="49"/>
       <c r="F551" s="49"/>
       <c r="G551" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -9493,7 +9493,7 @@
       <c r="E552" s="49"/>
       <c r="F552" s="49"/>
       <c r="G552" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -9506,7 +9506,7 @@
       <c r="E553" s="49"/>
       <c r="F553" s="49"/>
       <c r="G553" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -9519,7 +9519,7 @@
       <c r="E554" s="49"/>
       <c r="F554" s="49"/>
       <c r="G554" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -9532,7 +9532,7 @@
       <c r="E555" s="49"/>
       <c r="F555" s="49"/>
       <c r="G555" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -9545,7 +9545,7 @@
       <c r="E556" s="49"/>
       <c r="F556" s="49"/>
       <c r="G556" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -9558,7 +9558,7 @@
       <c r="E557" s="49"/>
       <c r="F557" s="49"/>
       <c r="G557" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -9571,7 +9571,7 @@
       <c r="E558" s="49"/>
       <c r="F558" s="49"/>
       <c r="G558" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -9584,7 +9584,7 @@
       <c r="E559" s="49"/>
       <c r="F559" s="49"/>
       <c r="G559" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -9597,7 +9597,7 @@
       <c r="E560" s="49"/>
       <c r="F560" s="49"/>
       <c r="G560" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -9610,7 +9610,7 @@
       <c r="E561" s="49"/>
       <c r="F561" s="49"/>
       <c r="G561" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -9623,7 +9623,7 @@
       <c r="E562" s="49"/>
       <c r="F562" s="49"/>
       <c r="G562" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -9636,7 +9636,7 @@
       <c r="E563" s="49"/>
       <c r="F563" s="49"/>
       <c r="G563" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -9649,7 +9649,7 @@
       <c r="E564" s="49"/>
       <c r="F564" s="49"/>
       <c r="G564" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -9662,7 +9662,7 @@
       <c r="E565" s="49"/>
       <c r="F565" s="49"/>
       <c r="G565" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -9675,7 +9675,7 @@
       <c r="E566" s="49"/>
       <c r="F566" s="49"/>
       <c r="G566" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -9688,7 +9688,7 @@
       <c r="E567" s="49"/>
       <c r="F567" s="49"/>
       <c r="G567" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -9701,7 +9701,7 @@
       <c r="E568" s="49"/>
       <c r="F568" s="49"/>
       <c r="G568" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -9714,7 +9714,7 @@
       <c r="E569" s="49"/>
       <c r="F569" s="49"/>
       <c r="G569" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -9727,7 +9727,7 @@
       <c r="E570" s="49"/>
       <c r="F570" s="49"/>
       <c r="G570" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -9740,7 +9740,7 @@
       <c r="E571" s="49"/>
       <c r="F571" s="49"/>
       <c r="G571" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -9753,7 +9753,7 @@
       <c r="E572" s="49"/>
       <c r="F572" s="49"/>
       <c r="G572" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -9766,7 +9766,7 @@
       <c r="E573" s="49"/>
       <c r="F573" s="49"/>
       <c r="G573" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -9779,7 +9779,7 @@
       <c r="E574" s="49"/>
       <c r="F574" s="49"/>
       <c r="G574" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -9792,7 +9792,7 @@
       <c r="E575" s="49"/>
       <c r="F575" s="49"/>
       <c r="G575" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -9805,7 +9805,7 @@
       <c r="E576" s="49"/>
       <c r="F576" s="49"/>
       <c r="G576" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -9818,7 +9818,7 @@
       <c r="E577" s="49"/>
       <c r="F577" s="49"/>
       <c r="G577" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -9831,7 +9831,7 @@
       <c r="E578" s="49"/>
       <c r="F578" s="49"/>
       <c r="G578" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -9844,7 +9844,7 @@
       <c r="E579" s="49"/>
       <c r="F579" s="49"/>
       <c r="G579" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -9857,7 +9857,7 @@
       <c r="E580" s="49"/>
       <c r="F580" s="49"/>
       <c r="G580" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -9870,7 +9870,7 @@
       <c r="E581" s="49"/>
       <c r="F581" s="49"/>
       <c r="G581" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -9883,7 +9883,7 @@
       <c r="E582" s="49"/>
       <c r="F582" s="49"/>
       <c r="G582" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -9896,7 +9896,7 @@
       <c r="E583" s="49"/>
       <c r="F583" s="49"/>
       <c r="G583" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -9909,7 +9909,7 @@
       <c r="E584" s="49"/>
       <c r="F584" s="49"/>
       <c r="G584" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -9922,7 +9922,7 @@
       <c r="E585" s="49"/>
       <c r="F585" s="49"/>
       <c r="G585" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -9935,7 +9935,7 @@
       <c r="E586" s="49"/>
       <c r="F586" s="49"/>
       <c r="G586" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -9948,7 +9948,7 @@
       <c r="E587" s="49"/>
       <c r="F587" s="49"/>
       <c r="G587" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -9961,7 +9961,7 @@
       <c r="E588" s="49"/>
       <c r="F588" s="49"/>
       <c r="G588" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -9974,7 +9974,7 @@
       <c r="E589" s="49"/>
       <c r="F589" s="49"/>
       <c r="G589" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -9987,7 +9987,7 @@
       <c r="E590" s="49"/>
       <c r="F590" s="49"/>
       <c r="G590" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -10000,7 +10000,7 @@
       <c r="E591" s="49"/>
       <c r="F591" s="49"/>
       <c r="G591" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -10013,7 +10013,7 @@
       <c r="E592" s="49"/>
       <c r="F592" s="49"/>
       <c r="G592" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -10026,7 +10026,7 @@
       <c r="E593" s="49"/>
       <c r="F593" s="49"/>
       <c r="G593" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -10039,7 +10039,7 @@
       <c r="E594" s="49"/>
       <c r="F594" s="49"/>
       <c r="G594" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -10107,7 +10107,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -10159,73 +10159,73 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -13215,7 +13215,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -13277,28 +13277,28 @@
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
@@ -13316,23 +13316,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -13350,23 +13350,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="D6" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -13382,23 +13382,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -13414,25 +13414,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="43">
         <v>3</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
@@ -13448,23 +13448,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>164</v>
-      </c>
       <c r="D9" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -13480,23 +13480,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>166</v>
-      </c>
       <c r="D10" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -13516,7 +13516,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="2"/>
       <c r="F11" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="29"/>
@@ -13538,7 +13538,7 @@
       <c r="D12" s="29"/>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="29"/>
@@ -13560,7 +13560,7 @@
       <c r="D13" s="29"/>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="29"/>
@@ -13582,7 +13582,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="2"/>
       <c r="F14" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="29"/>
@@ -13604,7 +13604,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="29"/>
@@ -13626,7 +13626,7 @@
       <c r="D16" s="29"/>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="29"/>
@@ -13648,7 +13648,7 @@
       <c r="D17" s="29"/>
       <c r="E17" s="2"/>
       <c r="F17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="29"/>
@@ -13670,7 +13670,7 @@
       <c r="D18" s="29"/>
       <c r="E18" s="2"/>
       <c r="F18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="29"/>
@@ -13692,7 +13692,7 @@
       <c r="D19" s="29"/>
       <c r="E19" s="2"/>
       <c r="F19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="29"/>
@@ -13714,7 +13714,7 @@
       <c r="D20" s="29"/>
       <c r="E20" s="2"/>
       <c r="F20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="29"/>
@@ -13736,7 +13736,7 @@
       <c r="D21" s="29"/>
       <c r="E21" s="2"/>
       <c r="F21" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="29"/>
@@ -13758,7 +13758,7 @@
       <c r="D22" s="29"/>
       <c r="E22" s="2"/>
       <c r="F22" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="29"/>
@@ -13780,7 +13780,7 @@
       <c r="D23" s="29"/>
       <c r="E23" s="2"/>
       <c r="F23" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="29"/>
@@ -13802,7 +13802,7 @@
       <c r="D24" s="29"/>
       <c r="E24" s="2"/>
       <c r="F24" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="29"/>
@@ -13824,7 +13824,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="2"/>
       <c r="F25" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="29"/>
@@ -13846,7 +13846,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="2"/>
       <c r="F26" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="29"/>
@@ -13868,7 +13868,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="2"/>
       <c r="F27" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="29"/>
@@ -13890,7 +13890,7 @@
       <c r="D28" s="29"/>
       <c r="E28" s="2"/>
       <c r="F28" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="29"/>
@@ -13912,7 +13912,7 @@
       <c r="D29" s="29"/>
       <c r="E29" s="2"/>
       <c r="F29" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="29"/>
@@ -13934,7 +13934,7 @@
       <c r="D30" s="29"/>
       <c r="E30" s="2"/>
       <c r="F30" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="29"/>
@@ -13956,7 +13956,7 @@
       <c r="D31" s="29"/>
       <c r="E31" s="2"/>
       <c r="F31" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="29"/>
@@ -13978,7 +13978,7 @@
       <c r="D32" s="29"/>
       <c r="E32" s="2"/>
       <c r="F32" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="29"/>
@@ -14000,7 +14000,7 @@
       <c r="D33" s="29"/>
       <c r="E33" s="2"/>
       <c r="F33" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="29"/>
@@ -14022,7 +14022,7 @@
       <c r="D34" s="29"/>
       <c r="E34" s="2"/>
       <c r="F34" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="29"/>
@@ -14044,7 +14044,7 @@
       <c r="D35" s="29"/>
       <c r="E35" s="2"/>
       <c r="F35" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="29"/>
@@ -14066,7 +14066,7 @@
       <c r="D36" s="29"/>
       <c r="E36" s="2"/>
       <c r="F36" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="29"/>
@@ -14088,7 +14088,7 @@
       <c r="D37" s="29"/>
       <c r="E37" s="2"/>
       <c r="F37" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="29"/>
@@ -14110,7 +14110,7 @@
       <c r="D38" s="29"/>
       <c r="E38" s="2"/>
       <c r="F38" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="29"/>
@@ -14132,7 +14132,7 @@
       <c r="D39" s="29"/>
       <c r="E39" s="2"/>
       <c r="F39" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="29"/>
@@ -14154,7 +14154,7 @@
       <c r="D40" s="29"/>
       <c r="E40" s="2"/>
       <c r="F40" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="29"/>
@@ -14176,7 +14176,7 @@
       <c r="D41" s="29"/>
       <c r="E41" s="2"/>
       <c r="F41" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="29"/>
@@ -14198,7 +14198,7 @@
       <c r="D42" s="29"/>
       <c r="E42" s="2"/>
       <c r="F42" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="29"/>
@@ -14220,7 +14220,7 @@
       <c r="D43" s="29"/>
       <c r="E43" s="2"/>
       <c r="F43" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="29"/>
@@ -14242,7 +14242,7 @@
       <c r="D44" s="29"/>
       <c r="E44" s="2"/>
       <c r="F44" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="29"/>
@@ -14264,7 +14264,7 @@
       <c r="D45" s="29"/>
       <c r="E45" s="2"/>
       <c r="F45" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="29"/>
@@ -14286,7 +14286,7 @@
       <c r="D46" s="29"/>
       <c r="E46" s="2"/>
       <c r="F46" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="29"/>
@@ -14308,7 +14308,7 @@
       <c r="D47" s="29"/>
       <c r="E47" s="2"/>
       <c r="F47" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="29"/>
@@ -14330,7 +14330,7 @@
       <c r="D48" s="29"/>
       <c r="E48" s="2"/>
       <c r="F48" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="29"/>
@@ -14352,7 +14352,7 @@
       <c r="D49" s="29"/>
       <c r="E49" s="2"/>
       <c r="F49" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="29"/>
@@ -14374,7 +14374,7 @@
       <c r="D50" s="29"/>
       <c r="E50" s="2"/>
       <c r="F50" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="29"/>
@@ -14396,7 +14396,7 @@
       <c r="D51" s="29"/>
       <c r="E51" s="2"/>
       <c r="F51" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="29"/>
@@ -14418,7 +14418,7 @@
       <c r="D52" s="29"/>
       <c r="E52" s="2"/>
       <c r="F52" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="29"/>
@@ -14440,7 +14440,7 @@
       <c r="D53" s="29"/>
       <c r="E53" s="2"/>
       <c r="F53" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="29"/>
@@ -14462,7 +14462,7 @@
       <c r="D54" s="29"/>
       <c r="E54" s="2"/>
       <c r="F54" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="29"/>
@@ -14484,7 +14484,7 @@
       <c r="D55" s="29"/>
       <c r="E55" s="2"/>
       <c r="F55" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="29"/>
@@ -14506,7 +14506,7 @@
       <c r="D56" s="29"/>
       <c r="E56" s="2"/>
       <c r="F56" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="29"/>
@@ -14528,7 +14528,7 @@
       <c r="D57" s="29"/>
       <c r="E57" s="2"/>
       <c r="F57" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="29"/>
@@ -14550,7 +14550,7 @@
       <c r="D58" s="29"/>
       <c r="E58" s="2"/>
       <c r="F58" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="29"/>
@@ -14572,7 +14572,7 @@
       <c r="D59" s="29"/>
       <c r="E59" s="2"/>
       <c r="F59" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="29"/>
@@ -14594,7 +14594,7 @@
       <c r="D60" s="29"/>
       <c r="E60" s="2"/>
       <c r="F60" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="29"/>
@@ -14616,7 +14616,7 @@
       <c r="D61" s="29"/>
       <c r="E61" s="2"/>
       <c r="F61" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="29"/>
@@ -14638,7 +14638,7 @@
       <c r="D62" s="29"/>
       <c r="E62" s="2"/>
       <c r="F62" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="29"/>
@@ -14660,7 +14660,7 @@
       <c r="D63" s="29"/>
       <c r="E63" s="2"/>
       <c r="F63" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G63" s="25"/>
       <c r="H63" s="29"/>
@@ -14682,7 +14682,7 @@
       <c r="D64" s="29"/>
       <c r="E64" s="2"/>
       <c r="F64" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="29"/>
@@ -14704,7 +14704,7 @@
       <c r="D65" s="29"/>
       <c r="E65" s="2"/>
       <c r="F65" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="29"/>
@@ -14726,7 +14726,7 @@
       <c r="D66" s="29"/>
       <c r="E66" s="2"/>
       <c r="F66" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="29"/>
@@ -14748,7 +14748,7 @@
       <c r="D67" s="29"/>
       <c r="E67" s="2"/>
       <c r="F67" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="29"/>
@@ -14770,7 +14770,7 @@
       <c r="D68" s="29"/>
       <c r="E68" s="2"/>
       <c r="F68" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="29"/>
@@ -14792,7 +14792,7 @@
       <c r="D69" s="29"/>
       <c r="E69" s="2"/>
       <c r="F69" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="29"/>
@@ -14814,7 +14814,7 @@
       <c r="D70" s="29"/>
       <c r="E70" s="2"/>
       <c r="F70" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="29"/>
@@ -14836,7 +14836,7 @@
       <c r="D71" s="29"/>
       <c r="E71" s="2"/>
       <c r="F71" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="29"/>
@@ -14858,7 +14858,7 @@
       <c r="D72" s="29"/>
       <c r="E72" s="2"/>
       <c r="F72" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G72" s="25"/>
       <c r="H72" s="29"/>
@@ -14880,7 +14880,7 @@
       <c r="D73" s="29"/>
       <c r="E73" s="2"/>
       <c r="F73" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="29"/>
@@ -14902,7 +14902,7 @@
       <c r="D74" s="29"/>
       <c r="E74" s="2"/>
       <c r="F74" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G74" s="25"/>
       <c r="H74" s="29"/>
@@ -14924,7 +14924,7 @@
       <c r="D75" s="29"/>
       <c r="E75" s="2"/>
       <c r="F75" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G75" s="25"/>
       <c r="H75" s="29"/>
@@ -14946,7 +14946,7 @@
       <c r="D76" s="29"/>
       <c r="E76" s="2"/>
       <c r="F76" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="29"/>
@@ -14968,7 +14968,7 @@
       <c r="D77" s="29"/>
       <c r="E77" s="2"/>
       <c r="F77" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" s="25"/>
       <c r="H77" s="29"/>
@@ -14990,7 +14990,7 @@
       <c r="D78" s="29"/>
       <c r="E78" s="2"/>
       <c r="F78" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G78" s="25"/>
       <c r="H78" s="29"/>
@@ -15012,7 +15012,7 @@
       <c r="D79" s="29"/>
       <c r="E79" s="2"/>
       <c r="F79" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="29"/>
@@ -15034,7 +15034,7 @@
       <c r="D80" s="29"/>
       <c r="E80" s="2"/>
       <c r="F80" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="29"/>
@@ -15056,7 +15056,7 @@
       <c r="D81" s="29"/>
       <c r="E81" s="2"/>
       <c r="F81" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G81" s="25"/>
       <c r="H81" s="29"/>
@@ -15078,7 +15078,7 @@
       <c r="D82" s="29"/>
       <c r="E82" s="2"/>
       <c r="F82" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G82" s="25"/>
       <c r="H82" s="29"/>
@@ -15100,7 +15100,7 @@
       <c r="D83" s="29"/>
       <c r="E83" s="2"/>
       <c r="F83" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="29"/>
@@ -15122,7 +15122,7 @@
       <c r="D84" s="29"/>
       <c r="E84" s="2"/>
       <c r="F84" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" s="25"/>
       <c r="H84" s="29"/>
@@ -15144,7 +15144,7 @@
       <c r="D85" s="29"/>
       <c r="E85" s="2"/>
       <c r="F85" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G85" s="25"/>
       <c r="H85" s="29"/>
@@ -15166,7 +15166,7 @@
       <c r="D86" s="29"/>
       <c r="E86" s="2"/>
       <c r="F86" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="29"/>
@@ -15188,7 +15188,7 @@
       <c r="D87" s="29"/>
       <c r="E87" s="2"/>
       <c r="F87" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G87" s="25"/>
       <c r="H87" s="29"/>
@@ -15210,7 +15210,7 @@
       <c r="D88" s="29"/>
       <c r="E88" s="2"/>
       <c r="F88" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="29"/>
@@ -15232,7 +15232,7 @@
       <c r="D89" s="29"/>
       <c r="E89" s="2"/>
       <c r="F89" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="29"/>
@@ -15254,7 +15254,7 @@
       <c r="D90" s="29"/>
       <c r="E90" s="2"/>
       <c r="F90" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="29"/>
@@ -15276,7 +15276,7 @@
       <c r="D91" s="29"/>
       <c r="E91" s="2"/>
       <c r="F91" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G91" s="25"/>
       <c r="H91" s="29"/>
@@ -15298,7 +15298,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="2"/>
       <c r="F92" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="29"/>
@@ -15320,7 +15320,7 @@
       <c r="D93" s="29"/>
       <c r="E93" s="2"/>
       <c r="F93" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G93" s="25"/>
       <c r="H93" s="29"/>
@@ -15342,7 +15342,7 @@
       <c r="D94" s="29"/>
       <c r="E94" s="2"/>
       <c r="F94" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G94" s="25"/>
       <c r="H94" s="29"/>
@@ -15364,7 +15364,7 @@
       <c r="D95" s="29"/>
       <c r="E95" s="2"/>
       <c r="F95" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G95" s="25"/>
       <c r="H95" s="29"/>
@@ -15386,7 +15386,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="2"/>
       <c r="F96" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G96" s="25"/>
       <c r="H96" s="29"/>
@@ -15408,7 +15408,7 @@
       <c r="D97" s="29"/>
       <c r="E97" s="2"/>
       <c r="F97" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G97" s="25"/>
       <c r="H97" s="29"/>
@@ -15430,7 +15430,7 @@
       <c r="D98" s="29"/>
       <c r="E98" s="2"/>
       <c r="F98" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G98" s="25"/>
       <c r="H98" s="29"/>
@@ -15452,7 +15452,7 @@
       <c r="D99" s="29"/>
       <c r="E99" s="2"/>
       <c r="F99" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G99" s="25"/>
       <c r="H99" s="29"/>
@@ -15474,7 +15474,7 @@
       <c r="D100" s="29"/>
       <c r="E100" s="2"/>
       <c r="F100" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="29"/>
@@ -15496,7 +15496,7 @@
       <c r="D101" s="29"/>
       <c r="E101" s="2"/>
       <c r="F101" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="29"/>
@@ -15608,7 +15608,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -15616,247 +15616,247 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="35" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="60">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135">
       <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
       <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
       <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="105">
       <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60">
       <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45">
       <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="120">
       <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60">
       <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
       <c r="A30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2">

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -1012,132 +1012,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -1550,34 +1425,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="B3:G594" totalsRowShown="0" headerRowBorderDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="B3:G594" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="B3:G594">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
   <sortState ref="B4:G594">
     <sortCondition ref="D4:D594"/>
-    <sortCondition sortBy="cellColor" ref="E4:E594" dxfId="38"/>
-    <sortCondition sortBy="cellColor" ref="E4:E594" dxfId="37"/>
+    <sortCondition sortBy="cellColor" ref="E4:E594" dxfId="26"/>
+    <sortCondition sortBy="cellColor" ref="E4:E594" dxfId="25"/>
     <sortCondition ref="B4:B594"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Category" dataDxfId="36"/>
-    <tableColumn id="25" name="Description" dataDxfId="35"/>
-    <tableColumn id="24" name="Done" dataDxfId="34"/>
-    <tableColumn id="4" name="Priority (1-3)" dataDxfId="33"/>
-    <tableColumn id="5" name="Platform (I, M, P)" dataDxfId="32"/>
-    <tableColumn id="6" name="Who" dataDxfId="31"/>
+    <tableColumn id="2" name="Category" dataDxfId="24"/>
+    <tableColumn id="25" name="Description" dataDxfId="23"/>
+    <tableColumn id="24" name="Done" dataDxfId="22"/>
+    <tableColumn id="4" name="Priority (1-3)" dataDxfId="21"/>
+    <tableColumn id="5" name="Platform (I, M, P)" dataDxfId="20"/>
+    <tableColumn id="6" name="Who" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A3:W594" totalsRowShown="0" headerRowBorderDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A3:W594" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A3:W594"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="#" dataDxfId="28"/>
+    <tableColumn id="1" name="#" dataDxfId="16"/>
     <tableColumn id="2" name="Column1"/>
     <tableColumn id="3" name="Column2"/>
     <tableColumn id="4" name="Column3"/>
@@ -1606,19 +1481,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:H101" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:H101" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A4:H101">
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="#" dataDxfId="19"/>
-    <tableColumn id="2" name="General" dataDxfId="18"/>
-    <tableColumn id="4" name="Description" dataDxfId="17"/>
-    <tableColumn id="5" name="Script" dataDxfId="16"/>
-    <tableColumn id="7" name="Priority (1-3)" dataDxfId="15"/>
-    <tableColumn id="9" name="Fixed" dataDxfId="14"/>
-    <tableColumn id="10" name="What fixed it?" dataDxfId="13"/>
-    <tableColumn id="3" name="Platforms (I, M, P)" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="7"/>
+    <tableColumn id="2" name="General" dataDxfId="6"/>
+    <tableColumn id="4" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" name="Script" dataDxfId="4"/>
+    <tableColumn id="7" name="Priority (1-3)" dataDxfId="3"/>
+    <tableColumn id="9" name="Fixed" dataDxfId="2"/>
+    <tableColumn id="10" name="What fixed it?" dataDxfId="1"/>
+    <tableColumn id="3" name="Platforms (I, M, P)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1912,7 +1787,7 @@
   <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2012,7 +1887,7 @@
         <v>102</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10047,38 +9922,38 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G2 G595:G1048576 D3:D594">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"None"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="notEqual">
       <formula>"None"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15568,19 +15443,19 @@
     <mergeCell ref="A1:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E101">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/see-saw-unity/Docs/todo.xlsx
+++ b/see-saw-unity/Docs/todo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="181">
   <si>
     <t>handle hitting spikes</t>
   </si>
@@ -603,9 +603,6 @@
     <t>Who</t>
   </si>
   <si>
-    <t>Create Energy Collectible prefab</t>
-  </si>
-  <si>
     <t>Develop collection functionality (make general)</t>
   </si>
   <si>
@@ -621,9 +618,6 @@
     <t>Time Est</t>
   </si>
   <si>
-    <t>Life/energy/core functionality</t>
-  </si>
-  <si>
     <t>Finalize movement, gel with level design</t>
   </si>
   <si>
@@ -643,6 +637,9 @@
   </si>
   <si>
     <t>change rope functionality to not allow up/down movement</t>
+  </si>
+  <si>
+    <t>Currency functionality</t>
   </si>
 </sst>
 </file>
@@ -1055,132 +1052,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <b val="0"/>
@@ -1564,13 +1436,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -1579,6 +1444,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1678,36 +1550,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="B3:H594" totalsRowShown="0" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
-  <autoFilter ref="B3:H594">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="B3:H593" totalsRowShown="0" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+  <autoFilter ref="B3:H593">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="B4:H594">
     <sortCondition ref="D4:D594"/>
-    <sortCondition sortBy="cellColor" ref="E4:E594" dxfId="39"/>
-    <sortCondition sortBy="cellColor" ref="E4:E594" dxfId="38"/>
+    <sortCondition sortBy="cellColor" ref="E4:E594" dxfId="27"/>
+    <sortCondition sortBy="cellColor" ref="E4:E594" dxfId="26"/>
     <sortCondition ref="B4:B594"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Category" dataDxfId="37"/>
-    <tableColumn id="25" name="Description" dataDxfId="36"/>
-    <tableColumn id="24" name="Done" dataDxfId="35"/>
-    <tableColumn id="4" name="Priority 1-3" dataDxfId="34"/>
-    <tableColumn id="5" name="Platform (I,M,P)" dataDxfId="33"/>
-    <tableColumn id="6" name="Who" dataDxfId="32"/>
-    <tableColumn id="1" name="Time Est" dataDxfId="31"/>
+    <tableColumn id="2" name="Category" dataDxfId="25"/>
+    <tableColumn id="25" name="Description" dataDxfId="24"/>
+    <tableColumn id="24" name="Done" dataDxfId="23"/>
+    <tableColumn id="4" name="Priority 1-3" dataDxfId="22"/>
+    <tableColumn id="5" name="Platform (I,M,P)" dataDxfId="21"/>
+    <tableColumn id="6" name="Who" dataDxfId="20"/>
+    <tableColumn id="1" name="Time Est" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A3:W594" totalsRowShown="0" headerRowBorderDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A3:W594" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A3:W594"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="#" dataDxfId="28"/>
+    <tableColumn id="1" name="#" dataDxfId="16"/>
     <tableColumn id="2" name="Column1"/>
     <tableColumn id="3" name="Column2"/>
     <tableColumn id="4" name="Column3"/>
@@ -1736,19 +1608,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:H101" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:H101" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A4:H101">
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="#" dataDxfId="19"/>
-    <tableColumn id="2" name="General" dataDxfId="18"/>
-    <tableColumn id="4" name="Description" dataDxfId="17"/>
-    <tableColumn id="5" name="Script" dataDxfId="16"/>
-    <tableColumn id="7" name="Priority (1-3)" dataDxfId="15"/>
-    <tableColumn id="9" name="Fixed" dataDxfId="14"/>
-    <tableColumn id="10" name="What fixed it?" dataDxfId="13"/>
-    <tableColumn id="3" name="Platforms (I, M, P)" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="7"/>
+    <tableColumn id="2" name="General" dataDxfId="6"/>
+    <tableColumn id="4" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" name="Script" dataDxfId="4"/>
+    <tableColumn id="7" name="Priority (1-3)" dataDxfId="3"/>
+    <tableColumn id="9" name="Fixed" dataDxfId="2"/>
+    <tableColumn id="10" name="What fixed it?" dataDxfId="1"/>
+    <tableColumn id="3" name="Platforms (I, M, P)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2039,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H594"/>
+  <dimension ref="A1:H593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2068,7 +1940,7 @@
       <c r="F1" s="62"/>
       <c r="G1" s="62"/>
       <c r="H1" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2081,7 +1953,7 @@
       <c r="G2" s="63"/>
       <c r="H2" s="53">
         <f>SUM(Table47[Time Est])</f>
-        <v>31.5</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2098,16 +1970,16 @@
         <v>131</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" s="51" t="s">
         <v>167</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5">
@@ -2118,7 +1990,7 @@
         <v>134</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>81</v>
@@ -2144,7 +2016,7 @@
         <v>139</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>81</v>
@@ -2156,7 +2028,7 @@
         <v>132</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" s="57">
         <v>2</v>
@@ -2196,7 +2068,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>81</v>
@@ -2222,7 +2094,7 @@
         <v>148</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>81</v>
@@ -2248,7 +2120,7 @@
         <v>139</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>81</v>
@@ -2260,7 +2132,7 @@
         <v>132</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="57">
         <v>1.5</v>
@@ -2312,7 +2184,7 @@
         <v>132</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="H11" s="57">
         <v>2</v>
@@ -2352,7 +2224,7 @@
         <v>148</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>81</v>
@@ -2378,7 +2250,7 @@
         <v>148</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>81</v>
@@ -2474,13 +2346,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>141</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>81</v>
@@ -2495,18 +2367,18 @@
         <v>147</v>
       </c>
       <c r="H18" s="57">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>81</v>
@@ -2518,47 +2390,47 @@
         <v>132</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="H19" s="57">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42.75">
       <c r="A20" s="48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="55" t="s">
         <v>132</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="H20" s="57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="42.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.5">
       <c r="A21" s="48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>81</v>
@@ -2578,13 +2450,13 @@
     </row>
     <row r="22" spans="1:8" ht="28.5">
       <c r="A22" s="48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>81</v>
@@ -2604,13 +2476,13 @@
     </row>
     <row r="23" spans="1:8" ht="28.5">
       <c r="A23" s="48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>81</v>
@@ -2630,13 +2502,13 @@
     </row>
     <row r="24" spans="1:8" ht="28.5">
       <c r="A24" s="48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>154</v>
+      <c r="C24" s="58" t="s">
+        <v>155</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>81</v>
@@ -2651,18 +2523,18 @@
         <v>147</v>
       </c>
       <c r="H24" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="42.75">
       <c r="A25" s="48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="58" t="s">
-        <v>155</v>
+      <c r="C25" s="56" t="s">
+        <v>158</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>81</v>
@@ -2677,18 +2549,18 @@
         <v>147</v>
       </c>
       <c r="H25" s="57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="42.75">
       <c r="A26" s="48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>81</v>
@@ -2703,44 +2575,42 @@
         <v>147</v>
       </c>
       <c r="H26" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="48">
+        <v>25</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="55">
         <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="42.75">
-      <c r="A27" s="48">
-        <v>24</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="55">
-        <v>3</v>
       </c>
       <c r="F27" s="55" t="s">
         <v>132</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="H27" s="57"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.5">
       <c r="A28" s="48">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>125</v>
@@ -2756,15 +2626,15 @@
       </c>
       <c r="H28" s="57"/>
     </row>
-    <row r="29" spans="1:8" ht="28.5">
+    <row r="29" spans="1:8">
       <c r="A29" s="48">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>1</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>125</v>
@@ -2780,15 +2650,15 @@
       </c>
       <c r="H29" s="57"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="28.5">
       <c r="A30" s="48">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>125</v>
@@ -2804,15 +2674,15 @@
       </c>
       <c r="H30" s="57"/>
     </row>
-    <row r="31" spans="1:8" ht="28.5">
+    <row r="31" spans="1:8">
       <c r="A31" s="48">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>125</v>
@@ -2828,15 +2698,15 @@
       </c>
       <c r="H31" s="57"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="28.5">
       <c r="A32" s="48">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>69</v>
+        <v>135</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>133</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>125</v>
@@ -2845,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>146</v>
@@ -2854,13 +2724,13 @@
     </row>
     <row r="33" spans="1:8" ht="28.5">
       <c r="A33" s="48">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>133</v>
+        <v>148</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>0</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>125</v>
@@ -2869,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>146</v>
@@ -2878,13 +2748,13 @@
     </row>
     <row r="34" spans="1:8" ht="28.5">
       <c r="A34" s="48">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D34" s="55" t="s">
         <v>125</v>
@@ -2902,19 +2772,19 @@
     </row>
     <row r="35" spans="1:8" ht="28.5">
       <c r="A35" s="48">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>125</v>
       </c>
       <c r="E35" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="55" t="s">
         <v>132</v>
@@ -2926,13 +2796,13 @@
     </row>
     <row r="36" spans="1:8" ht="28.5">
       <c r="A36" s="48">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>125</v>
@@ -2948,15 +2818,15 @@
       </c>
       <c r="H36" s="57"/>
     </row>
-    <row r="37" spans="1:8" ht="28.5">
+    <row r="37" spans="1:8">
       <c r="A37" s="48">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>125</v>
@@ -2974,13 +2844,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="48">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>125</v>
@@ -2996,15 +2866,15 @@
       </c>
       <c r="H38" s="57"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="28.5">
       <c r="A39" s="48">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>125</v>
@@ -3020,15 +2890,15 @@
       </c>
       <c r="H39" s="57"/>
     </row>
-    <row r="40" spans="1:8" ht="28.5">
+    <row r="40" spans="1:8">
       <c r="A40" s="48">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>135</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D40" s="55" t="s">
         <v>125</v>
@@ -3044,15 +2914,15 @@
       </c>
       <c r="H40" s="57"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="28.5">
       <c r="A41" s="48">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>125</v>
@@ -3070,13 +2940,13 @@
     </row>
     <row r="42" spans="1:8" ht="28.5">
       <c r="A42" s="48">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="58" t="s">
-        <v>50</v>
+      <c r="C42" s="60" t="s">
+        <v>70</v>
       </c>
       <c r="D42" s="55" t="s">
         <v>125</v>
@@ -3094,13 +2964,13 @@
     </row>
     <row r="43" spans="1:8" ht="28.5">
       <c r="A43" s="48">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="60" t="s">
-        <v>70</v>
+      <c r="C43" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>125</v>
@@ -3118,13 +2988,13 @@
     </row>
     <row r="44" spans="1:8" ht="28.5">
       <c r="A44" s="48">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="58" t="s">
-        <v>59</v>
+      <c r="C44" s="60" t="s">
+        <v>18</v>
       </c>
       <c r="D44" s="55" t="s">
         <v>125</v>
@@ -3142,19 +3012,19 @@
     </row>
     <row r="45" spans="1:8" ht="28.5">
       <c r="A45" s="48">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>18</v>
+        <v>140</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D45" s="55" t="s">
         <v>125</v>
       </c>
       <c r="E45" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="55" t="s">
         <v>132</v>
@@ -3164,15 +3034,15 @@
       </c>
       <c r="H45" s="57"/>
     </row>
-    <row r="46" spans="1:8" ht="28.5">
+    <row r="46" spans="1:8">
       <c r="A46" s="48">
-        <v>43</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>140</v>
+        <v>44</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>143</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>125</v>
@@ -3190,31 +3060,21 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="48">
-        <v>44</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="55">
-        <v>3</v>
-      </c>
-      <c r="F47" s="55" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="48">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="56"/>
@@ -3228,7 +3088,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="55"/>
       <c r="C49" s="56"/>
@@ -3242,7 +3102,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="56"/>
@@ -3256,7 +3116,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="48">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="56"/>
@@ -3270,7 +3130,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="48">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="55"/>
       <c r="C52" s="56"/>
@@ -3284,7 +3144,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="48">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="56"/>
@@ -3298,7 +3158,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="48">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="55"/>
       <c r="C54" s="56"/>
@@ -3312,7 +3172,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="48">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="55"/>
       <c r="C55" s="56"/>
@@ -3326,7 +3186,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="48">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="55"/>
       <c r="C56" s="56"/>
@@ -3340,7 +3200,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="48">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="56"/>
@@ -3354,7 +3214,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="48">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="55"/>
       <c r="C58" s="56"/>
@@ -3368,7 +3228,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="48">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="55"/>
       <c r="C59" s="56"/>
@@ -3382,7 +3242,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="48">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="55"/>
       <c r="C60" s="56"/>
@@ -3396,7 +3256,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="48">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="55"/>
       <c r="C61" s="56"/>
@@ -3410,7 +3270,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="48">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="55"/>
       <c r="C62" s="56"/>
@@ -3424,7 +3284,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="48">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="55"/>
       <c r="C63" s="56"/>
@@ -3438,7 +3298,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="48">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="55"/>
       <c r="C64" s="56"/>
@@ -3452,7 +3312,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="48">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="55"/>
       <c r="C65" s="56"/>
@@ -3466,7 +3326,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="48">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="55"/>
       <c r="C66" s="56"/>
@@ -3480,7 +3340,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="48">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="55"/>
       <c r="C67" s="56"/>
@@ -3494,7 +3354,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="48">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="55"/>
       <c r="C68" s="56"/>
@@ -3508,7 +3368,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="48">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="55"/>
       <c r="C69" s="56"/>
@@ -3522,7 +3382,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="48">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="55"/>
       <c r="C70" s="56"/>
@@ -3536,7 +3396,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="48">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="55"/>
       <c r="C71" s="56"/>
@@ -3550,7 +3410,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="48">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="55"/>
       <c r="C72" s="56"/>
@@ -3564,7 +3424,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="48">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="55"/>
       <c r="C73" s="56"/>
@@ -3578,7 +3438,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="48">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="55"/>
       <c r="C74" s="56"/>
@@ -3592,7 +3452,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="48">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="55"/>
       <c r="C75" s="56"/>
@@ -3606,7 +3466,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="48">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="55"/>
       <c r="C76" s="56"/>
@@ -3620,7 +3480,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="48">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="55"/>
       <c r="C77" s="56"/>
@@ -3634,7 +3494,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="48">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="55"/>
       <c r="C78" s="56"/>
@@ -3648,7 +3508,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="48">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="55"/>
       <c r="C79" s="56"/>
@@ -3662,7 +3522,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="48">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="55"/>
       <c r="C80" s="56"/>
@@ -3676,7 +3536,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="48">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="55"/>
       <c r="C81" s="56"/>
@@ -3690,7 +3550,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="48">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="55"/>
       <c r="C82" s="56"/>
@@ -3704,7 +3564,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="48">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="55"/>
       <c r="C83" s="56"/>
@@ -3718,7 +3578,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="48">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="55"/>
       <c r="C84" s="56"/>
@@ -3732,7 +3592,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="48">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="55"/>
       <c r="C85" s="56"/>
@@ -3746,7 +3606,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="48">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="55"/>
       <c r="C86" s="56"/>
@@ -3760,7 +3620,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="48">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="55"/>
       <c r="C87" s="56"/>
@@ -3774,7 +3634,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="48">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="55"/>
       <c r="C88" s="56"/>
@@ -3788,7 +3648,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="48">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="55"/>
       <c r="C89" s="56"/>
@@ -3802,7 +3662,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="48">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="55"/>
       <c r="C90" s="56"/>
@@ -3816,7 +3676,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="48">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="55"/>
       <c r="C91" s="56"/>
@@ -3830,7 +3690,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="48">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="55"/>
       <c r="C92" s="56"/>
@@ -3844,7 +3704,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="48">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="55"/>
       <c r="C93" s="56"/>
@@ -3858,7 +3718,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="48">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="55"/>
       <c r="C94" s="56"/>
@@ -3872,7 +3732,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="48">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="55"/>
       <c r="C95" s="56"/>
@@ -3886,7 +3746,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="48">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="55"/>
       <c r="C96" s="56"/>
@@ -3900,7 +3760,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="48">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="55"/>
       <c r="C97" s="56"/>
@@ -3914,7 +3774,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="48">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="55"/>
       <c r="C98" s="56"/>
@@ -3928,7 +3788,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="48">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -3942,7 +3802,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="48">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="55"/>
       <c r="C100" s="56"/>
@@ -3956,7 +3816,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="48">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="55"/>
       <c r="C101" s="56"/>
@@ -3970,7 +3830,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="48">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="55"/>
       <c r="C102" s="56"/>
@@ -3984,7 +3844,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="55"/>
       <c r="C103" s="56"/>
@@ -3998,7 +3858,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="55"/>
       <c r="C104" s="56"/>
@@ -4012,7 +3872,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="48">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" s="55"/>
       <c r="C105" s="56"/>
@@ -4026,7 +3886,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="48">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="55"/>
       <c r="C106" s="56"/>
@@ -4040,7 +3900,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="48">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" s="55"/>
       <c r="C107" s="56"/>
@@ -4054,7 +3914,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="48">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" s="55"/>
       <c r="C108" s="56"/>
@@ -4068,7 +3928,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="55"/>
       <c r="C109" s="56"/>
@@ -4082,7 +3942,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="55"/>
       <c r="C110" s="56"/>
@@ -4096,7 +3956,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="48">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" s="55"/>
       <c r="C111" s="56"/>
@@ -4110,7 +3970,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="48">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" s="55"/>
       <c r="C112" s="56"/>
@@ -4124,7 +3984,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="48">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" s="55"/>
       <c r="C113" s="56"/>
@@ -4138,7 +3998,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="48">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" s="55"/>
       <c r="C114" s="56"/>
@@ -4152,7 +4012,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="48">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" s="55"/>
       <c r="C115" s="56"/>
@@ -4166,7 +4026,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="48">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="55"/>
       <c r="C116" s="56"/>
@@ -4180,7 +4040,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="48">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="55"/>
       <c r="C117" s="56"/>
@@ -4194,7 +4054,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="48">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="55"/>
       <c r="C118" s="56"/>
@@ -4208,7 +4068,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="48">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="55"/>
       <c r="C119" s="56"/>
@@ -4222,7 +4082,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="48">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="55"/>
       <c r="C120" s="56"/>
@@ -4236,7 +4096,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="48">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" s="55"/>
       <c r="C121" s="56"/>
@@ -4250,7 +4110,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="48">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="55"/>
       <c r="C122" s="56"/>
@@ -4264,7 +4124,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="48">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" s="55"/>
       <c r="C123" s="56"/>
@@ -4278,7 +4138,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="48">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" s="55"/>
       <c r="C124" s="56"/>
@@ -4292,7 +4152,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="48">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="55"/>
       <c r="C125" s="56"/>
@@ -4306,7 +4166,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="48">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="55"/>
       <c r="C126" s="56"/>
@@ -4320,7 +4180,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="48">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="55"/>
       <c r="C127" s="56"/>
@@ -4334,7 +4194,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="48">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="55"/>
       <c r="C128" s="56"/>
@@ -4348,7 +4208,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="48">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="55"/>
       <c r="C129" s="56"/>
@@ -4362,7 +4222,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="48">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="55"/>
       <c r="C130" s="56"/>
@@ -4376,7 +4236,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="48">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" s="55"/>
       <c r="C131" s="56"/>
@@ -4390,7 +4250,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="48">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" s="55"/>
       <c r="C132" s="56"/>
@@ -4404,7 +4264,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="48">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="55"/>
       <c r="C133" s="56"/>
@@ -4418,7 +4278,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="48">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="55"/>
       <c r="C134" s="56"/>
@@ -4432,7 +4292,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="48">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="55"/>
       <c r="C135" s="56"/>
@@ -4446,7 +4306,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="48">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="55"/>
       <c r="C136" s="56"/>
@@ -4460,7 +4320,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="48">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="55"/>
       <c r="C137" s="56"/>
@@ -4474,7 +4334,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="48">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" s="55"/>
       <c r="C138" s="56"/>
@@ -4488,7 +4348,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="48">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="55"/>
       <c r="C139" s="56"/>
@@ -4502,7 +4362,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="48">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="55"/>
       <c r="C140" s="56"/>
@@ -4516,7 +4376,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="48">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="55"/>
       <c r="C141" s="56"/>
@@ -4530,7 +4390,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="48">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="55"/>
       <c r="C142" s="56"/>
@@ -4544,7 +4404,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="48">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="55"/>
       <c r="C143" s="56"/>
@@ -4558,7 +4418,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="48">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" s="55"/>
       <c r="C144" s="56"/>
@@ -4572,7 +4432,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="48">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" s="55"/>
       <c r="C145" s="56"/>
@@ -4586,7 +4446,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="48">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" s="55"/>
       <c r="C146" s="56"/>
@@ -4600,7 +4460,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="48">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" s="55"/>
       <c r="C147" s="56"/>
@@ -4614,7 +4474,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="48">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148" s="55"/>
       <c r="C148" s="56"/>
@@ -4628,7 +4488,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="48">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" s="55"/>
       <c r="C149" s="56"/>
@@ -4642,7 +4502,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="48">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150" s="55"/>
       <c r="C150" s="56"/>
@@ -4656,7 +4516,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="48">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" s="55"/>
       <c r="C151" s="56"/>
@@ -4670,7 +4530,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="48">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" s="55"/>
       <c r="C152" s="56"/>
@@ -4684,7 +4544,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="48">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B153" s="55"/>
       <c r="C153" s="56"/>
@@ -4698,7 +4558,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="48">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154" s="55"/>
       <c r="C154" s="56"/>
@@ -4712,7 +4572,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="48">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" s="55"/>
       <c r="C155" s="56"/>
@@ -4726,7 +4586,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="48">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" s="55"/>
       <c r="C156" s="56"/>
@@ -4740,7 +4600,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="48">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B157" s="55"/>
       <c r="C157" s="56"/>
@@ -4754,7 +4614,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="48">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B158" s="55"/>
       <c r="C158" s="56"/>
@@ -4768,7 +4628,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="48">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B159" s="55"/>
       <c r="C159" s="56"/>
@@ -4782,7 +4642,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="48">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B160" s="55"/>
       <c r="C160" s="56"/>
@@ -4796,7 +4656,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="48">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B161" s="55"/>
       <c r="C161" s="56"/>
@@ -4810,7 +4670,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="48">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B162" s="55"/>
       <c r="C162" s="56"/>
@@ -4824,7 +4684,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="48">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163" s="55"/>
       <c r="C163" s="56"/>
@@ -4838,7 +4698,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="48">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B164" s="55"/>
       <c r="C164" s="56"/>
@@ -4852,7 +4712,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="48">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" s="55"/>
       <c r="C165" s="56"/>
@@ -4866,7 +4726,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="48">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B166" s="55"/>
       <c r="C166" s="56"/>
@@ -4880,7 +4740,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="48">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B167" s="55"/>
       <c r="C167" s="56"/>
@@ -4894,7 +4754,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="48">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B168" s="55"/>
       <c r="C168" s="56"/>
@@ -4908,7 +4768,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="48">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B169" s="55"/>
       <c r="C169" s="56"/>
@@ -4922,7 +4782,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="48">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B170" s="55"/>
       <c r="C170" s="56"/>
@@ -4936,7 +4796,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="48">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B171" s="55"/>
       <c r="C171" s="56"/>
@@ -4950,7 +4810,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="48">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B172" s="55"/>
       <c r="C172" s="56"/>
@@ -4964,7 +4824,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="48">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B173" s="55"/>
       <c r="C173" s="56"/>
@@ -4978,7 +4838,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B174" s="55"/>
       <c r="C174" s="56"/>
@@ -4992,7 +4852,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="48">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B175" s="55"/>
       <c r="C175" s="56"/>
@@ -5006,7 +4866,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="48">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B176" s="55"/>
       <c r="C176" s="56"/>
@@ -5020,7 +4880,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="48">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="55"/>
       <c r="C177" s="56"/>
@@ -5034,7 +4894,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="48">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B178" s="55"/>
       <c r="C178" s="56"/>
@@ -5048,7 +4908,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="48">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B179" s="55"/>
       <c r="C179" s="56"/>
@@ -5062,7 +4922,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="48">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B180" s="55"/>
       <c r="C180" s="56"/>
@@ -5076,7 +4936,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="48">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B181" s="55"/>
       <c r="C181" s="56"/>
@@ -5090,7 +4950,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="48">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B182" s="55"/>
       <c r="C182" s="56"/>
@@ -5104,7 +4964,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="48">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" s="55"/>
       <c r="C183" s="56"/>
@@ -5118,7 +4978,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="48">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B184" s="55"/>
       <c r="C184" s="56"/>
@@ -5132,7 +4992,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="48">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B185" s="55"/>
       <c r="C185" s="56"/>
@@ -5146,7 +5006,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="48">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B186" s="55"/>
       <c r="C186" s="56"/>
@@ -5160,7 +5020,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="48">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B187" s="55"/>
       <c r="C187" s="56"/>
@@ -5174,7 +5034,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="48">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B188" s="55"/>
       <c r="C188" s="56"/>
@@ -5188,7 +5048,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="48">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B189" s="55"/>
       <c r="C189" s="56"/>
@@ -5202,7 +5062,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="48">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B190" s="55"/>
       <c r="C190" s="56"/>
@@ -5216,7 +5076,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="48">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B191" s="55"/>
       <c r="C191" s="56"/>
@@ -5230,7 +5090,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="48">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B192" s="55"/>
       <c r="C192" s="56"/>
@@ -5244,7 +5104,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="48">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B193" s="55"/>
       <c r="C193" s="56"/>
@@ -5258,7 +5118,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="48">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B194" s="55"/>
       <c r="C194" s="56"/>
@@ -5272,7 +5132,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="48">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B195" s="55"/>
       <c r="C195" s="56"/>
@@ -5286,7 +5146,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="48">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B196" s="55"/>
       <c r="C196" s="56"/>
@@ -5300,7 +5160,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="48">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B197" s="55"/>
       <c r="C197" s="56"/>
@@ -5314,7 +5174,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="48">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B198" s="55"/>
       <c r="C198" s="56"/>
@@ -5328,7 +5188,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="48">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B199" s="55"/>
       <c r="C199" s="56"/>
@@ -5342,7 +5202,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="48">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B200" s="55"/>
       <c r="C200" s="56"/>
@@ -5356,7 +5216,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="48">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B201" s="55"/>
       <c r="C201" s="56"/>
@@ -5370,7 +5230,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="48">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B202" s="55"/>
       <c r="C202" s="56"/>
@@ -5384,7 +5244,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="48">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B203" s="55"/>
       <c r="C203" s="56"/>
@@ -5398,7 +5258,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="48">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B204" s="55"/>
       <c r="C204" s="56"/>
@@ -5412,7 +5272,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="48">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B205" s="55"/>
       <c r="C205" s="56"/>
@@ -5426,7 +5286,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="48">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B206" s="55"/>
       <c r="C206" s="56"/>
@@ -5440,7 +5300,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="48">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B207" s="55"/>
       <c r="C207" s="56"/>
@@ -5454,7 +5314,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="48">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B208" s="55"/>
       <c r="C208" s="56"/>
@@ -5468,7 +5328,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="48">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B209" s="55"/>
       <c r="C209" s="56"/>
@@ -5482,7 +5342,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="48">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B210" s="55"/>
       <c r="C210" s="56"/>
@@ -5496,7 +5356,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="48">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B211" s="55"/>
       <c r="C211" s="56"/>
@@ -5510,7 +5370,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="48">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B212" s="55"/>
       <c r="C212" s="56"/>
@@ -5524,7 +5384,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="48">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B213" s="55"/>
       <c r="C213" s="56"/>
@@ -5538,7 +5398,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="48">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B214" s="55"/>
       <c r="C214" s="56"/>
@@ -5552,7 +5412,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="48">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B215" s="55"/>
       <c r="C215" s="56"/>
@@ -5566,7 +5426,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="48">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B216" s="55"/>
       <c r="C216" s="56"/>
@@ -5580,7 +5440,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="48">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B217" s="55"/>
       <c r="C217" s="56"/>
@@ -5594,7 +5454,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="48">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B218" s="55"/>
       <c r="C218" s="56"/>
@@ -5608,7 +5468,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="48">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B219" s="55"/>
       <c r="C219" s="56"/>
@@ -5622,7 +5482,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="48">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B220" s="55"/>
       <c r="C220" s="56"/>
@@ -5636,7 +5496,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="48">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B221" s="55"/>
       <c r="C221" s="56"/>
@@ -5650,7 +5510,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="48">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B222" s="55"/>
       <c r="C222" s="56"/>
@@ -5664,7 +5524,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="48">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B223" s="55"/>
       <c r="C223" s="56"/>
@@ -5678,7 +5538,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="48">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B224" s="55"/>
       <c r="C224" s="56"/>
@@ -5692,7 +5552,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="48">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B225" s="55"/>
       <c r="C225" s="56"/>
@@ -5706,7 +5566,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="48">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B226" s="55"/>
       <c r="C226" s="56"/>
@@ -5720,7 +5580,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="48">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B227" s="55"/>
       <c r="C227" s="56"/>
@@ -5734,7 +5594,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="48">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B228" s="55"/>
       <c r="C228" s="56"/>
@@ -5748,7 +5608,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="48">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B229" s="55"/>
       <c r="C229" s="56"/>
@@ -5762,7 +5622,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="48">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B230" s="55"/>
       <c r="C230" s="56"/>
@@ -5776,7 +5636,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="48">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B231" s="55"/>
       <c r="C231" s="56"/>
@@ -5790,7 +5650,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="48">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B232" s="55"/>
       <c r="C232" s="56"/>
@@ -5804,7 +5664,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="48">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B233" s="55"/>
       <c r="C233" s="56"/>
@@ -5818,7 +5678,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="48">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B234" s="55"/>
       <c r="C234" s="56"/>
@@ -5832,7 +5692,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="48">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B235" s="55"/>
       <c r="C235" s="56"/>
@@ -5846,7 +5706,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="48">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B236" s="55"/>
       <c r="C236" s="56"/>
@@ -5860,7 +5720,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="48">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B237" s="55"/>
       <c r="C237" s="56"/>
@@ -5874,7 +5734,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="48">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B238" s="55"/>
       <c r="C238" s="56"/>
@@ -5888,7 +5748,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="48">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B239" s="55"/>
       <c r="C239" s="56"/>
@@ -5902,7 +5762,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="48">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B240" s="55"/>
       <c r="C240" s="56"/>
@@ -5916,7 +5776,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="48">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B241" s="55"/>
       <c r="C241" s="56"/>
@@ -5930,7 +5790,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="48">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B242" s="55"/>
       <c r="C242" s="56"/>
@@ -5944,7 +5804,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="48">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B243" s="55"/>
       <c r="C243" s="56"/>
@@ -5958,7 +5818,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="48">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B244" s="55"/>
       <c r="C244" s="56"/>
@@ -5972,7 +5832,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="48">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B245" s="55"/>
       <c r="C245" s="56"/>
@@ -5986,7 +5846,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="48">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B246" s="55"/>
       <c r="C246" s="56"/>
@@ -6000,7 +5860,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="48">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B247" s="55"/>
       <c r="C247" s="56"/>
@@ -6014,7 +5874,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="48">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B248" s="55"/>
       <c r="C248" s="56"/>
@@ -6028,7 +5888,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="48">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B249" s="55"/>
       <c r="C249" s="56"/>
@@ -6042,7 +5902,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="48">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B250" s="55"/>
       <c r="C250" s="56"/>
@@ -6056,7 +5916,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="48">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B251" s="55"/>
       <c r="C251" s="56"/>
@@ -6070,7 +5930,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="48">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B252" s="55"/>
       <c r="C252" s="56"/>
@@ -6084,7 +5944,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="48">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B253" s="55"/>
       <c r="C253" s="56"/>
@@ -6098,7 +5958,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="48">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B254" s="55"/>
       <c r="C254" s="56"/>
@@ -6112,7 +5972,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="48">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B255" s="55"/>
       <c r="C255" s="56"/>
@@ -6126,7 +5986,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="48">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B256" s="55"/>
       <c r="C256" s="56"/>
@@ -6140,7 +6000,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="48">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B257" s="55"/>
       <c r="C257" s="56"/>
@@ -6154,7 +6014,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="48">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B258" s="55"/>
       <c r="C258" s="56"/>
@@ -6168,7 +6028,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="48">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B259" s="55"/>
       <c r="C259" s="56"/>
@@ -6182,7 +6042,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="48">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B260" s="55"/>
       <c r="C260" s="56"/>
@@ -6196,7 +6056,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="48">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B261" s="55"/>
       <c r="C261" s="56"/>
@@ -6210,7 +6070,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="48">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B262" s="55"/>
       <c r="C262" s="56"/>
@@ -6224,7 +6084,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="48">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B263" s="55"/>
       <c r="C263" s="56"/>
@@ -6238,7 +6098,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="48">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B264" s="55"/>
       <c r="C264" s="56"/>
@@ -6252,7 +6112,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="48">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B265" s="55"/>
       <c r="C265" s="56"/>
@@ -6266,7 +6126,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="48">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B266" s="55"/>
       <c r="C266" s="56"/>
@@ -6280,7 +6140,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="48">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B267" s="55"/>
       <c r="C267" s="56"/>
@@ -6294,7 +6154,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="48">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B268" s="55"/>
       <c r="C268" s="56"/>
@@ -6308,7 +6168,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="48">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B269" s="55"/>
       <c r="C269" s="56"/>
@@ -6322,7 +6182,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="48">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B270" s="55"/>
       <c r="C270" s="56"/>
@@ -6336,7 +6196,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="48">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B271" s="55"/>
       <c r="C271" s="56"/>
@@ -6350,7 +6210,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="48">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B272" s="55"/>
       <c r="C272" s="56"/>
@@ -6364,7 +6224,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="48">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B273" s="55"/>
       <c r="C273" s="56"/>
@@ -6378,7 +6238,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="48">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B274" s="55"/>
       <c r="C274" s="56"/>
@@ -6392,7 +6252,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="48">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B275" s="55"/>
       <c r="C275" s="56"/>
@@ -6406,7 +6266,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="48">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B276" s="55"/>
       <c r="C276" s="56"/>
@@ -6420,7 +6280,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="48">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B277" s="55"/>
       <c r="C277" s="56"/>
@@ -6434,7 +6294,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="48">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B278" s="55"/>
       <c r="C278" s="56"/>
@@ -6448,7 +6308,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="48">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B279" s="55"/>
       <c r="C279" s="56"/>
@@ -6462,7 +6322,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="48">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B280" s="55"/>
       <c r="C280" s="56"/>
@@ -6476,7 +6336,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="48">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B281" s="55"/>
       <c r="C281" s="56"/>
@@ -6490,7 +6350,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="48">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B282" s="55"/>
       <c r="C282" s="56"/>
@@ -6504,7 +6364,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="48">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B283" s="55"/>
       <c r="C283" s="56"/>
@@ -6518,7 +6378,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="48">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B284" s="55"/>
       <c r="C284" s="56"/>
@@ -6532,7 +6392,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="48">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B285" s="55"/>
       <c r="C285" s="56"/>
@@ -6546,7 +6406,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="48">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B286" s="55"/>
       <c r="C286" s="56"/>
@@ -6560,7 +6420,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="48">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B287" s="55"/>
       <c r="C287" s="56"/>
@@ -6574,7 +6434,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="48">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B288" s="55"/>
       <c r="C288" s="56"/>
@@ -6588,7 +6448,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="48">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B289" s="55"/>
       <c r="C289" s="56"/>
@@ -6602,7 +6462,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="48">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B290" s="55"/>
       <c r="C290" s="56"/>
@@ -6616,7 +6476,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="48">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B291" s="55"/>
       <c r="C291" s="56"/>
@@ -6630,7 +6490,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="48">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B292" s="55"/>
       <c r="C292" s="56"/>
@@ -6644,7 +6504,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="48">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B293" s="55"/>
       <c r="C293" s="56"/>
@@ -6658,7 +6518,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="48">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B294" s="55"/>
       <c r="C294" s="56"/>
@@ -6672,7 +6532,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="48">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B295" s="55"/>
       <c r="C295" s="56"/>
@@ -6686,7 +6546,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="48">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B296" s="55"/>
       <c r="C296" s="56"/>
@@ -6700,7 +6560,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="48">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B297" s="55"/>
       <c r="C297" s="56"/>
@@ -6714,7 +6574,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="48">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B298" s="55"/>
       <c r="C298" s="56"/>
@@ -6728,7 +6588,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="48">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B299" s="55"/>
       <c r="C299" s="56"/>
@@ -6742,7 +6602,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="48">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B300" s="55"/>
       <c r="C300" s="56"/>
@@ -6756,7 +6616,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="48">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B301" s="55"/>
       <c r="C301" s="56"/>
@@ -6770,7 +6630,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="48">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B302" s="55"/>
       <c r="C302" s="56"/>
@@ -6784,7 +6644,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="48">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B303" s="55"/>
       <c r="C303" s="56"/>
@@ -6798,7 +6658,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="48">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B304" s="55"/>
       <c r="C304" s="56"/>
@@ -6812,7 +6672,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="48">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B305" s="55"/>
       <c r="C305" s="56"/>
@@ -6826,7 +6686,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="48">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B306" s="55"/>
       <c r="C306" s="56"/>
@@ -6840,7 +6700,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="48">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B307" s="55"/>
       <c r="C307" s="56"/>
@@ -6854,7 +6714,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="48">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B308" s="55"/>
       <c r="C308" s="56"/>
@@ -6868,7 +6728,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="48">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B309" s="55"/>
       <c r="C309" s="56"/>
@@ -6882,7 +6742,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="48">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B310" s="55"/>
       <c r="C310" s="56"/>
@@ -6896,7 +6756,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="48">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B311" s="55"/>
       <c r="C311" s="56"/>
@@ -6910,7 +6770,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="48">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B312" s="55"/>
       <c r="C312" s="56"/>
@@ -6924,7 +6784,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="48">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B313" s="55"/>
       <c r="C313" s="56"/>
@@ -6938,7 +6798,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="48">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B314" s="55"/>
       <c r="C314" s="56"/>
@@ -6952,7 +6812,7 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="48">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B315" s="55"/>
       <c r="C315" s="56"/>
@@ -6966,7 +6826,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="48">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B316" s="55"/>
       <c r="C316" s="56"/>
@@ -6980,7 +6840,7 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="48">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B317" s="55"/>
       <c r="C317" s="56"/>
@@ -6994,7 +6854,7 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="48">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B318" s="55"/>
       <c r="C318" s="56"/>
@@ -7008,7 +6868,7 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="48">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B319" s="55"/>
       <c r="C319" s="56"/>
@@ -7022,7 +6882,7 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="48">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B320" s="55"/>
       <c r="C320" s="56"/>
@@ -7036,7 +6896,7 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="48">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B321" s="55"/>
       <c r="C321" s="56"/>
@@ -7050,7 +6910,7 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="48">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B322" s="55"/>
       <c r="C322" s="56"/>
@@ -7064,7 +6924,7 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="48">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B323" s="55"/>
       <c r="C323" s="56"/>
@@ -7078,7 +6938,7 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="48">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B324" s="55"/>
       <c r="C324" s="56"/>
@@ -7092,7 +6952,7 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="48">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B325" s="55"/>
       <c r="C325" s="56"/>
@@ -7106,7 +6966,7 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="48">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B326" s="55"/>
       <c r="C326" s="56"/>
@@ -7120,7 +6980,7 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="48">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B327" s="55"/>
       <c r="C327" s="56"/>
@@ -7134,7 +6994,7 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="48">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B328" s="55"/>
       <c r="C328" s="56"/>
@@ -7148,7 +7008,7 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="48">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B329" s="55"/>
       <c r="C329" s="56"/>
@@ -7162,7 +7022,7 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="48">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B330" s="55"/>
       <c r="C330" s="56"/>
@@ -7176,7 +7036,7 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="48">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B331" s="55"/>
       <c r="C331" s="56"/>
@@ -7190,7 +7050,7 @@
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="48">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B332" s="55"/>
       <c r="C332" s="56"/>
@@ -7204,7 +7064,7 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="48">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B333" s="55"/>
       <c r="C333" s="56"/>
@@ -7218,7 +7078,7 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="48">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B334" s="55"/>
       <c r="C334" s="56"/>
@@ -7232,7 +7092,7 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="48">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B335" s="55"/>
       <c r="C335" s="56"/>
@@ -7246,7 +7106,7 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="48">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B336" s="55"/>
       <c r="C336" s="56"/>
@@ -7260,7 +7120,7 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="48">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B337" s="55"/>
       <c r="C337" s="56"/>
@@ -7274,7 +7134,7 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="48">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B338" s="55"/>
       <c r="C338" s="56"/>
@@ -7288,7 +7148,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="48">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B339" s="55"/>
       <c r="C339" s="56"/>
@@ -7302,7 +7162,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="48">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B340" s="55"/>
       <c r="C340" s="56"/>
@@ -7316,7 +7176,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="48">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B341" s="55"/>
       <c r="C341" s="56"/>
@@ -7330,7 +7190,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="48">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B342" s="55"/>
       <c r="C342" s="56"/>
@@ -7344,7 +7204,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="48">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B343" s="55"/>
       <c r="C343" s="56"/>
@@ -7358,7 +7218,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="48">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B344" s="55"/>
       <c r="C344" s="56"/>
@@ -7372,7 +7232,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="48">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B345" s="55"/>
       <c r="C345" s="56"/>
@@ -7386,7 +7246,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="48">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B346" s="55"/>
       <c r="C346" s="56"/>
@@ -7400,7 +7260,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="48">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B347" s="55"/>
       <c r="C347" s="56"/>
@@ -7414,7 +7274,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="48">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B348" s="55"/>
       <c r="C348" s="56"/>
@@ -7428,7 +7288,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="48">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B349" s="55"/>
       <c r="C349" s="56"/>
@@ -7442,7 +7302,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="48">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B350" s="55"/>
       <c r="C350" s="56"/>
@@ -7456,7 +7316,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="48">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B351" s="55"/>
       <c r="C351" s="56"/>
@@ -7470,7 +7330,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="48">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B352" s="55"/>
       <c r="C352" s="56"/>
@@ -7484,7 +7344,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="48">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B353" s="55"/>
       <c r="C353" s="56"/>
@@ -7498,7 +7358,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="48">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B354" s="55"/>
       <c r="C354" s="56"/>
@@ -7512,7 +7372,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="48">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B355" s="55"/>
       <c r="C355" s="56"/>
@@ -7526,7 +7386,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="48">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B356" s="55"/>
       <c r="C356" s="56"/>
@@ -7540,7 +7400,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="48">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B357" s="55"/>
       <c r="C357" s="56"/>
@@ -7554,7 +7414,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="48">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B358" s="55"/>
       <c r="C358" s="56"/>
@@ -7568,7 +7428,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="48">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B359" s="55"/>
       <c r="C359" s="56"/>
@@ -7582,7 +7442,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="48">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B360" s="55"/>
       <c r="C360" s="56"/>
@@ -7596,7 +7456,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="48">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B361" s="55"/>
       <c r="C361" s="56"/>
@@ -7610,7 +7470,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="48">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B362" s="55"/>
       <c r="C362" s="56"/>
@@ -7624,7 +7484,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="48">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B363" s="55"/>
       <c r="C363" s="56"/>
@@ -7638,7 +7498,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="48">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B364" s="55"/>
       <c r="C364" s="56"/>
@@ -7652,7 +7512,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="48">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B365" s="55"/>
       <c r="C365" s="56"/>
@@ -7666,7 +7526,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="48">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B366" s="55"/>
       <c r="C366" s="56"/>
@@ -7680,7 +7540,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="48">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B367" s="55"/>
       <c r="C367" s="56"/>
@@ -7694,7 +7554,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="48">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B368" s="55"/>
       <c r="C368" s="56"/>
@@ -7708,7 +7568,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="48">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B369" s="55"/>
       <c r="C369" s="56"/>
@@ -7722,7 +7582,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="48">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B370" s="55"/>
       <c r="C370" s="56"/>
@@ -7736,7 +7596,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="48">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B371" s="55"/>
       <c r="C371" s="56"/>
@@ -7750,7 +7610,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="48">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B372" s="55"/>
       <c r="C372" s="56"/>
@@ -7764,7 +7624,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="48">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B373" s="55"/>
       <c r="C373" s="56"/>
@@ -7778,7 +7638,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="48">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B374" s="55"/>
       <c r="C374" s="56"/>
@@ -7792,7 +7652,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="48">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B375" s="55"/>
       <c r="C375" s="56"/>
@@ -7806,7 +7666,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="48">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B376" s="55"/>
       <c r="C376" s="56"/>
@@ -7820,7 +7680,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="48">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B377" s="55"/>
       <c r="C377" s="56"/>
@@ -7834,7 +7694,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="48">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B378" s="55"/>
       <c r="C378" s="56"/>
@@ -7848,7 +7708,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="48">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B379" s="55"/>
       <c r="C379" s="56"/>
@@ -7862,7 +7722,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="48">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B380" s="55"/>
       <c r="C380" s="56"/>
@@ -7876,7 +7736,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="48">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B381" s="55"/>
       <c r="C381" s="56"/>
@@ -7890,7 +7750,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="48">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B382" s="55"/>
       <c r="C382" s="56"/>
@@ -7904,7 +7764,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="48">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B383" s="55"/>
       <c r="C383" s="56"/>
@@ -7918,7 +7778,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="48">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B384" s="55"/>
       <c r="C384" s="56"/>
@@ -7932,7 +7792,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="48">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B385" s="55"/>
       <c r="C385" s="56"/>
@@ -7946,7 +7806,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="48">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B386" s="55"/>
       <c r="C386" s="56"/>
@@ -7960,7 +7820,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="48">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B387" s="55"/>
       <c r="C387" s="56"/>
@@ -7974,7 +7834,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="48">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B388" s="55"/>
       <c r="C388" s="56"/>
@@ -7988,7 +7848,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="48">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B389" s="55"/>
       <c r="C389" s="56"/>
@@ -8002,7 +7862,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="48">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B390" s="55"/>
       <c r="C390" s="56"/>
@@ -8016,7 +7876,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="48">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B391" s="55"/>
       <c r="C391" s="56"/>
@@ -8030,7 +7890,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="48">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B392" s="55"/>
       <c r="C392" s="56"/>
@@ -8044,7 +7904,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="48">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B393" s="55"/>
       <c r="C393" s="56"/>
@@ -8058,7 +7918,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="48">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B394" s="55"/>
       <c r="C394" s="56"/>
@@ -8072,7 +7932,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="48">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B395" s="55"/>
       <c r="C395" s="56"/>
@@ -8086,7 +7946,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="48">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B396" s="55"/>
       <c r="C396" s="56"/>
@@ -8100,7 +7960,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="48">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B397" s="55"/>
       <c r="C397" s="56"/>
@@ -8114,7 +7974,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="48">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B398" s="55"/>
       <c r="C398" s="56"/>
@@ -8128,7 +7988,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="48">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B399" s="55"/>
       <c r="C399" s="56"/>
@@ -8142,7 +8002,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="48">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B400" s="55"/>
       <c r="C400" s="56"/>
@@ -8156,7 +8016,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="48">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B401" s="55"/>
       <c r="C401" s="56"/>
@@ -8170,7 +8030,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="48">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B402" s="55"/>
       <c r="C402" s="56"/>
@@ -8184,7 +8044,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="48">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B403" s="55"/>
       <c r="C403" s="56"/>
@@ -8198,7 +8058,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="48">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B404" s="55"/>
       <c r="C404" s="56"/>
@@ -8212,7 +8072,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="48">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B405" s="55"/>
       <c r="C405" s="56"/>
@@ -8226,7 +8086,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="48">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B406" s="55"/>
       <c r="C406" s="56"/>
@@ -8240,7 +8100,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="48">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B407" s="55"/>
       <c r="C407" s="56"/>
@@ -8254,7 +8114,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="48">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B408" s="55"/>
       <c r="C408" s="56"/>
@@ -8268,7 +8128,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="48">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B409" s="55"/>
       <c r="C409" s="56"/>
@@ -8282,7 +8142,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="48">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B410" s="55"/>
       <c r="C410" s="56"/>
@@ -8296,7 +8156,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="48">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B411" s="55"/>
       <c r="C411" s="56"/>
@@ -8310,7 +8170,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="48">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B412" s="55"/>
       <c r="C412" s="56"/>
@@ -8324,7 +8184,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="48">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B413" s="55"/>
       <c r="C413" s="56"/>
@@ -8338,7 +8198,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="48">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B414" s="55"/>
       <c r="C414" s="56"/>
@@ -8352,7 +8212,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="48">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B415" s="55"/>
       <c r="C415" s="56"/>
@@ -8366,7 +8226,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="48">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B416" s="55"/>
       <c r="C416" s="56"/>
@@ -8380,7 +8240,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="48">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B417" s="55"/>
       <c r="C417" s="56"/>
@@ -8394,7 +8254,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="48">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B418" s="55"/>
       <c r="C418" s="56"/>
@@ -8408,7 +8268,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="48">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B419" s="55"/>
       <c r="C419" s="56"/>
@@ -8422,7 +8282,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="48">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B420" s="55"/>
       <c r="C420" s="56"/>
@@ -8436,7 +8296,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="48">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B421" s="55"/>
       <c r="C421" s="56"/>
@@ -8450,7 +8310,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="48">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B422" s="55"/>
       <c r="C422" s="56"/>
@@ -8464,7 +8324,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="48">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B423" s="55"/>
       <c r="C423" s="56"/>
@@ -8478,7 +8338,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="48">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B424" s="55"/>
       <c r="C424" s="56"/>
@@ -8492,7 +8352,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="48">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B425" s="55"/>
       <c r="C425" s="56"/>
@@ -8506,7 +8366,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="48">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B426" s="55"/>
       <c r="C426" s="56"/>
@@ -8520,7 +8380,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="48">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B427" s="55"/>
       <c r="C427" s="56"/>
@@ -8534,7 +8394,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="48">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B428" s="55"/>
       <c r="C428" s="56"/>
@@ -8548,7 +8408,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="48">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B429" s="55"/>
       <c r="C429" s="56"/>
@@ -8562,7 +8422,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="48">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B430" s="55"/>
       <c r="C430" s="56"/>
@@ -8576,7 +8436,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="48">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B431" s="55"/>
       <c r="C431" s="56"/>
@@ -8590,7 +8450,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="48">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B432" s="55"/>
       <c r="C432" s="56"/>
@@ -8604,7 +8464,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="48">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B433" s="55"/>
       <c r="C433" s="56"/>
@@ -8618,7 +8478,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="48">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B434" s="55"/>
       <c r="C434" s="56"/>
@@ -8632,7 +8492,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="48">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B435" s="55"/>
       <c r="C435" s="56"/>
@@ -8646,7 +8506,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="48">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B436" s="55"/>
       <c r="C436" s="56"/>
@@ -8660,7 +8520,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="48">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B437" s="55"/>
       <c r="C437" s="56"/>
@@ -8674,7 +8534,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="48">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B438" s="55"/>
       <c r="C438" s="56"/>
@@ -8688,7 +8548,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="48">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B439" s="55"/>
       <c r="C439" s="56"/>
@@ -8702,7 +8562,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="48">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B440" s="55"/>
       <c r="C440" s="56"/>
@@ -8716,7 +8576,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="48">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B441" s="55"/>
       <c r="C441" s="56"/>
@@ -8730,7 +8590,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="48">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B442" s="55"/>
       <c r="C442" s="56"/>
@@ -8744,7 +8604,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="48">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B443" s="55"/>
       <c r="C443" s="56"/>
@@ -8758,7 +8618,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="48">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B444" s="55"/>
       <c r="C444" s="56"/>
@@ -8772,7 +8632,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="48">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B445" s="55"/>
       <c r="C445" s="56"/>
@@ -8786,7 +8646,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="48">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B446" s="55"/>
       <c r="C446" s="56"/>
@@ -8800,7 +8660,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="48">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B447" s="55"/>
       <c r="C447" s="56"/>
@@ -8814,7 +8674,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="48">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B448" s="55"/>
       <c r="C448" s="56"/>
@@ -8828,7 +8688,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="48">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B449" s="55"/>
       <c r="C449" s="56"/>
@@ -8842,7 +8702,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="48">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B450" s="55"/>
       <c r="C450" s="56"/>
@@ -8856,7 +8716,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="48">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B451" s="55"/>
       <c r="C451" s="56"/>
@@ -8870,7 +8730,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="48">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B452" s="55"/>
       <c r="C452" s="56"/>
@@ -8884,7 +8744,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="48">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B453" s="55"/>
       <c r="C453" s="56"/>
@@ -8898,7 +8758,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="48">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B454" s="55"/>
       <c r="C454" s="56"/>
@@ -8912,7 +8772,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="48">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B455" s="55"/>
       <c r="C455" s="56"/>
@@ -8926,7 +8786,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="48">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B456" s="55"/>
       <c r="C456" s="56"/>
@@ -8940,7 +8800,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="48">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B457" s="55"/>
       <c r="C457" s="56"/>
@@ -8954,7 +8814,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="48">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B458" s="55"/>
       <c r="C458" s="56"/>
@@ -8968,7 +8828,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="48">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B459" s="55"/>
       <c r="C459" s="56"/>
@@ -8982,7 +8842,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="48">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B460" s="55"/>
       <c r="C460" s="56"/>
@@ -8996,7 +8856,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="48">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B461" s="55"/>
       <c r="C461" s="56"/>
@@ -9010,7 +8870,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="48">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B462" s="55"/>
       <c r="C462" s="56"/>
@@ -9024,7 +8884,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="48">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B463" s="55"/>
       <c r="C463" s="56"/>
@@ -9038,7 +8898,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="48">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B464" s="55"/>
       <c r="C464" s="56"/>
@@ -9052,7 +8912,7 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="48">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B465" s="55"/>
       <c r="C465" s="56"/>
@@ -9066,7 +8926,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="48">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B466" s="55"/>
       <c r="C466" s="56"/>
@@ -9080,7 +8940,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="48">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B467" s="55"/>
       <c r="C467" s="56"/>
@@ -9094,7 +8954,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="48">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B468" s="55"/>
       <c r="C468" s="56"/>
@@ -9108,7 +8968,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="48">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B469" s="55"/>
       <c r="C469" s="56"/>
@@ -9122,7 +8982,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="48">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B470" s="55"/>
       <c r="C470" s="56"/>
@@ -9136,7 +8996,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="48">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B471" s="55"/>
       <c r="C471" s="56"/>
@@ -9150,7 +9010,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="48">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B472" s="55"/>
       <c r="C472" s="56"/>
@@ -9164,7 +9024,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="48">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B473" s="55"/>
       <c r="C473" s="56"/>
@@ -9178,7 +9038,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="48">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B474" s="55"/>
       <c r="C474" s="56"/>
@@ -9192,7 +9052,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="48">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B475" s="55"/>
       <c r="C475" s="56"/>
@@ -9206,7 +9066,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="48">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B476" s="55"/>
       <c r="C476" s="56"/>
@@ -9220,7 +9080,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="48">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B477" s="55"/>
       <c r="C477" s="56"/>
@@ -9234,7 +9094,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="48">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B478" s="55"/>
       <c r="C478" s="56"/>
@@ -9248,7 +9108,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="48">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B479" s="55"/>
       <c r="C479" s="56"/>
@@ -9262,7 +9122,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="48">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B480" s="55"/>
       <c r="C480" s="56"/>
@@ -9276,7 +9136,7 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="48">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B481" s="55"/>
       <c r="C481" s="56"/>
@@ -9290,7 +9150,7 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="48">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B482" s="55"/>
       <c r="C482" s="56"/>
@@ -9304,7 +9164,7 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" s="48">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B483" s="55"/>
       <c r="C483" s="56"/>
@@ -9318,7 +9178,7 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" s="48">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B484" s="55"/>
       <c r="C484" s="56"/>
@@ -9332,7 +9192,7 @@
     </row>
     <row r="485" spans="1:8">
       <c r="A485" s="48">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B485" s="55"/>
       <c r="C485" s="56"/>
@@ -9346,7 +9206,7 @@
     </row>
     <row r="486" spans="1:8">
       <c r="A486" s="48">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B486" s="55"/>
       <c r="C486" s="56"/>
@@ -9360,7 +9220,7 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" s="48">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B487" s="55"/>
       <c r="C487" s="56"/>
@@ -9374,7 +9234,7 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" s="48">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B488" s="55"/>
       <c r="C488" s="56"/>
@@ -9388,7 +9248,7 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" s="48">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B489" s="55"/>
       <c r="C489" s="56"/>
@@ -9402,7 +9262,7 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" s="48">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B490" s="55"/>
       <c r="C490" s="56"/>
@@ -9416,7 +9276,7 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" s="48">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B491" s="55"/>
       <c r="C491" s="56"/>
@@ -9430,7 +9290,7 @@
     </row>
     <row r="492" spans="1:8">
       <c r="A492" s="48">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B492" s="55"/>
       <c r="C492" s="56"/>
@@ -9444,7 +9304,7 @@
     </row>
     <row r="493" spans="1:8">
       <c r="A493" s="48">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B493" s="55"/>
       <c r="C493" s="56"/>
@@ -9458,7 +9318,7 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" s="48">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B494" s="55"/>
       <c r="C494" s="56"/>
@@ -9472,7 +9332,7 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" s="48">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B495" s="55"/>
       <c r="C495" s="56"/>
@@ -9486,7 +9346,7 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" s="48">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B496" s="55"/>
       <c r="C496" s="56"/>
@@ -9500,7 +9360,7 @@
     </row>
     <row r="497" spans="1:8">
       <c r="A497" s="48">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B497" s="55"/>
       <c r="C497" s="56"/>
@@ -9514,7 +9374,7 @@
     </row>
     <row r="498" spans="1:8">
       <c r="A498" s="48">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B498" s="55"/>
       <c r="C498" s="56"/>
@@ -9528,7 +9388,7 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" s="48">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B499" s="55"/>
       <c r="C499" s="56"/>
@@ -9542,7 +9402,7 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" s="48">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B500" s="55"/>
       <c r="C500" s="56"/>
@@ -9556,7 +9416,7 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" s="48">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B501" s="55"/>
       <c r="C501" s="56"/>
@@ -9570,7 +9430,7 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="48">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B502" s="55"/>
       <c r="C502" s="56"/>
@@ -9584,7 +9444,7 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" s="48">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B503" s="55"/>
       <c r="C503" s="56"/>
@@ -9598,7 +9458,7 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" s="48">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B504" s="55"/>
       <c r="C504" s="56"/>
@@ -9612,7 +9472,7 @@
     </row>
     <row r="505" spans="1:8">
       <c r="A505" s="48">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B505" s="55"/>
       <c r="C505" s="56"/>
@@ -9626,7 +9486,7 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" s="48">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B506" s="55"/>
       <c r="C506" s="56"/>
@@ -9640,7 +9500,7 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" s="48">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B507" s="55"/>
       <c r="C507" s="56"/>
@@ -9654,7 +9514,7 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" s="48">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B508" s="55"/>
       <c r="C508" s="56"/>
@@ -9668,7 +9528,7 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" s="48">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B509" s="55"/>
       <c r="C509" s="56"/>
@@ -9682,7 +9542,7 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" s="48">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B510" s="55"/>
       <c r="C510" s="56"/>
@@ -9696,7 +9556,7 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" s="48">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B511" s="55"/>
       <c r="C511" s="56"/>
@@ -9710,7 +9570,7 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" s="48">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B512" s="55"/>
       <c r="C512" s="56"/>
@@ -9724,7 +9584,7 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" s="48">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B513" s="55"/>
       <c r="C513" s="56"/>
@@ -9738,7 +9598,7 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" s="48">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B514" s="55"/>
       <c r="C514" s="56"/>
@@ -9752,7 +9612,7 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" s="48">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B515" s="55"/>
       <c r="C515" s="56"/>
@@ -9766,7 +9626,7 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" s="48">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B516" s="55"/>
       <c r="C516" s="56"/>
@@ -9780,7 +9640,7 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" s="48">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B517" s="55"/>
       <c r="C517" s="56"/>
@@ -9794,7 +9654,7 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" s="48">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B518" s="55"/>
       <c r="C518" s="56"/>
@@ -9808,7 +9668,7 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" s="48">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B519" s="55"/>
       <c r="C519" s="56"/>
@@ -9822,7 +9682,7 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" s="48">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B520" s="55"/>
       <c r="C520" s="56"/>
@@ -9836,7 +9696,7 @@
     </row>
     <row r="521" spans="1:8">
       <c r="A521" s="48">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B521" s="55"/>
       <c r="C521" s="56"/>
@@ -9850,7 +9710,7 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" s="48">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B522" s="55"/>
       <c r="C522" s="56"/>
@@ -9864,7 +9724,7 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" s="48">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B523" s="55"/>
       <c r="C523" s="56"/>
@@ -9878,7 +9738,7 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" s="48">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B524" s="55"/>
       <c r="C524" s="56"/>
@@ -9892,7 +9752,7 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" s="48">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B525" s="55"/>
       <c r="C525" s="56"/>
@@ -9906,7 +9766,7 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" s="48">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B526" s="55"/>
       <c r="C526" s="56"/>
@@ -9920,7 +9780,7 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" s="48">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B527" s="55"/>
       <c r="C527" s="56"/>
@@ -9934,7 +9794,7 @@
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="48">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B528" s="55"/>
       <c r="C528" s="56"/>
@@ -9948,7 +9808,7 @@
     </row>
     <row r="529" spans="1:8">
       <c r="A529" s="48">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B529" s="55"/>
       <c r="C529" s="56"/>
@@ -9962,7 +9822,7 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" s="48">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B530" s="55"/>
       <c r="C530" s="56"/>
@@ -9976,7 +9836,7 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" s="48">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B531" s="55"/>
       <c r="C531" s="56"/>
@@ -9990,7 +9850,7 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" s="48">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B532" s="55"/>
       <c r="C532" s="56"/>
@@ -10004,7 +9864,7 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" s="48">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B533" s="55"/>
       <c r="C533" s="56"/>
@@ -10018,7 +9878,7 @@
     </row>
     <row r="534" spans="1:8">
       <c r="A534" s="48">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B534" s="55"/>
       <c r="C534" s="56"/>
@@ -10032,7 +9892,7 @@
     </row>
     <row r="535" spans="1:8">
       <c r="A535" s="48">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B535" s="55"/>
       <c r="C535" s="56"/>
@@ -10046,7 +9906,7 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" s="48">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B536" s="55"/>
       <c r="C536" s="56"/>
@@ -10060,7 +9920,7 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" s="48">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B537" s="55"/>
       <c r="C537" s="56"/>
@@ -10074,7 +9934,7 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" s="48">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B538" s="55"/>
       <c r="C538" s="56"/>
@@ -10088,7 +9948,7 @@
     </row>
     <row r="539" spans="1:8">
       <c r="A539" s="48">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B539" s="55"/>
       <c r="C539" s="56"/>
@@ -10102,7 +9962,7 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" s="48">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B540" s="55"/>
       <c r="C540" s="56"/>
@@ -10116,7 +9976,7 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" s="48">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B541" s="55"/>
       <c r="C541" s="56"/>
@@ -10130,7 +9990,7 @@
     </row>
     <row r="542" spans="1:8">
       <c r="A542" s="48">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B542" s="55"/>
       <c r="C542" s="56"/>
@@ -10144,7 +10004,7 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" s="48">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B543" s="55"/>
       <c r="C543" s="56"/>
@@ -10158,7 +10018,7 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" s="48">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B544" s="55"/>
       <c r="C544" s="56"/>
@@ -10172,7 +10032,7 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" s="48">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B545" s="55"/>
       <c r="C545" s="56"/>
@@ -10186,7 +10046,7 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" s="48">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B546" s="55"/>
       <c r="C546" s="56"/>
@@ -10200,7 +10060,7 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" s="48">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B547" s="55"/>
       <c r="C547" s="56"/>
@@ -10214,7 +10074,7 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" s="48">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B548" s="55"/>
       <c r="C548" s="56"/>
@@ -10228,7 +10088,7 @@
     </row>
     <row r="549" spans="1:8">
       <c r="A549" s="48">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B549" s="55"/>
       <c r="C549" s="56"/>
@@ -10242,7 +10102,7 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" s="48">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B550" s="55"/>
       <c r="C550" s="56"/>
@@ -10256,7 +10116,7 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" s="48">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B551" s="55"/>
       <c r="C551" s="56"/>
@@ -10270,7 +10130,7 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" s="48">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B552" s="55"/>
       <c r="C552" s="56"/>
@@ -10284,7 +10144,7 @@
     </row>
     <row r="553" spans="1:8">
       <c r="A553" s="48">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B553" s="55"/>
       <c r="C553" s="56"/>
@@ -10298,7 +10158,7 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="48">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B554" s="55"/>
       <c r="C554" s="56"/>
@@ -10312,7 +10172,7 @@
     </row>
     <row r="555" spans="1:8">
       <c r="A555" s="48">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B555" s="55"/>
       <c r="C555" s="56"/>
@@ -10326,7 +10186,7 @@
     </row>
     <row r="556" spans="1:8">
       <c r="A556" s="48">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B556" s="55"/>
       <c r="C556" s="56"/>
@@ -10340,7 +10200,7 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" s="48">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B557" s="55"/>
       <c r="C557" s="56"/>
@@ -10354,7 +10214,7 @@
     </row>
     <row r="558" spans="1:8">
       <c r="A558" s="48">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B558" s="55"/>
       <c r="C558" s="56"/>
@@ -10368,7 +10228,7 @@
     </row>
     <row r="559" spans="1:8">
       <c r="A559" s="48">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B559" s="55"/>
       <c r="C559" s="56"/>
@@ -10382,7 +10242,7 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" s="48">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B560" s="55"/>
       <c r="C560" s="56"/>
@@ -10396,7 +10256,7 @@
     </row>
     <row r="561" spans="1:8">
       <c r="A561" s="48">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B561" s="55"/>
       <c r="C561" s="56"/>
@@ -10410,7 +10270,7 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" s="48">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B562" s="55"/>
       <c r="C562" s="56"/>
@@ -10424,7 +10284,7 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" s="48">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B563" s="55"/>
       <c r="C563" s="56"/>
@@ -10438,7 +10298,7 @@
     </row>
     <row r="564" spans="1:8">
       <c r="A564" s="48">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B564" s="55"/>
       <c r="C564" s="56"/>
@@ -10452,7 +10312,7 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" s="48">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B565" s="55"/>
       <c r="C565" s="56"/>
@@ -10466,7 +10326,7 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" s="48">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B566" s="55"/>
       <c r="C566" s="56"/>
@@ -10480,7 +10340,7 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" s="48">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B567" s="55"/>
       <c r="C567" s="56"/>
@@ -10494,7 +10354,7 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" s="48">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B568" s="55"/>
       <c r="C568" s="56"/>
@@ -10508,7 +10368,7 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" s="48">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B569" s="55"/>
       <c r="C569" s="56"/>
@@ -10522,7 +10382,7 @@
     </row>
     <row r="570" spans="1:8">
       <c r="A570" s="48">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B570" s="55"/>
       <c r="C570" s="56"/>
@@ -10536,7 +10396,7 @@
     </row>
     <row r="571" spans="1:8">
       <c r="A571" s="48">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B571" s="55"/>
       <c r="C571" s="56"/>
@@ -10550,7 +10410,7 @@
     </row>
     <row r="572" spans="1:8">
       <c r="A572" s="48">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B572" s="55"/>
       <c r="C572" s="56"/>
@@ -10564,7 +10424,7 @@
     </row>
     <row r="573" spans="1:8">
       <c r="A573" s="48">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B573" s="55"/>
       <c r="C573" s="56"/>
@@ -10578,7 +10438,7 @@
     </row>
     <row r="574" spans="1:8">
       <c r="A574" s="48">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B574" s="55"/>
       <c r="C574" s="56"/>
@@ -10592,7 +10452,7 @@
     </row>
     <row r="575" spans="1:8">
       <c r="A575" s="48">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B575" s="55"/>
       <c r="C575" s="56"/>
@@ -10606,7 +10466,7 @@
     </row>
     <row r="576" spans="1:8">
       <c r="A576" s="48">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B576" s="55"/>
       <c r="C576" s="56"/>
@@ -10620,7 +10480,7 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" s="48">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B577" s="55"/>
       <c r="C577" s="56"/>
@@ -10634,7 +10494,7 @@
     </row>
     <row r="578" spans="1:8">
       <c r="A578" s="48">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B578" s="55"/>
       <c r="C578" s="56"/>
@@ -10648,7 +10508,7 @@
     </row>
     <row r="579" spans="1:8">
       <c r="A579" s="48">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B579" s="55"/>
       <c r="C579" s="56"/>
@@ -10662,7 +10522,7 @@
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="48">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B580" s="55"/>
       <c r="C580" s="56"/>
@@ -10676,7 +10536,7 @@
     </row>
     <row r="581" spans="1:8">
       <c r="A581" s="48">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B581" s="55"/>
       <c r="C581" s="56"/>
@@ -10690,7 +10550,7 @@
     </row>
     <row r="582" spans="1:8">
       <c r="A582" s="48">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B582" s="55"/>
       <c r="C582" s="56"/>
@@ -10704,7 +10564,7 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" s="48">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B583" s="55"/>
       <c r="C583" s="56"/>
@@ -10718,7 +10578,7 @@
     </row>
     <row r="584" spans="1:8">
       <c r="A584" s="48">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B584" s="55"/>
       <c r="C584" s="56"/>
@@ -10732,7 +10592,7 @@
     </row>
     <row r="585" spans="1:8">
       <c r="A585" s="48">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B585" s="55"/>
       <c r="C585" s="56"/>
@@ -10746,7 +10606,7 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" s="48">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B586" s="55"/>
       <c r="C586" s="56"/>
@@ -10760,7 +10620,7 @@
     </row>
     <row r="587" spans="1:8">
       <c r="A587" s="48">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B587" s="55"/>
       <c r="C587" s="56"/>
@@ -10774,7 +10634,7 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" s="48">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B588" s="55"/>
       <c r="C588" s="56"/>
@@ -10788,7 +10648,7 @@
     </row>
     <row r="589" spans="1:8">
       <c r="A589" s="48">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B589" s="55"/>
       <c r="C589" s="56"/>
@@ -10802,7 +10662,7 @@
     </row>
     <row r="590" spans="1:8">
       <c r="A590" s="48">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B590" s="55"/>
       <c r="C590" s="56"/>
@@ -10816,7 +10676,7 @@
     </row>
     <row r="591" spans="1:8">
       <c r="A591" s="48">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B591" s="55"/>
       <c r="C591" s="56"/>
@@ -10830,7 +10690,7 @@
     </row>
     <row r="592" spans="1:8">
       <c r="A592" s="48">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B592" s="55"/>
       <c r="C592" s="56"/>
@@ -10844,7 +10704,7 @@
     </row>
     <row r="593" spans="1:8">
       <c r="A593" s="48">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B593" s="55"/>
       <c r="C593" s="56"/>
@@ -10856,57 +10716,43 @@
       </c>
       <c r="H593" s="57"/>
     </row>
-    <row r="594" spans="1:8">
-      <c r="A594" s="48">
-        <v>591</v>
-      </c>
-      <c r="B594" s="55"/>
-      <c r="C594" s="56"/>
-      <c r="D594" s="55"/>
-      <c r="E594" s="55"/>
-      <c r="F594" s="55"/>
-      <c r="G594" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H594" s="57"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G2 G595:G1048576 D3:D594">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+  <conditionalFormatting sqref="G594:G1048576 G1:G2 D3:D593">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="notEqual">
       <formula>"None"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"None"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16396,19 +16242,19 @@
     <mergeCell ref="A1:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E101">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
